--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="105" windowWidth="11475" windowHeight="7425" tabRatio="851"/>
+    <workbookView xWindow="9090" yWindow="105" windowWidth="11475" windowHeight="7425" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Bug_05" sheetId="39" r:id="rId4"/>
     <sheet name="Bug_11" sheetId="40" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -131,15 +134,6 @@
   </si>
   <si>
     <t>SMS List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1. Trong Form Add New Record
-   Step  - Click chọn phone trong select phone number
-KQ: không hiển thị các số phone vừa chọn
-  2. Trong Gorm Edit Record
-   Step - Click chọn phone trong select phone number
-KQ: - Không thể xóa bớt số phone
-       - Không hiển thị số phone vừa chọn</t>
   </si>
   <si>
     <t>Login Sale</t>
@@ -179,6 +173,31 @@
 KQ: 
 1. Hiện ra trang bị lỗi "Sequence contains more than one element"
 2. Sau Login lại thì hiện ra trang báo lỗi trên</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Step
+   - Click chọn Date trong filter To 
+  -  Click Filter button
+KQ: hiện thông báo "Select Start date "
+Expected: cho filter theo To</t>
+  </si>
+  <si>
+    <t>Step
+    - Chọn giá trị trong cái Field
+    - Click vào "Clear" button
+KQ: Các giá trị trong Field không được clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. Trong Form Add New Record
+   Step  - Click chọn phone trong select phone number
+KQ: không hiển thị các số phone vừa chọn
+  2. Trong Form Edit Record
+   Step - Click chọn phone trong select phone number
+KQ: - Không thể xóa bớt số phone
+       - Không hiển thị số phone vừa chọn</t>
   </si>
 </sst>
 </file>
@@ -901,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +979,9 @@
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:7" ht="90" x14ac:dyDescent="0.25">
@@ -976,7 +997,9 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="105" x14ac:dyDescent="0.25">
@@ -987,38 +1010,48 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1032,7 +1065,9 @@
         <v>18</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1046,7 +1081,9 @@
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -1054,13 +1091,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1068,13 +1107,15 @@
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" ht="105" x14ac:dyDescent="0.25">
@@ -1085,10 +1126,12 @@
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7" ht="120" x14ac:dyDescent="0.25">
@@ -1099,28 +1142,46 @@
         <v>21</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
+    <row r="16" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
+    <row r="17" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1316,6 +1377,7 @@
       <c r="G41" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:G17"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -198,6 +198,9 @@
    Step - Click chọn phone trong select phone number
 KQ: - Không thể xóa bớt số phone
        - Không hiển thị số phone vừa chọn</t>
+  </si>
+  <si>
+    <t>SMS List trong Administrators + Sales Portal</t>
   </si>
 </sst>
 </file>
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="105" windowWidth="11475" windowHeight="7425" tabRatio="726"/>
+    <workbookView xWindow="9090" yWindow="165" windowWidth="11475" windowHeight="7365" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Bug_04" sheetId="38" r:id="rId3"/>
     <sheet name="Bug_05" sheetId="39" r:id="rId4"/>
     <sheet name="Bug_11" sheetId="40" r:id="rId5"/>
+    <sheet name="Bug_14" sheetId="41" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$17</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -201,6 +202,36 @@
   </si>
   <si>
     <t>SMS List trong Administrators + Sales Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong Filter chọn customer hoặc salemen
+Step
+   - Click chọn Filter By Group -&gt; Load Region
+   - Click chọn Region --&gt; Load Area
+   - Click chọn Area
+   - Click chọn "Select a type" trong Group
+KQ: Area vẫn còn hiện dữ liệu </t>
+  </si>
+  <si>
+    <t>Customer và Sales</t>
+  </si>
+  <si>
+    <t>Step
+  - Click vào view promotion
+KQ: 
+1. Customer: hiển thị tất cả các promotion nào được add 
+2. Sale: hiển thị tất cả promotion được tạo
+Expected: Các Promotion chưa Approve thì không được hiển thị</t>
+  </si>
+  <si>
+    <t>Step
+ - Tạo Promotion mới với 
+  + Browse Phone number: click chọn customer, nhấn Submit
+  + Browse Phone numbet: click chọn sale, nhấn submit
+KQ; tạo mới thành công, với phone number (1), nhưng khi click vào xem thì hiện "No records to display.", click vào Edit record thì có hiện thị ra số phone (xem hình)</t>
+  </si>
+  <si>
+    <t>Bug_14</t>
   </si>
 </sst>
 </file>
@@ -634,6 +665,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="304800"/>
+          <a:ext cx="10058400" cy="3675546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -921,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,26 +1267,46 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
+    <row r="18" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="8"/>
@@ -1230,7 +1330,7 @@
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
@@ -1246,7 +1346,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
@@ -1281,7 +1381,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -1297,7 +1397,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -1311,7 +1411,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2"/>
       <c r="G33" s="8"/>
     </row>
@@ -1319,7 +1419,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="8"/>
     </row>
@@ -1372,12 +1472,28 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="10"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G17"/>
@@ -1385,7 +1501,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F43">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1394,6 +1510,7 @@
     <hyperlink ref="E8" location="Bug_04!A1" display="Bug_04"/>
     <hyperlink ref="E9" location="Bug_05!A1" display="Bug_05"/>
     <hyperlink ref="E15" location="Bug_11!A1" display="Bug_11"/>
+    <hyperlink ref="E18" location="Bug_14!A1" display="Bug_14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1457,4 +1574,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="165" windowWidth="11475" windowHeight="7365" tabRatio="726"/>
+    <workbookView xWindow="9090" yWindow="165" windowWidth="11475" windowHeight="7365" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
-    <sheet name="Bug_02" sheetId="37" r:id="rId2"/>
-    <sheet name="Bug_04" sheetId="38" r:id="rId3"/>
-    <sheet name="Bug_05" sheetId="39" r:id="rId4"/>
-    <sheet name="Bug_11" sheetId="40" r:id="rId5"/>
-    <sheet name="Bug_14" sheetId="41" r:id="rId6"/>
+    <sheet name="Question" sheetId="42" r:id="rId1"/>
+    <sheet name="Leakage Bug List" sheetId="1" r:id="rId2"/>
+    <sheet name="Bug_02" sheetId="37" r:id="rId3"/>
+    <sheet name="Bug_04" sheetId="38" r:id="rId4"/>
+    <sheet name="Bug_05" sheetId="39" r:id="rId5"/>
+    <sheet name="Bug_11" sheetId="40" r:id="rId6"/>
+    <sheet name="Bug_14" sheetId="41" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Leakage Bug List'!$B$4:$G$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -217,21 +218,52 @@
   </si>
   <si>
     <t>Step
+ - Tạo Promotion mới với 
+  + Browse Phone number: click chọn customer, nhấn Submit
+  + Browse Phone numbet: click chọn sale, nhấn submit
+KQ; tạo mới thành công, với phone number (1), nhưng khi click vào xem thì hiện "No records to display.", click vào Edit record thì có hiện thị ra số phone (xem hình)</t>
+  </si>
+  <si>
+    <t>Bug_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step
   - Click vào view promotion
 KQ: 
 1. Customer: hiển thị tất cả các promotion nào được add 
 2. Sale: hiển thị tất cả promotion được tạo
-Expected: Các Promotion chưa Approve thì không được hiển thị</t>
-  </si>
-  <si>
-    <t>Step
- - Tạo Promotion mới với 
-  + Browse Phone number: click chọn customer, nhấn Submit
-  + Browse Phone numbet: click chọn sale, nhấn submit
-KQ; tạo mới thành công, với phone number (1), nhưng khi click vào xem thì hiện "No records to display.", click vào Edit record thì có hiện thị ra số phone (xem hình)</t>
-  </si>
-  <si>
-    <t>Bug_14</t>
+Expected: Các Promotion chưa Approve thì không được hiển thị. </t>
+  </si>
+  <si>
+    <t>Click vào Promotion trên menu thì Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Administrator/SchedulePromotionManagement.aspx"
+Expected: Hiển thị là "Promotion" như các tab khác</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>- Click vào View Information 
+KQ: 1. Trên Menu: View Information không được highlight mà giữ highlight của tab Click trước đó
+2. Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Customers/ViewInfo.aspx
+Expected: Hiển thị là "View Information" như các tab khác</t>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Administrator &gt;&gt; Group - Region - Area - Local</t>
+  </si>
+  <si>
+    <t>Title hiện  không đúng
+1. Salesmen - Region
+     KQ: Managers of this Group
+     Expected: Managers of this Region
+2. Salesmen - Area
+     KQ: Managers of this Group
+     Expected: Managers of this Area
+3. Salesmen - Local
+     KQ: Managers of this Group
+     Expected: Managers of this Local</t>
   </si>
 </sst>
 </file>
@@ -1000,11 +1032,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1058,7 @@
     <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="67" style="6" customWidth="1"/>
     <col min="5" max="6" width="13" style="5" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="4.85546875" style="5"/>
@@ -1275,12 +1321,14 @@
         <v>9</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="90" x14ac:dyDescent="0.25">
@@ -1291,10 +1339,12 @@
         <v>35</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" ht="105" x14ac:dyDescent="0.25">
@@ -1308,31 +1358,57 @@
         <v>34</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+    <row r="22" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+    <row r="23" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1518,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1531,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1546,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1561,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1576,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="165" windowWidth="11475" windowHeight="7365" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="9090" yWindow="285" windowWidth="11475" windowHeight="7245" tabRatio="726"/>
   </bookViews>
   <sheets>
-    <sheet name="Question" sheetId="42" r:id="rId1"/>
-    <sheet name="Leakage Bug List" sheetId="1" r:id="rId2"/>
-    <sheet name="Bug_02" sheetId="37" r:id="rId3"/>
-    <sheet name="Bug_04" sheetId="38" r:id="rId4"/>
-    <sheet name="Bug_05" sheetId="39" r:id="rId5"/>
-    <sheet name="Bug_11" sheetId="40" r:id="rId6"/>
-    <sheet name="Bug_14" sheetId="41" r:id="rId7"/>
+    <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug_02" sheetId="37" r:id="rId2"/>
+    <sheet name="Bug_04" sheetId="38" r:id="rId3"/>
+    <sheet name="Bug_05" sheetId="39" r:id="rId4"/>
+    <sheet name="Bug_11" sheetId="40" r:id="rId5"/>
+    <sheet name="Bug_14" sheetId="41" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Leakage Bug List'!$B$4:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -32,23 +31,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Diep Thanh Tam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tham chieu sheet chua Image của bug theo BugID</t>
+          <t>Tham chieu sheet chua Image của bug theo BugID</t>
         </r>
       </text>
     </comment>
@@ -57,14 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Leakage ID</t>
   </si>
   <si>
-    <t>Page/Function</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -83,194 +68,1712 @@
     <t>Administrators &gt;&gt; Customer</t>
   </si>
   <si>
-    <t>Click vào Add new record thì không mở Form Add</t>
-  </si>
-  <si>
     <t>Administrators &gt;&gt; Promotions</t>
   </si>
   <si>
     <t>Select phone number</t>
   </si>
   <si>
-    <t>Step
-   1. Click browse trong Phone Numbers,
-   2. Chọn option là Sales
-   3. Không  nhập hoặc nhập vao Filter by Name 
-   4. Nhấp "Apply button"
-KQ: Hiện ra trang bị lỗi "Input string was not in a correct format."</t>
-  </si>
-  <si>
     <t>Bug_02</t>
   </si>
   <si>
     <t>Bug_04</t>
   </si>
   <si>
-    <t>Step
+    <t>Bug_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrators &gt;&gt; Dashboard </t>
+  </si>
+  <si>
+    <t>SMS List</t>
+  </si>
+  <si>
+    <t>Login Sale</t>
+  </si>
+  <si>
+    <t>Administrators &gt;&gt; Salemen</t>
+  </si>
+  <si>
+    <t>Bug_11</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>SMS List trong Administrators + Sales Portal</t>
+  </si>
+  <si>
+    <t>Customer và Sales</t>
+  </si>
+  <si>
+    <t>Bug_14</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Administrator &gt;&gt; Group - Region - Area - Local</t>
+  </si>
+  <si>
+    <t>Page/Function/Item</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chọn số điện thoại trong Select phone number thì phone number không hiển thị số điện thoại vừa chọn  
+1. Trong Form Add New Record
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Click chọn phone trong select phone number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không hiển thị các số phone vừa chọn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tại phone number sẽ hiển thị các số dt vừa chọn
+  2. Trong Form Edit Record
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Click chọn phone trong select phone number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Không thể xóa bớt số phone
+               - Không hiển thị số phone vừa chọn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tại phone number sẽ hiển thị các số dt vừa chọn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Highlight của Administrator trên menu không đúng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   - Click vào "Phone number" của 1 record
   - Click vào "Detail" của một record
-KQ: Administrator trên Menu được highlight, mà không phải là Promotion</t>
-  </si>
-  <si>
-    <t>Step
-  - Sau khi filter xong
-KQ: Số trong Phonenumber đều bằng 0</t>
-  </si>
-  <si>
-    <t>Bug_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrators &gt;&gt; Dashboard </t>
-  </si>
-  <si>
-    <t>Step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Administrator trên Menu được highlight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Promotion trên Menu vẫn được highlight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Number trong cột phonenumber đều bằng 0 sau khi thực hiện filter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Sau khi click filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Số trong Phonenumber đều bằng 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number trong phonenumber vẫn giữ nguyên số</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Record không được xóa khi nhấn icon "Delete"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   - Click vào icon Delete record
-KQ: Reocrd đó không delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer &gt;&gt; Dashboard </t>
-  </si>
-  <si>
-    <t>Trong file 01_DOCUMENT\Document CRM\1 - Master.doc  mô tả "- Dashboard (View information of marketing campaigns/promotion campaigns. And Other information" 
-KQ: Login vào Customer thì không thấy Dashboard</t>
-  </si>
-  <si>
-    <t>SMS List</t>
-  </si>
-  <si>
-    <t>Login Sale</t>
-  </si>
-  <si>
-    <t>Step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Reocrd đó không delete
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sau khi click vào delete, record phải được xóa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nhập password sai cũng login vào hệ thống Sales được</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     - Nhập vào Phone Numer đúng
     - Nhập vào Password không đúng
       -&gt; Click vào "Login" button
-KQ: Login vào hệ thống thành công</t>
-  </si>
-  <si>
-    <t>Administrators &gt;&gt; Salemen</t>
-  </si>
-  <si>
-    <t>Step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Login vào hệ thống thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện ra câu thông báo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click vào dropdown list của Group trong Form add new thì không hiện ra thông tin của Group</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   - Click mở Add new record
   - Click vào Dropdown của Group Field
-KQ: Get được Group name</t>
-  </si>
-  <si>
-    <t>Step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không Get được Group name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trong Dropdown phải Get được các Group name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khi send sms thì insert số record trong inbox và outbox bằng với số lượng phone đã chọn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   - Send mail chọn từ 2 số phone trở lên
- 1. Sender: trong OutLook 
-KQ: Hiển thị số sms tương đương với số lương người nhận
+ 1. Sender: trong Outbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị số sms tương đương với số lương người nhận
 2. Receiver: Trong Inbox của mỗi Receiver
-KQ: nhận được số sms tương đương số lương người nhận được gửi</t>
-  </si>
-  <si>
-    <t>Bug_11</t>
-  </si>
-  <si>
-    <t>Step
-   - Click vào Compose
-   - Không nhập gì cả
-  - Click vào "Send SMS" button
-KQ: 
-1. Hiện ra trang bị lỗi "Sequence contains more than one element"
-2. Sau Login lại thì hiện ra trang báo lỗi trên</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Step
-   - Click chọn Date trong filter To 
-  -  Click Filter button
-KQ: hiện thông báo "Select Start date "
-Expected: cho filter theo To</t>
-  </si>
-  <si>
-    <t>Step
-    - Chọn giá trị trong cái Field
-    - Click vào "Clear" button
-KQ: Các giá trị trong Field không được clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1. Trong Form Add New Record
-   Step  - Click chọn phone trong select phone number
-KQ: không hiển thị các số phone vừa chọn
-  2. Trong Form Edit Record
-   Step - Click chọn phone trong select phone number
-KQ: - Không thể xóa bớt số phone
-       - Không hiển thị số phone vừa chọn</t>
-  </si>
-  <si>
-    <t>SMS List trong Administrators + Sales Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong Filter chọn customer hoặc salemen
-Step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nhận được số sms tương đương số lương người nhận được gửi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chỉ nhận được 1 sms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sai title của phần bên phải</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Title hiện  không đúng
+1. Salesmen - Region
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Managers of this Group
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Managers of this Region
+2. Salesmen - Area
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Managers of this Group
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Managers of this Area
+3. Salesmen - Local
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Managers of this Group
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Managers of this Local</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click vào view information trên menu của Customer thì Title của tab browser hiển thị url và view information không được highlight
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Click vào View Information 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1. Trên Menu: View Information không được highlight mà giữ highlight của tab Click trước đó
+                2. Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Customers/ViewInfo.aspx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1. View information trên menu phải được highlight
+                    2. title của Browsser phải hiển thị là "View Information" như các tab khác </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong Filter chọn customer hoặc salemen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
    - Click chọn Filter By Group -&gt; Load Region
    - Click chọn Region --&gt; Load Area
    - Click chọn Area
    - Click chọn "Select a type" trong Group
-KQ: Area vẫn còn hiện dữ liệu </t>
-  </si>
-  <si>
-    <t>Customer và Sales</t>
-  </si>
-  <si>
-    <t>Step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Area vẫn còn hiện dữ liệu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title của Tab Browser hiển thị không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Click vào Promotion trên menu thì Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Administrator/SchedulePromotionManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Hiển thị là "Promotion" như các tab khác</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer click view promotion có tab cho customer thì vẫn xem được các promotion chưa Approve và Sale  thì xem được tất cả các promotion hiện có
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Click vào view promotion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. Customer: hiển thị tất cả các promotion nào được add 
+2. Sale: hiển thị tất cả promotion được tạo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+        Các Promotion chưa Approve thì không được hiển thị. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khi filter theo "To" thì hiện thị thông báo
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click chọn Date trong filter To 
+  -  Click Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "Select Start date "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Phải cho filter theo "To"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào "Clear" button nhưng value trong form filter vẫn giữ nguyên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Chọn giá trị trong cái Field
+    - Click vào "Clear" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+        Các giá trị trong Field không được reset
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Phải reset các Field có trong Form khi click vào "Clear" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>From Add new customer không mở
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Trong Administrators &gt;&gt; Customer
+- Click vào Add new record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không mở Form Add Customer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Khi click vào "Add new record" thì phải mở ra Form Add new Customer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị không đúng khi click vào phonenumber của 1 record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
  - Tạo Promotion mới với 
   + Browse Phone number: click chọn customer, nhấn Submit
-  + Browse Phone numbet: click chọn sale, nhấn submit
-KQ; tạo mới thành công, với phone number (1), nhưng khi click vào xem thì hiện "No records to display.", click vào Edit record thì có hiện thị ra số phone (xem hình)</t>
-  </si>
-  <si>
-    <t>Bug_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step
-  - Click vào view promotion
-KQ: 
-1. Customer: hiển thị tất cả các promotion nào được add 
-2. Sale: hiển thị tất cả promotion được tạo
-Expected: Các Promotion chưa Approve thì không được hiển thị. </t>
-  </si>
-  <si>
-    <t>Click vào Promotion trên menu thì Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Administrator/SchedulePromotionManagement.aspx"
-Expected: Hiển thị là "Promotion" như các tab khác</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>- Click vào View Information 
-KQ: 1. Trên Menu: View Information không được highlight mà giữ highlight của tab Click trước đó
-2. Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Customers/ViewInfo.aspx
-Expected: Hiển thị là "View Information" như các tab khác</t>
-  </si>
-  <si>
-    <t>Administrator &gt;&gt;  Administrator &gt;&gt; Group - Region - Area - Local</t>
-  </si>
-  <si>
-    <t>Title hiện  không đúng
-1. Salesmen - Region
-     KQ: Managers of this Group
-     Expected: Managers of this Region
-2. Salesmen - Area
-     KQ: Managers of this Group
-     Expected: Managers of this Area
-3. Salesmen - Local
-     KQ: Managers of this Group
-     Expected: Managers of this Local</t>
+  + Browse Phone numbet: click chọn 1 saler, nhấn submit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tạo mới thành công, với </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phone number (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Click vào phonenumber 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:
+       H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iện trong detail là "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No records to display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+             Click vào Edit record 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+          Hiện trong detail là số phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          Khi click vào phonenumber thì phải hiển thị detail gồm số phone hiện có</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click vào "Send SMS" button khi không nhập các field thì hiện ra trang lỗi và không thể vào hệ thống lại được</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào Compose
+   - Không nhập gì cả
+  - Click vào "Send SMS" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. Hiện ra trang bị lỗi "Sequence contains more than one element"
+2. Trở về trang default và Login lại thì hiện ra trang báo lỗi trên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Hiện ra câu thông báo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Filter theo Option là "Sale" thì hiện ra trang báo lỗi
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Click browse trong Phone Numbers field
+   2. Chọn option là Sales
+   3. Không  nhập hoặc nhập vao Filter by Name 
+   4. Nhấp "Apply button"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Hiện ra trang lỗi "Input string was not in a correct format."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Hiển thị kết quả Filter theo keyword</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,13 +1788,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -318,6 +1814,31 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -396,14 +1917,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -412,7 +1933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,6 +1962,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,25 +2559,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G43"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,14 +2574,15 @@
     <col min="2" max="2" width="8.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="67" style="6" customWidth="1"/>
-    <col min="5" max="6" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="4.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1082,268 +2598,268 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G19" s="8"/>
     </row>
@@ -1352,69 +2868,61 @@
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>44</v>
-      </c>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="8"/>
@@ -1422,7 +2930,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
@@ -1465,7 +2973,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -1473,7 +2981,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -1495,7 +3003,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="8"/>
     </row>
@@ -1556,28 +3064,20 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="10"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G17"/>
+  <autoFilter ref="B4:G16"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F42">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1585,12 +3085,25 @@
     <hyperlink ref="E6" location="Bug_02!A1" display="Bug_02"/>
     <hyperlink ref="E8" location="Bug_04!A1" display="Bug_04"/>
     <hyperlink ref="E9" location="Bug_05!A1" display="Bug_05"/>
-    <hyperlink ref="E15" location="Bug_11!A1" display="Bug_11"/>
-    <hyperlink ref="E18" location="Bug_14!A1" display="Bug_14"/>
+    <hyperlink ref="E14" location="Bug_11!A1" display="Bug_11"/>
+    <hyperlink ref="E17" location="Bug_14!A1" display="Bug_14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1612,7 +3125,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +3140,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,24 +3154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="285" windowWidth="11475" windowHeight="7245" tabRatio="726"/>
+    <workbookView xWindow="-90" yWindow="3315" windowWidth="20730" windowHeight="6615" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -1052,59 +1052,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Title của Tab Browser hiển thị không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-       Click vào Promotion trên menu thì Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Administrator/SchedulePromotionManagement.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-         Hiển thị là "Promotion" như các tab khác</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Customer click view promotion có tab cho customer thì vẫn xem được các promotion chưa Approve và Sale  thì xem được tất cả các promotion hiện có
 </t>
     </r>
@@ -1766,6 +1713,1798 @@
       </rPr>
       <t xml:space="preserve"> 
          Hiển thị kết quả Filter theo keyword</t>
+    </r>
+  </si>
+  <si>
+    <t>Form Login của Customer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không nhập password thì câu thông báo hiện không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào Customer tại trang Default
+  - Nhập đúng phone number
+  - Không nhập password
+  - Click vào Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+          Hiện ra câu thông báo "Please enter phone number!"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+             Câu thông báo phải là "Please enter your password!"</t>
+    </r>
+  </si>
+  <si>
+    <t>Salesmen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title của Tab Browser hiển thị không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Click vào Promotion trên menu thì Title của Tab Browser hiển thị là "http://pharma.u-matrixsoft.com/Administrator/SchedulePromotionManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Hiển thị là "Promotion Management" như các tab khác</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; Permistion &gt;&gt; Role</t>
+  </si>
+  <si>
+    <t>Lỗi trong chức năng Insert
+Repro:
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+Result: Đóng Form Add new
+Expected: hiển thị câu thông báo 
+    2. Nhập vào Name là space
+Result: Imsert thành công
+Expected: Hiển ra câu thông báo
+    3. Nhập vào Name với giá trị đã tồn tại
+Result: Đóng Form Insert, và không insert vào DB
+Expected: Hiển thị câu thông báp Name đã tồn tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Permistion &gt;&gt; Administrator Management </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+     2. Nhập vào UPI Code, click vào icon insert
+     3. Nhập vào UPI Code và Fullname, click icon Insert
+     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
+     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
+    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện ta câu thông báo vì phone không có chứa chữ
+    7. Nhập đầy đủ các field với UPI code đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
+    8. Nhập đầy đủ các field với Fullname là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Permission - Allow Approve </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
+      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
+       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Supervisor Position</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Salemans/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Salemans/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo name không được để trống
+    3. Update Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào 1 record mở ra Form Update
+    1.  Xóa UPI Code, click vào icon Update
+    2. Xóa giá trị trong Fullnam, và click vào icon Update
+    3. Xóa giá trị trong Phone, vna2 click vào icon Update
+    4. Xóa giá trị Password, và click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo UPI không được trống
+     5. Sửa  UPI Code tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo vì UPI Code không thể trùng
+     6. Sửa Fullname với giá trị space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+     7. Sửa giá trị trong phone sang giá trị dồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo
+     8. Sửa giá trị trong phone là số + chữ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi thay đổi function bên Left và Right nhấn Save button, và load lại page, thì tất cả Function đều hiện bên Left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Click thay đổi Function trong Left và Right -&gt; Click vào "Save" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi load lại page thì tất cả cá Function đều hiện bên Left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phải hiện thị đúng các Funtion sau khi click vào Save button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    2. Nhập vào Position Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    3. Nhập vào Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Position Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong Position Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Position Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name không được để trống
+    3. Update Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Position Name đã tồn tại</t>
     </r>
   </si>
 </sst>
@@ -1960,14 +3699,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2560,19 +4299,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="67" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
@@ -2581,14 +4320,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
@@ -2620,8 +4359,8 @@
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>39</v>
+      <c r="D5" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -2636,8 +4375,8 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>42</v>
+      <c r="D6" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
@@ -2670,7 +4409,7 @@
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2688,7 +4427,7 @@
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2706,7 +4445,7 @@
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4"/>
@@ -2722,7 +4461,7 @@
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="4"/>
@@ -2738,7 +4477,7 @@
       <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="4"/>
@@ -2754,7 +4493,7 @@
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="4"/>
@@ -2770,8 +4509,8 @@
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>41</v>
+      <c r="D14" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
@@ -2788,8 +4527,8 @@
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>37</v>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
@@ -2804,8 +4543,8 @@
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>38</v>
+      <c r="D16" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
@@ -2820,8 +4559,8 @@
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>40</v>
+      <c r="D17" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>20</v>
@@ -2838,8 +4577,8 @@
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>36</v>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
@@ -2871,7 +4610,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
@@ -2886,7 +4625,7 @@
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="4"/>
@@ -2902,7 +4641,7 @@
       <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="4"/>
@@ -2911,85 +4650,165 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+    <row r="23" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="12"/>
+    <row r="24" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+    <row r="25" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+    <row r="26" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+    <row r="27" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+    <row r="28" spans="2:7" ht="360" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+    <row r="29" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+    <row r="30" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>26</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+    <row r="31" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+    <row r="32" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -2997,61 +4816,61 @@
       <c r="D33" s="9"/>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="8"/>
     </row>
@@ -3059,17 +4878,89 @@
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
@@ -3077,7 +4968,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F51">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -3506,6 +3506,9 @@
       </rPr>
       <t xml:space="preserve"> Hiển thị câu thông báp Position Name đã tồn tại</t>
     </r>
+  </si>
+  <si>
+    <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
   </si>
 </sst>
 </file>
@@ -4302,9 +4305,9 @@
   <dimension ref="B2:G51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4779,9 @@
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -4811,7 +4816,9 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="4"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -3509,6 +3509,479 @@
   </si>
   <si>
     <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; CustomerType </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Customer Type là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Customer Type là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột UPI Code hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Customer Type và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Customer Type hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type không được để trống
+    4. Update Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Channel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dropdown của Parent Channel trong form add new record không GET được Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Click mở Add New Record để mở Form
+  - Click vào Dropdown của Parent Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không GET được Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Get tất cả các channel hiện có </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4305,9 +4778,9 @@
   <dimension ref="B2:G51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4815,30 +5288,52 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+    <row r="34" spans="2:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+    <row r="35" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -2816,6 +2816,897 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Khi thay đổi function bên Left và Right nhấn Save button, và load lại page, thì tất cả Function đều hiện bên Left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Click thay đổi Function trong Left và Right -&gt; Click vào "Save" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi load lại page thì tất cả cá Function đều hiện bên Left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phải hiện thị đúng các Funtion sau khi click vào Save button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    2. Nhập vào Position Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    3. Nhập vào Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Position Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong Position Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Position Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name không được để trống
+    3. Update Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Position Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; CustomerType </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Customer Type là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Customer Type là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột UPI Code hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Customer Type và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Customer Type hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type không được để trống
+    4. Update Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Channel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dropdown của Parent Channel trong form add new record không GET được Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Click mở Add New Record để mở Form
+  - Click vào Dropdown của Parent Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không GET được Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Get tất cả các channel hiện có </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Lỗi trong chức năng Update
 </t>
     </r>
@@ -2890,7 +3781,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo UPI không được trống
+      <t xml:space="preserve"> hiển thị câu thông báo không được trống
      5. Sửa  UPI Code tồn tại, click vào icon Update
 </t>
     </r>
@@ -2937,7 +3828,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo vì UPI Code không thể trùng
+      <t xml:space="preserve"> Hiện câu thông báo vì không thể trùng
      6. Sửa Fullname với giá trị space, click vào icon Update
 </t>
     </r>
@@ -3090,897 +3981,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Hiện câu thông báo </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi thay đổi function bên Left và Right nhấn Save button, và load lại page, thì tất cả Function đều hiện bên Left
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    - Click thay đổi Function trong Left và Right -&gt; Click vào "Save" button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> khi load lại page thì tất cả cá Function đều hiện bên Left
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> phải hiện thị đúng các Funtion sau khi click vào Save button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    2. Nhập vào Position Name là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    3. Nhập vào Position Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click vào icon Update của 1 record
-    1. Update Position Name là space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    2. Xóa value trong Position Name và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột Position Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Position Name không được để trống
-    3. Update Position Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Position Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; CustomerType </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-    2. Nhập vào UPI Code và Click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    3. Nhập vào Customer Type là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    4. Nhập vào Customer Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click vào icon Update của 1 record
-    1. Update Customer Type là space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    2. Xóa value trong UPI Code và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột UPI Code hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
-    3. Xóa value trong Customer Type và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột Customer Type hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type không được để trống
-    4. Update Customer Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Channel</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dropdown của Parent Channel trong form add new record không GET được Channel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  - Click mở Add New Record để mở Form
-  - Click vào Dropdown của Parent Channel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> không GET được Channel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Get tất cả các channel hiện có </t>
     </r>
   </si>
 </sst>
@@ -4778,9 +4778,9 @@
   <dimension ref="B2:G51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="B36:C36"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5230,7 +5230,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
@@ -5246,14 +5246,14 @@
         <v>50</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="180" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
@@ -5280,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2" t="s">
@@ -5293,10 +5293,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
@@ -5309,10 +5309,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
@@ -5325,10 +5325,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -1856,6 +1856,1852 @@
   </si>
   <si>
     <t>Administrator &gt;&gt; Permistion &gt;&gt; Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Permistion &gt;&gt; Administrator Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Permission - Allow Approve </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
+      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
+       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Supervisor Position</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Salemans/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Salemans/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi thay đổi function bên Left và Right nhấn Save button, và load lại page, thì tất cả Function đều hiện bên Left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Click thay đổi Function trong Left và Right -&gt; Click vào "Save" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi load lại page thì tất cả cá Function đều hiện bên Left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phải hiện thị đúng các Funtion sau khi click vào Save button</t>
+    </r>
+  </si>
+  <si>
+    <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; CustomerType </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Customer Type là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Customer Type là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột UPI Code hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Customer Type và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Customer Type hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type không được để trống
+    4. Update Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Channel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dropdown của Parent Channel trong form add new record không GET được Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Click mở Add New Record để mở Form
+  - Click vào Dropdown của Parent Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không GET được Channel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Get tất cả các channel hiện có </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Channel Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị ra câu thông báo
+    4. Nhập vàoChannel Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Channel Name đã tồn tại
+    5. Nhập vào Channel Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Position Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong Position Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Position Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name không được để trống
+    3. Update Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    2. Nhập vào Position Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imsert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    3. Nhập vào Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào 1 record mở ra Form Update
+    1.  Xóa UPI Code, click vào icon Update
+    2. Xóa giá trị trong Fullnam, và click vào icon Update
+    3. Xóa giá trị trong Phone, và click vào icon Update
+    4. Xóa giá trị Password, và click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo không được trống
+     5. Sửa  UPI Code tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo vì không thể trùng
+     6. Sửa Fullname với giá trị space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+     7. Sửa giá trị trong phone sang giá trị dồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo
+     8. Sửa giá trị trong phone là số + chữ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo </t>
+    </r>
   </si>
   <si>
     <t>Lỗi trong chức năng Insert
@@ -1866,13 +3712,180 @@
 Expected: hiển thị câu thông báo 
     2. Nhập vào Name là space
 Result: Imsert thành công
-Expected: Hiển ra câu thông báo
+Expected: Hiển thị ra câu thông báo
     3. Nhập vào Name với giá trị đã tồn tại
 Result: Đóng Form Insert, và không insert vào DB
 Expected: Hiển thị câu thông báp Name đã tồn tại</t>
   </si>
   <si>
-    <t xml:space="preserve">Administrator &gt;&gt; Permistion &gt;&gt; Administrator Management </t>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị ra câu thông báo
+    2. Xóa value trong Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo name không được để trống
+    3. Update Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Name đã tồn tại</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2090,7 +4103,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hiện ta câu thông báo vì phone không có chứa chữ
+      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
     7. Nhập đầy đủ các field với UPI code đã tồn tại
 </t>
     </r>
@@ -2186,1801 +4199,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Hiển thị câu thông báo </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator &gt;&gt; Permission - Allow Approve </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro: 
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Click vào Inbox trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
-       2. Click vào Failure trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
-      3. Click vào Compose button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
-      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
-       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
-    </r>
-  </si>
-  <si>
-    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Supervisor Position</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro: 
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Click vào Inbox trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
-       2. Click vào Failure trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Salemans/SMSFailure.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
-      3. Click vào Compose button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Salemans/ComposeSMS.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click vào icon Update của 1 record
-    1. Update Name là space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    2. Xóa value trong Name và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo name không được để trống
-    3. Update Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi thay đổi function bên Left và Right nhấn Save button, và load lại page, thì tất cả Function đều hiện bên Left
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    - Click thay đổi Function trong Left và Right -&gt; Click vào "Save" button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> khi load lại page thì tất cả cá Function đều hiện bên Left
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> phải hiện thị đúng các Funtion sau khi click vào Save button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    2. Nhập vào Position Name là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    3. Nhập vào Position Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click vào icon Update của 1 record
-    1. Update Position Name là space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    2. Xóa value trong Position Name và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột Position Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Position Name không được để trống
-    3. Update Position Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Position Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; CustomerType </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-    2. Nhập vào UPI Code và Click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    3. Nhập vào Customer Type là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    4. Nhập vào Customer Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click vào icon Update của 1 record
-    1. Update Customer Type là space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    2. Xóa value trong UPI Code và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột UPI Code hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
-    3. Xóa value trong Customer Type và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột Customer Type hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type không được để trống
-    4. Update Customer Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Channel</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dropdown của Parent Channel trong form add new record không GET được Channel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  - Click mở Add New Record để mở Form
-  - Click vào Dropdown của Parent Channel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> không GET được Channel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Get tất cả các channel hiện có </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click vào 1 record mở ra Form Update
-    1.  Xóa UPI Code, click vào icon Update
-    2. Xóa giá trị trong Fullnam, và click vào icon Update
-    3. Xóa giá trị trong Phone, vna2 click vào icon Update
-    4. Xóa giá trị Password, và click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo không được trống
-     5. Sửa  UPI Code tồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo vì không thể trùng
-     6. Sửa Fullname với giá trị space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo
-     7. Sửa giá trị trong phone sang giá trị dồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> câu thông báo
-     8. Sửa giá trị trong phone là số + chữ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo </t>
     </r>
   </si>
 </sst>
@@ -4780,7 +4998,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,7 +5368,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
@@ -5166,7 +5384,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
@@ -5182,7 +5400,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
@@ -5198,7 +5416,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
@@ -5211,10 +5429,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
@@ -5227,10 +5445,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
@@ -5243,17 +5461,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="180" x14ac:dyDescent="0.25">
@@ -5261,10 +5479,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
@@ -5277,10 +5495,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2" t="s">
@@ -5293,10 +5511,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
@@ -5309,10 +5527,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
@@ -5325,10 +5543,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
@@ -5336,12 +5554,20 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+    <row r="36" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>32</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="3315" windowWidth="20730" windowHeight="6615" tabRatio="726"/>
+    <workbookView xWindow="60" yWindow="3030" windowWidth="20730" windowHeight="7245" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -2399,177 +2399,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-    2. Nhập vào UPI Code và Click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    3. Nhập vào Customer Type là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    4. Nhập vào Customer Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báp Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Update
 </t>
     </r>
@@ -2869,224 +2698,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-    2. Nhập vào UPI Code và Click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    3. Nhập vào Channel Name là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị ra câu thông báo
-    4. Nhập vàoChannel Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Channel Name đã tồn tại
-    5. Nhập vào Channel Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Update
 </t>
     </r>
@@ -3230,176 +2841,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Position Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--- Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    2. Nhập vào Position Name là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Imsert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển ra câu thông báo
-    3. Nhập vào Position Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
 </t>
     </r>
     <r>
@@ -3702,6 +3143,2045 @@
       </rPr>
       <t xml:space="preserve"> Hiện câu thông báo </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị ra câu thông báo
+    2. Xóa value trong Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo name không được để trống
+    3. Update Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+     2. Nhập vào UPI Code, click vào icon insert
+     3. Nhập vào UPI Code và Fullname, click icon Insert
+     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
+     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
+    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
+    7. Nhập đầy đủ các field với UPI code đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
+    8. Nhập đầy đủ các field với Fullname là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Channel Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+    3. Xóa value trong Channel name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+    4. Update Channel Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Name đã tồn tại
+    5. Update "Channel Name" trùng "ParentChannel" , click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; SMS Type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update SMS Type là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị ra câu thông báo
+    2. Xóa value trong SMS Type và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+    4. Update SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo SMS Type đã tồn tại
+    5. Update Syntax là space, click vào icon Update
+    6.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Geopraphic &gt;&gt;  Section</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Section Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong Section Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Section Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name không được để trống
+    3. Update Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Section Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Geopraphic &gt;&gt;  Province</t>
+  </si>
+  <si>
+    <t>Please, fixe giúp em bug này trước</t>
+  </si>
+  <si>
+    <t>please, case  "Insert thành công, nhưng có một số record được insert cuối/ giữa/ đầu của Section tùy vào chon section"  em vẫn chưa hiểu có thể giải thích giúp em được không ạ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Province Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+    2. Xóa value trong Province Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Province Name không được để trống
+    3. Update Province Name và  "Section"  với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Geopraphic &gt;&gt;  District</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update District Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+    2. Xóa value trong District Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo District Name không được để trống
+    3. Update District Name, "Section" và Province  với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;   Group-Region-Area-Local  &gt;&gt;  Group</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Group Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Group Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Group Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Customer Type là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Customer Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Customer Type đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    2. Nhập vào Position Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    3. Nhập vào Position Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Position Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Lỗi trong chức năng Insert
+Repro:
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+Result: Đóng Form Add new
+Expected: hiển thị câu thông báo 
+    3. Nhập vào Channel Name là space
+Result: insert thành công
+Expected: Hiển thị ra câu thông báo
+    4. Nhập vàoChannel Name với giá trị đã tồn tại
+Result: Đóng Form Insert, và không insert vào DB
+Expected: Hiển thị câu thông báo Channel Name đã tồn tại
+    5. Nhập vào Channel Name với giá trị đã tồn tại
+Result: Đóng Form Add new
+Expected: Insert thành công</t>
+  </si>
+  <si>
+    <t>Lỗi trong chức năng Insert
+Repro:
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+Result: Đóng Form Add new
+Expected: hiển thị câu thông báo 
+    2. Nhập vào SMS Type là space
+Result: insert thành công
+Expected: Hiển ra câu thông báo
+    3. Nhập vào SMS Type với giá trị đã tồn tại
+    4. Nhập vào SMS Type, Nhập Sybtax là space, click vào icon insert
+   5. Nhập vào SMS Type, Nhập Sybtax tồn tại, click vào icon insert 
+Result: Insert thành công
+Expected: Hiển thị câu thông báo</t>
+  </si>
+  <si>
+    <t>Lỗi trong chức năng Insert
+Repro:
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+Result: Đóng Form Add new
+Expected: hiển thị câu thông báo 
+    2. Nhập vào Section Name là space
+Result: insert thành công
+Expected: Hiển ra câu thông báo
+    3. Nhập vào Section Name với giá trị đã tồn tại
+Result: Đóng Form Insert, và không insert vào DB
+Expected: Hiển thị câu thông báo Section Name đã tồn tại</t>
+  </si>
+  <si>
+    <t>Lỗi trong chức năng Insert
+Repro:
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+Result: Đóng Form Add new
+Expected: hiển thị câu thông báo 
+    2. Nhập vào Province Name là space
+Result: insert thành công
+Expected: Hiển ra câu thông báo
+    3. Nhập vào Province Name với giá trị đã tồn tại
+Result: Đóng Form Insert, và không insert vào DB
+Expected: Hiển thị câu thông báo Province Name đã tồn tại</t>
+  </si>
+  <si>
+    <t>Lỗi trong chức năng Insert
+Repro:
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+Result: Đóng Form Add new
+Expected: hiển thị câu thông báo 
+    2. Nhập vào District Name là space
+Result: insert thành công
+Expected: Hiển ra câu thông báo
+    3. Nhập vào District Name với giá trị đã tồn tại
+Result: Đóng Form Insert, và không insert vào DB
+Expected: Hiển thị câu thông báo District Name đã tồn tại</t>
   </si>
   <si>
     <t>Lỗi trong chức năng Insert
@@ -3711,7 +5191,7 @@
 Result: Đóng Form Add new
 Expected: hiển thị câu thông báo 
     2. Nhập vào Name là space
-Result: Imsert thành công
+Result: insert thành công
 Expected: Hiển thị ra câu thông báo
     3. Nhập vào Name với giá trị đã tồn tại
 Result: Đóng Form Insert, và không insert vào DB
@@ -3744,7 +5224,7 @@
       </rPr>
       <t xml:space="preserve">
 -- Click vào icon Update của 1 record
-    1. Update Name là space, click vào icon Update
+    1. Update Group Name là space, click vào icon Update
 </t>
     </r>
     <r>
@@ -3790,55 +5270,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Hiển thị ra câu thông báo
-    2. Xóa value trong Name và click icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update và cột Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo name không được để trống
-    3. Update Name với giá trị đã tồn tại
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột UPI Code hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Group Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update và cột Group Name hiện Null, nhưng load lại page thì hiển thị lại value cũ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báoGroup Name không được để trống
+    4. Update Group Name với giá trị đã tồn tại
 </t>
     </r>
     <r>
@@ -3884,8 +5411,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Name đã tồn tại</t>
-    </r>
+      <t xml:space="preserve"> Hiển thị câu thông báo Group Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;   Group-Region-Area-Local  &gt;&gt;  Region</t>
   </si>
   <si>
     <r>
@@ -3915,6 +5445,7 @@
       <t xml:space="preserve">
 -- Click mở Form Add New Record
     1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
 </t>
     </r>
     <r>
@@ -3961,103 +5492,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> hiển thị câu thông báo 
-     2. Nhập vào UPI Code, click vào icon insert
-     3. Nhập vào UPI Code và Fullname, click icon Insert
-     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
-     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
-    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
+    3. Nhập vào Region Name là space
 </t>
     </r>
     <r>
@@ -4103,102 +5538,271 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
-    7. Nhập đầy đủ các field với UPI code đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
-    8. Nhập đầy đủ các field với Fullname là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hiển thị câu thông báo </t>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Region Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Region Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Region Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Region Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Region Name không được để trống
+    4. Update Region Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Region Name đã tồn tại</t>
     </r>
   </si>
 </sst>
@@ -4355,7 +5959,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4379,13 +5983,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4993,12 +6591,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:G63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,19 +6607,19 @@
     <col min="4" max="4" width="67" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="6" customWidth="1"/>
     <col min="8" max="16384" width="4.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
@@ -5050,26 +6648,28 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -5084,10 +6684,10 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2"/>
@@ -5100,10 +6700,10 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -5118,10 +6718,10 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -5136,10 +6736,10 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4"/>
@@ -5152,10 +6752,10 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="4"/>
@@ -5168,10 +6768,10 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="4"/>
@@ -5184,10 +6784,10 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="4"/>
@@ -5200,10 +6800,10 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -5218,10 +6818,10 @@
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="4"/>
@@ -5234,10 +6834,10 @@
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="4"/>
@@ -5250,10 +6850,10 @@
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -5268,10 +6868,10 @@
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="4"/>
@@ -5284,10 +6884,10 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="4"/>
@@ -5300,10 +6900,10 @@
       <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="4"/>
@@ -5316,10 +6916,10 @@
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="4"/>
@@ -5332,10 +6932,10 @@
       <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="4"/>
@@ -5348,10 +6948,10 @@
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="4"/>
@@ -5364,10 +6964,10 @@
       <c r="B24" s="2">
         <v>20</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="4"/>
@@ -5380,10 +6980,10 @@
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="4"/>
@@ -5396,11 +6996,11 @@
       <c r="B26" s="2">
         <v>22</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>63</v>
+      <c r="D26" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
@@ -5412,11 +7012,11 @@
       <c r="B27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>64</v>
+      <c r="D27" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
@@ -5428,11 +7028,11 @@
       <c r="B28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>65</v>
+      <c r="D28" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
@@ -5444,11 +7044,11 @@
       <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>62</v>
+      <c r="D29" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
@@ -5460,17 +7060,17 @@
       <c r="B30" s="2">
         <v>26</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5478,217 +7078,419 @@
       <c r="B31" s="2">
         <v>27</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>61</v>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>28</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>60</v>
+      <c r="D32" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>55</v>
+      <c r="D33" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" ht="255" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>30</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>56</v>
+      <c r="D34" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>32</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>59</v>
+      <c r="C36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+    <row r="37" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+    <row r="38" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+    <row r="39" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+    <row r="40" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>36</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+    <row r="41" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+    <row r="42" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="8"/>
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+    <row r="43" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+    <row r="44" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>40</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+    <row r="45" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+    <row r="46" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>42</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+    <row r="47" spans="2:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+    <row r="48" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>44</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+    <row r="49" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="10"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
@@ -5696,7 +7498,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F63">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5759,7 +7561,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3030" windowWidth="20730" windowHeight="7245" tabRatio="726"/>
+    <workbookView xWindow="60" yWindow="3030" windowWidth="20610" windowHeight="7245" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -5805,12 +5805,25 @@
       <t xml:space="preserve"> Hiển thị câu thông báo Region Name đã tồn tại</t>
     </r>
   </si>
+  <si>
+    <t>Dev Status</t>
+  </si>
+  <si>
+    <t>Dev Note</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>- Fixed
+Tuy nhien khi tao moi the Customer co flag IsEnabled = false nen se ko hien thi duoc tren Grid Cusromer, ma` phai approve o cai Grid ben duoi moi co the view duoc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5877,8 +5890,16 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5894,6 +5915,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5959,7 +5986,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5999,6 +6026,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6591,12 +6639,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G63"/>
+  <dimension ref="B2:I63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6608,23 +6656,26 @@
     <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="4.85546875" style="5"/>
+    <col min="8" max="9" width="24.28515625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="4.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6643,8 +6694,14 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -6661,8 +6718,14 @@
       <c r="G5" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="H5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -6679,8 +6742,12 @@
         <v>17</v>
       </c>
       <c r="G6" s="8"/>
+      <c r="H6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -6695,8 +6762,12 @@
         <v>17</v>
       </c>
       <c r="G7" s="8"/>
+      <c r="H7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -6713,8 +6784,12 @@
         <v>17</v>
       </c>
       <c r="G8" s="8"/>
+      <c r="H8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -6731,8 +6806,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="8"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -6747,8 +6824,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="8"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -6763,8 +6842,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="8"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -6779,8 +6860,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="8"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -6795,8 +6878,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="8"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -6813,8 +6898,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="8"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -6829,8 +6916,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="8"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -6845,8 +6934,10 @@
         <v>17</v>
       </c>
       <c r="G16" s="8"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -6863,8 +6954,10 @@
         <v>17</v>
       </c>
       <c r="G17" s="8"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -6879,8 +6972,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="8"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -6895,8 +6990,10 @@
         <v>17</v>
       </c>
       <c r="G19" s="8"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>16</v>
       </c>
@@ -6911,8 +7008,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -6927,8 +7026,10 @@
         <v>17</v>
       </c>
       <c r="G21" s="8"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>18</v>
       </c>
@@ -6943,8 +7044,10 @@
         <v>17</v>
       </c>
       <c r="G22" s="8"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>19</v>
       </c>
@@ -6959,8 +7062,10 @@
         <v>17</v>
       </c>
       <c r="G23" s="8"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>20</v>
       </c>
@@ -6975,8 +7080,10 @@
         <v>17</v>
       </c>
       <c r="G24" s="8"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="315" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -6991,8 +7098,10 @@
         <v>17</v>
       </c>
       <c r="G25" s="8"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>22</v>
       </c>
@@ -7007,8 +7116,10 @@
         <v>17</v>
       </c>
       <c r="G26" s="8"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -7023,8 +7134,10 @@
         <v>17</v>
       </c>
       <c r="G27" s="8"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="2:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="360" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>24</v>
       </c>
@@ -7039,8 +7152,10 @@
         <v>17</v>
       </c>
       <c r="G28" s="8"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="315" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -7055,8 +7170,10 @@
         <v>17</v>
       </c>
       <c r="G29" s="8"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>26</v>
       </c>
@@ -7073,8 +7190,10 @@
       <c r="G30" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -7089,8 +7208,10 @@
         <v>17</v>
       </c>
       <c r="G31" s="8"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>28</v>
       </c>
@@ -7105,8 +7226,10 @@
         <v>17</v>
       </c>
       <c r="G32" s="8"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -7121,8 +7244,10 @@
         <v>17</v>
       </c>
       <c r="G33" s="8"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="2:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="255" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>30</v>
       </c>
@@ -7137,8 +7262,10 @@
         <v>17</v>
       </c>
       <c r="G34" s="8"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -7153,8 +7280,10 @@
         <v>17</v>
       </c>
       <c r="G35" s="8"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>32</v>
       </c>
@@ -7169,8 +7298,10 @@
         <v>17</v>
       </c>
       <c r="G36" s="8"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -7185,8 +7316,10 @@
         <v>17</v>
       </c>
       <c r="G37" s="8"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>34</v>
       </c>
@@ -7201,8 +7334,10 @@
         <v>17</v>
       </c>
       <c r="G38" s="8"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>35</v>
       </c>
@@ -7217,8 +7352,10 @@
         <v>17</v>
       </c>
       <c r="G39" s="8"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>36</v>
       </c>
@@ -7233,8 +7370,10 @@
         <v>17</v>
       </c>
       <c r="G40" s="8"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>37</v>
       </c>
@@ -7249,8 +7388,10 @@
         <v>17</v>
       </c>
       <c r="G41" s="8"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>38</v>
       </c>
@@ -7267,8 +7408,10 @@
       <c r="G42" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>39</v>
       </c>
@@ -7284,7 +7427,7 @@
       </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>40</v>
       </c>
@@ -7300,7 +7443,7 @@
       </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>41</v>
       </c>
@@ -7316,7 +7459,7 @@
       </c>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>42</v>
       </c>
@@ -7332,7 +7475,7 @@
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="2:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="255" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>43</v>
       </c>
@@ -7348,7 +7491,7 @@
       </c>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>44</v>
       </c>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -5817,6 +5817,788 @@
   <si>
     <t>- Fixed
 Tuy nhien khi tao moi the Customer co flag IsEnabled = false nen se ko hien thi duoc tren Grid Cusromer, ma` phai approve o cai Grid ben duoi moi co the view duoc</t>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;   Group-Region-Area-Local  &gt;&gt;  Area</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Area Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Area Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Area Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Area Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Area Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Area Name không được để trống
+    4. Update Area Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Area Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;   Group-Region-Area-Local  &gt;&gt;  Local</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Local Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    4. Nhập vào Local Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Local Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Click vào icon Update của 1 record
+    1. Update Local Name là space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển ra câu thông báo
+    2. Xóa value trong UPI Code và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được để trống
+    3. Xóa value trong Local Name và click icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Local Name không được để trống
+    4. Update Local Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Local Name đã tồn tại</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6027,9 +6809,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6047,6 +6826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6642,9 +7424,9 @@
   <dimension ref="B2:I63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6661,14 +7443,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
@@ -6697,7 +7479,7 @@
       <c r="H4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6718,7 +7500,7 @@
       <c r="G5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>89</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -6742,10 +7524,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -6762,10 +7544,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -6784,10 +7566,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -6806,8 +7588,8 @@
         <v>17</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -6824,8 +7606,8 @@
         <v>17</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -6842,8 +7624,8 @@
         <v>17</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -6860,8 +7642,8 @@
         <v>17</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -6878,8 +7660,8 @@
         <v>17</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -6898,8 +7680,8 @@
         <v>17</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -6916,8 +7698,8 @@
         <v>17</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -6934,8 +7716,8 @@
         <v>17</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -6954,8 +7736,8 @@
         <v>17</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -6972,8 +7754,8 @@
         <v>17</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -6990,8 +7772,8 @@
         <v>17</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -7008,8 +7790,8 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
@@ -7026,8 +7808,8 @@
         <v>17</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
@@ -7044,8 +7826,8 @@
         <v>17</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -7062,8 +7844,8 @@
         <v>17</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
@@ -7080,8 +7862,8 @@
         <v>17</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" ht="315" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
@@ -7098,8 +7880,8 @@
         <v>17</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -7116,8 +7898,8 @@
         <v>17</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -7134,8 +7916,8 @@
         <v>17</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:9" ht="360" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -7152,8 +7934,8 @@
         <v>17</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="2:9" ht="315" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -7170,8 +7952,8 @@
         <v>17</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -7190,8 +7972,8 @@
       <c r="G30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -7208,8 +7990,8 @@
         <v>17</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
@@ -7226,8 +8008,8 @@
         <v>17</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
@@ -7244,8 +8026,8 @@
         <v>17</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="2:9" ht="255" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -7262,8 +8044,8 @@
         <v>17</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
@@ -7280,8 +8062,8 @@
         <v>17</v>
       </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
@@ -7298,8 +8080,8 @@
         <v>17</v>
       </c>
       <c r="G36" s="8"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
@@ -7316,8 +8098,8 @@
         <v>17</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -7334,8 +8116,8 @@
         <v>17</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -7352,8 +8134,8 @@
         <v>17</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
@@ -7370,8 +8152,8 @@
         <v>17</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -7388,8 +8170,8 @@
         <v>17</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
@@ -7408,8 +8190,8 @@
       <c r="G42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
@@ -7523,34 +8305,58 @@
       </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+    <row r="50" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>46</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+    <row r="51" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+    <row r="52" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>48</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+    <row r="53" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="8"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -6599,6 +6599,12 @@
       </rPr>
       <t xml:space="preserve"> Hiển thị câu thông báo Local Name đã tồn tại</t>
     </r>
+  </si>
+  <si>
+    <t>Hien nay trong thiet ke database, Salesmen ko co password nen chi verify voi Phone thoi. Do do em inform voi Son cai issue na`y de Son quyet dinh. Thanks</t>
+  </si>
+  <si>
+    <t>Dropdown Group chi duoc load du lieu khi Role la`: TPR, PSR1, PSR2. Do do em phai chon Role truoc thi` Group moi hien thi</t>
   </si>
 </sst>
 </file>
@@ -6681,7 +6687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6703,6 +6709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6768,7 +6780,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6829,6 +6841,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7423,10 +7441,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7588,7 +7606,9 @@
         <v>17</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -7606,7 +7626,9 @@
         <v>17</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -7623,8 +7645,10 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -7641,8 +7665,10 @@
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -6605,6 +6605,100 @@
   </si>
   <si>
     <t>Dropdown Group chi duoc load du lieu khi Role la`: TPR, PSR1, PSR2. Do do em phai chon Role truoc thi` Group moi hien thi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ký tự trong Field password trong form login của Customer vẫn hiển thị đúng giá ký tự khi input vào mà không hiển thị ký tự *
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+        - Mở Form login của customer
+       - Nhập đúng phone number
+      - Nhập vào field password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ký tự trong file hiện thị đúng những gì đã input
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các ký tự phải hiển thị ở dạng *</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer &gt;&gt; SMS List</t>
+  </si>
+  <si>
+    <t>Khi chọn filter theo "By Form" thì không hiện kết quả filter
+'Repro:
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Chọn Filter theo "By From"
+   4. Nhập giá trị vào textbox
+   5. Click vào Filter button
+Result: 
+         Không thấy hiển thị kết quả sau khi filter
+Expected: 
+    1. Hiển thị tất cả các record có By From like %string input%
+    2.  Hiển thị "No records to display." khi các record không có By Form like %string input%</t>
   </si>
 </sst>
 </file>
@@ -6839,14 +6933,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7439,12 +7533,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I63"/>
+  <dimension ref="B2:I69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7461,14 +7555,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
@@ -7645,8 +7739,8 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="21" t="s">
         <v>97</v>
       </c>
       <c r="I11" s="16"/>
@@ -7665,8 +7759,8 @@
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21" t="s">
         <v>98</v>
       </c>
       <c r="I12" s="16"/>
@@ -8342,7 +8436,9 @@
         <v>92</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="2:7" ht="225" x14ac:dyDescent="0.25">
@@ -8356,7 +8452,9 @@
         <v>93</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="2:7" ht="195" x14ac:dyDescent="0.25">
@@ -8370,7 +8468,9 @@
         <v>95</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G52" s="8"/>
     </row>
     <row r="53" spans="2:7" ht="225" x14ac:dyDescent="0.25">
@@ -8384,23 +8484,41 @@
         <v>96</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+    <row r="54" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+    <row r="55" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G55" s="8"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -8460,12 +8578,60 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
@@ -8473,7 +8639,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F69">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="104">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -6699,6 +6699,12 @@
 Expected: 
     1. Hiển thị tất cả các record có By From like %string input%
     2.  Hiển thị "No records to display." khi các record không có By Form like %string input%</t>
+  </si>
+  <si>
+    <t>So phone trong Promotion phai ton tai trong Customer nen neu so phone do ko co trong Customer thi` cung se ko hien thi len duoc</t>
+  </si>
+  <si>
+    <t>Em dang mo ta function nao vay</t>
   </si>
 </sst>
 </file>
@@ -6874,7 +6880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6941,6 +6947,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7535,10 +7544,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,7 +7789,9 @@
         <v>17</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
@@ -7800,7 +7811,9 @@
         <v>17</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -7818,7 +7831,9 @@
         <v>17</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
@@ -7836,7 +7851,9 @@
         <v>17</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -7856,8 +7873,12 @@
         <v>17</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -7874,7 +7895,9 @@
         <v>17</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" ht="120" x14ac:dyDescent="0.25">
@@ -7892,7 +7915,9 @@
         <v>17</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="23" t="s">
+        <v>103</v>
+      </c>
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -7910,7 +7935,9 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="165" x14ac:dyDescent="0.25">
@@ -7928,7 +7955,9 @@
         <v>17</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
@@ -7946,7 +7975,9 @@
         <v>17</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -7964,7 +7995,9 @@
         <v>17</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
@@ -7982,7 +8015,9 @@
         <v>17</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" ht="315" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -6687,24 +6687,423 @@
     <t>Customer &gt;&gt; SMS List</t>
   </si>
   <si>
-    <t>Khi chọn filter theo "By Form" thì không hiện kết quả filter
-'Repro:
+    <t>So phone trong Promotion phai ton tai trong Customer nen neu so phone do ko co trong Customer thi` cung se ko hien thi len duoc</t>
+  </si>
+  <si>
+    <t>Em dang mo ta function nao vay</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outboxthì không hiện kết quả filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
    1. Login vào Account của Customer
    2. Click vào SMS List trên menu
-   3. Chọn Filter theo "By From"
+   3. Chọn Filter theo "By From"/"By To"
    4. Nhập giá trị vào textbox
    5. Click vào Filter button
-Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
          Không thấy hiển thị kết quả sau khi filter
-Expected: 
-    1. Hiển thị tất cả các record có By From like %string input%
-    2.  Hiển thị "No records to display." khi các record không có By Form like %string input%</t>
-  </si>
-  <si>
-    <t>So phone trong Promotion phai ton tai trong Customer nen neu so phone do ko co trong Customer thi` cung se ko hien thi len duoc</t>
-  </si>
-  <si>
-    <t>Em dang mo ta function nao vay</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    1. Hiển thị tất cả các record có By From/By To like %string input%
+    2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không GET nội dung của sms khi click vào button reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Click vào Subject của sms
+   4. Click vào button Reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Tất cả các thông tin của SMS được GET lên trừ Message reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Nội dung SMS phải được GET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào "Back" button khi view detail sms của Outbox thì trả về trang Inbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Click vào Outbox
+   4. Click vào subject của sms
+   5. Click vào back button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+        Load về trang Inbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Load về trang Outbox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào "Clear filter" button thì chỉ reset lại list sms mà ko resert lại Form Filter trong Inbox và Outbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Nhập vào textbox của Filter
+   4. Click vào Clear Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Chỉ Reset lại List sms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Reset lại list sms đồng thời reset Form Filter</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer &gt;&gt; SMS Lsit &gt;&gt; Calendar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày đang chọn không được highlight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Click vào Calendar
+   4. Click chọn ngày trên calendar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Nhìn vào calender không biết ngày nào được click chọn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       1. Chưa chọn ngày thì ngày hiện tại phải được highlight
+       2. Chọn ngày thì ngày được chọn phải highlight</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer &gt;&gt; SMS Lsit &gt;&gt; Contacts</t>
+  </si>
+  <si>
+    <t>Hiện trong Contact chia ra 2 bảng, em không hiểu ý nghĩa của 2 table đó và condition để GET lên</t>
   </si>
 </sst>
 </file>
@@ -6945,11 +7344,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7542,12 +7941,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I69"/>
+  <dimension ref="B2:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,14 +7963,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
@@ -7877,7 +8276,7 @@
         <v>89</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -7915,8 +8314,8 @@
         <v>17</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="23" t="s">
-        <v>103</v>
+      <c r="H19" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="I19" s="16"/>
     </row>
@@ -8540,7 +8939,7 @@
       </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>51</v>
       </c>
@@ -8548,7 +8947,7 @@
         <v>100</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -8556,42 +8955,78 @@
       </c>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+    <row r="56" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>52</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+    <row r="57" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+    <row r="58" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+    <row r="59" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>54</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="8"/>
@@ -8661,12 +9096,172 @@
       <c r="G68" s="8"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
@@ -8674,7 +9269,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F89">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7104,6 +7104,23 @@
   </si>
   <si>
     <t>Hiện trong Contact chia ra 2 bảng, em không hiểu ý nghĩa của 2 table đó và condition để GET lên</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select phone number</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7944,9 +7961,9 @@
   <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8313,7 +8330,9 @@
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="H19" s="22" t="s">
         <v>102</v>
       </c>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7120,6 +7120,87 @@
         <scheme val="minor"/>
       </rPr>
       <t>Select phone number</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer &gt;&gt;  View Information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of Salesmen và List of Supervisors chỉ hiển thị được 10 record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào View Information trên menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       List of Salesmen và List of Supervisors chỉ hiển thị được 10 record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       List hết các record của List of Salesmen và List of Supervisors và tạo phân trang</t>
     </r>
   </si>
 </sst>
@@ -7961,9 +8042,9 @@
   <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,12 +9131,20 @@
       <c r="F60" s="2"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+    <row r="61" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>55</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="8"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7201,6 +7201,110 @@
       </rPr>
       <t xml:space="preserve"> 
        List hết các record của List of Salesmen và List of Supervisors và tạo phân trang</t>
+    </r>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; Dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sau khi xem Dashboard xong thì record đó vẫn được bold, phải load lại thì record mới </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không bold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Dashboard
+   4. Click vào view Dashboard mới và đóng view detail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Vẫn bold record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Sau khi xem thì không bold record vừa xem mà không cần phải click vào refresh hay load lại page</t>
     </r>
   </si>
 </sst>
@@ -8044,7 +8148,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61:F61"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9147,12 +9251,20 @@
       </c>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+    <row r="62" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>56</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7204,9 +7204,6 @@
     </r>
   </si>
   <si>
-    <t>Salesmen &gt;&gt; Dashboard</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Sau khi xem Dashboard xong thì record đó vẫn được bold, phải load lại thì record mới </t>
     </r>
@@ -7305,6 +7302,96 @@
       </rPr>
       <t xml:space="preserve"> 
        Sau khi xem thì không bold record vừa xem mà không cần phải click vào refresh hay load lại page</t>
+    </r>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; SMS List &gt;&gt; Dashboard</t>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; SMS List &gt;&gt; Compose</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chỉ nhập Subject và click vào "Send SMS" button thị hiện ra trang lỗi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Compose
+   4. Nhập vào Subject
+   5. Click vào "Send SMS" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Hiện ra trang bị lỗi "Sequence contains more than one element"
+2. Trở về trang default và Login lại thì hiện ra trang báo lỗi trên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Hiện ra câu thông báo</t>
     </r>
   </si>
 </sst>
@@ -8143,10 +8230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I89"/>
+  <dimension ref="B2:I88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
@@ -9256,10 +9343,10 @@
         <v>56</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -9267,10 +9354,16 @@
       </c>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+    <row r="63" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>57</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="8"/>
@@ -9468,20 +9561,12 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="9"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
@@ -9489,7 +9574,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F88">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -7391,7 +7391,8 @@
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">      Hiện ra câu thông báo</t>
+      <t xml:space="preserve">      Hiện ra câu thông báo
+--&gt; tương tự với khi các trường hợp khi nhập các field mà chưa chọn phone number của người nhận</t>
     </r>
   </si>
 </sst>
@@ -8233,9 +8234,9 @@
   <dimension ref="B2:I88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9354,7 +9355,7 @@
       </c>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>57</v>
       </c>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7393,6 +7393,91 @@
       </rPr>
       <t xml:space="preserve">      Hiện ra câu thông báo
 --&gt; tương tự với khi các trường hợp khi nhập các field mà chưa chọn phone number của người nhận</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chỉ nhập Subject và click vào "Send SMS" button thị hiện ra trang lỗi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Compose
+   4. Chọn phone number
+   5. Click vào "Send SMS" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       1. Load lại trang
+       2. Phone number không hiện trong box, list phone number vẫn giữ nguyên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Hiện ra câu thông báo
+--&gt; Tương tự khi bỏ trống bất cứ field nào trừ Phone Number</t>
     </r>
   </si>
 </sst>
@@ -8236,7 +8321,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,15 +9451,25 @@
         <v>117</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+    <row r="64" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>58</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G64" s="8"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7016,9 +7016,6 @@
     </r>
   </si>
   <si>
-    <t>Customer &gt;&gt; SMS Lsit &gt;&gt; Calendar</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ngày đang chọn không được highlight
 </t>
@@ -7098,9 +7095,6 @@
        1. Chưa chọn ngày thì ngày hiện tại phải được highlight
        2. Chọn ngày thì ngày được chọn phải highlight</t>
     </r>
-  </si>
-  <si>
-    <t>Customer &gt;&gt; SMS Lsit &gt;&gt; Contacts</t>
   </si>
   <si>
     <t>Hiện trong Contact chia ra 2 bảng, em không hiểu ý nghĩa của 2 table đó và condition để GET lên</t>
@@ -7479,6 +7473,97 @@
       <t xml:space="preserve">      Hiện ra câu thông báo
 --&gt; Tương tự khi bỏ trống bất cứ field nào trừ Phone Number</t>
     </r>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; SMS List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outbox thì không hiện kết quả filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Chọn Filter theo "By From"/"By To"
+   4. Nhập giá trị vào textbox
+   5. Click vào Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Không thấy hiển thị kết quả sau khi filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    1. Hiển thị tất cả các record có By From/By To like %string input%
+    2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer &gt;&gt; SMS List &gt;&gt; Calendar</t>
+  </si>
+  <si>
+    <t>Customer &gt;&gt; SMS List &gt;&gt; Contacts</t>
   </si>
 </sst>
 </file>
@@ -8319,9 +8404,9 @@
   <dimension ref="B2:I88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8689,7 +8774,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>102</v>
@@ -9382,13 +9467,13 @@
     </row>
     <row r="59" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -9399,10 +9484,10 @@
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -9410,13 +9495,13 @@
     </row>
     <row r="61" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -9426,13 +9511,13 @@
     </row>
     <row r="62" spans="2:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -9442,29 +9527,27 @@
     </row>
     <row r="63" spans="2:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="2:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -9472,12 +9555,20 @@
       </c>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+    <row r="65" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>60</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G65" s="8"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7016,6 +7016,9 @@
     </r>
   </si>
   <si>
+    <t>Customer &gt;&gt; SMS Lsit &gt;&gt; Calendar</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Ngày đang chọn không được highlight
 </t>
@@ -7095,6 +7098,9 @@
        1. Chưa chọn ngày thì ngày hiện tại phải được highlight
        2. Chọn ngày thì ngày được chọn phải highlight</t>
     </r>
+  </si>
+  <si>
+    <t>Customer &gt;&gt; SMS Lsit &gt;&gt; Contacts</t>
   </si>
   <si>
     <t>Hiện trong Contact chia ra 2 bảng, em không hiểu ý nghĩa của 2 table đó và condition để GET lên</t>
@@ -7558,12 +7564,6 @@
     1. Hiển thị tất cả các record có By From/By To like %string input%
     2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%</t>
     </r>
-  </si>
-  <si>
-    <t>Customer &gt;&gt; SMS List &gt;&gt; Calendar</t>
-  </si>
-  <si>
-    <t>Customer &gt;&gt; SMS List &gt;&gt; Contacts</t>
   </si>
 </sst>
 </file>
@@ -8404,9 +8404,9 @@
   <dimension ref="B2:I88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8774,7 +8774,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>102</v>
@@ -9470,10 +9470,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -9484,10 +9484,10 @@
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -9498,10 +9498,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -9514,10 +9514,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -9530,10 +9530,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -9544,10 +9544,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -9560,10 +9560,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -9571,10 +9571,16 @@
       </c>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+    <row r="66" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>61</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="8"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7509,7 +7509,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-   1. Login vào Account của Customer
+   1. Login vào Account của Salesmen
    2. Click vào SMS List trên menu
    3. Chọn Filter theo "By From"/"By To"
    4. Nhập giá trị vào textbox
@@ -7563,6 +7563,248 @@
       <t xml:space="preserve"> 
     1. Hiển thị tất cả các record có By From/By To like %string input%
     2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào "Clear filter" button thì chỉ reset lại list sms mà ko resert lại Form Filter trong Inbox và Outbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Nhập vào textbox của Filter
+   4. Click vào Clear Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Chỉ Reset lại List sms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Reset lại list sms đồng thời reset Form Filter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không GET nội dung của sms khi click vào button reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Subject của sms
+   4. Click vào button Reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Tất cả các thông tin của SMS được GET lên trừ Message reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Nội dung SMS phải được GET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không GET nội dung của sms khi click vào button reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Click vào Subject của sms
+   4. Click vào button Reply
+   5. xóa nội dung trong title 
+   6. Click vào "Send" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Load lại Form, mà không hiện câu thông báo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiển thị câu thông báo khi Title là null</t>
     </r>
   </si>
 </sst>
@@ -8401,12 +8643,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I88"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9579,26 +9821,44 @@
         <v>119</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+    <row r="67" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>62</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+    <row r="68" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>63</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G68" s="8"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -9754,12 +10014,76 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="9"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
@@ -9767,7 +10091,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F96">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -7727,7 +7727,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Không GET nội dung của sms khi click vào button reply
+      <t xml:space="preserve">Xóa title của sms vẫn Reply hoặc For Forward mà không hiện thông báo
 </t>
     </r>
     <r>
@@ -7751,11 +7751,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-   1. Login vào Account của Customer
+   1. Login vào Account của Salesman
    2. Click vào SMS List trên menu
    3. Click vào Subject của sms
-   4. Click vào button Reply
-   5. xóa nội dung trong title 
+   4. Click vào button Reply/Forward
+   5. xóa nội dung trong Subject 
    6. Click vào "Send" button
 </t>
     </r>
@@ -7804,7 +7804,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 
-       Hiển thị câu thông báo khi Title là null</t>
+       Hiển thị câu thông báo khi Subject là null</t>
     </r>
   </si>
 </sst>
@@ -8648,7 +8648,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -7805,6 +7805,491 @@
       </rPr>
       <t xml:space="preserve"> 
        Hiển thị câu thông báo khi Subject là null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào "Back" button khi view detail sms của Outbox thì trả về trang Inbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Outbox
+   4. Click vào subject của sms
+   5. Click vào back button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+        Load về trang Inbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Load về trang Outbox</t>
+    </r>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; Calendar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày đang chọn không được highlight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Calendar
+   4. Click chọn ngày trên calendar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Nhìn vào calender không biết ngày nào được click chọn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       1. Chưa chọn ngày thì ngày hiện tại phải được highlight
+       2. Chọn ngày thì ngày được chọn phải highlight</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; Promotion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Condition của StartDate và EndDate không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào Promotion trên menu
+   3. Click vào Add new Record
+   4. Nhập đầy đủ các field với StartDate &lt; EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra câu báo StartDate phải &gt; = EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Và Repro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   4. Nhập đầy đủ Field với StartDate &gt; EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       thì hiện thông báo "End date must be &gt;= start date"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Và Repro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   4. Nhập đầy đủ Field với StartDate = EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công nhưng StartDate = Date chọn, EndDate = ngày hiện hành
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công, insert vào các Field như giá trị đã nhập hoặc chọn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi Edit các record thì startDate và EndDate update không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào Promotion trên menu
+   3. Click vào icon update của các record
+   4. Click chọn ngày của StartDate và EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Update thành công nhưng với giá trị không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Update thành công nhưng đúng các giá trị vừa edit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
     </r>
   </si>
 </sst>
@@ -8646,9 +9131,9 @@
   <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9861,36 +10346,68 @@
       </c>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+    <row r="69" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>64</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+    <row r="70" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>65</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+    <row r="71" spans="2:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>66</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+    <row r="72" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>67</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G72" s="8"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -8290,6 +8290,185 @@
         <scheme val="minor"/>
       </rPr>
       <t/>
+    </r>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; Customer Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào icon Edit các record sau khi nhập vào Fullname hoặc Phone hoặc UPI Code với value không có mà không click button "Filter" thì hiện ra kết quả Filter 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào Customer Management trên menu
+   3.  Nhập vào Fullname / Phone / UPI code mà không có value trong Field đó
+   4. không nhấn "Filter" button
+   5. Click chọn icon Edit của bất kỳ record nào trong list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra kết quả filter của value vừa input trong Filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Phải hiện ra Form Edit record, khi nào click vào "Filter" button thì hiện ra kết quả Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Salesmen &gt;&gt; Customer Management &gt;&gt; filter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click chọn Group -&gt; Region -&gt; Area -&gt; Local và click chọn value select của Group hay Region thì chỉ load lại cấp con của nó mà dưới cấp con thì không được resert vẫn giữ giá trị chọn trước đó
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào Customer Management trên menu
+   3. Click chọn value trong Group -&gt; Region -&gt; Area -&gt; Local
+   4. Click chọn value là select trong Group/ Region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Chỉ reset lại value cấp con 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+      Phải resert lại hết các cấp dưới</t>
     </r>
   </si>
 </sst>
@@ -9131,9 +9310,9 @@
   <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10410,20 +10589,36 @@
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+    <row r="73" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>68</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+    <row r="74" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>69</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G74" s="8"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3030" windowWidth="20610" windowHeight="7245" tabRatio="726"/>
+    <workbookView xWindow="60" yWindow="3090" windowWidth="20610" windowHeight="7185" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -8469,6 +8469,88 @@
       </rPr>
       <t xml:space="preserve"> 
       Phải resert lại hết các cấp dưới</t>
+    </r>
+  </si>
+  <si>
+    <t>Form Compose</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Send SMS" button và "Abort" button bị lệch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen/Administrator
+   2. Click vào SMS List trên menu
+   3. Click chọn Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       "Send SMS" button và "Abort" button bị lệch 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+      Chỉnh css của "Send SMS" button và "Abort" button lên vài px (gợi ý: top = -1 px hay -2 px)</t>
     </r>
   </si>
 </sst>
@@ -9310,9 +9392,9 @@
   <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10621,12 +10703,20 @@
       </c>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+    <row r="75" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>70</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -8551,6 +8551,90 @@
       </rPr>
       <t xml:space="preserve"> 
       Chỉnh css của "Send SMS" button và "Abort" button lên vài px (gợi ý: top = -1 px hay -2 px)</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; Calendar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày đang chọn không được highlight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào SMS List trên menu
+   3. Click vào Calendar
+   4. Click chọn ngày trên calendar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Nhìn vào calender không biết ngày nào được click chọn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       1. Chưa chọn ngày thì ngày hiện tại phải được highlight
+       2. Chọn ngày thì ngày được chọn phải highlight</t>
     </r>
   </si>
 </sst>
@@ -9392,9 +9476,9 @@
   <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10719,12 +10803,20 @@
       </c>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+    <row r="76" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
+        <v>71</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -7106,23 +7106,6 @@
     <t>Hiện trong Contact chia ra 2 bảng, em không hiểu ý nghĩa của 2 table đó và condition để GET lên</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select phone number</t>
-    </r>
-  </si>
-  <si>
     <t>Customer &gt;&gt;  View Information</t>
   </si>
   <si>
@@ -8635,6 +8618,24 @@
       <t xml:space="preserve"> 
        1. Chưa chọn ngày thì ngày hiện tại phải được highlight
        2. Chọn ngày thì ngày được chọn phải highlight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select phone number
+[Dan] Em co the mo ta tu` luc login vao den luc xay ra bug duoc ko? Thanks</t>
     </r>
   </si>
 </sst>
@@ -8811,7 +8812,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8881,6 +8882,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9475,10 +9491,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9831,27 +9847,27 @@
       </c>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+    <row r="19" spans="2:9" s="28" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
         <v>15</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>111</v>
+      <c r="G19" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -10570,10 +10586,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -10586,10 +10602,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -10602,10 +10618,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -10616,10 +10632,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -10632,10 +10648,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -10648,10 +10664,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -10664,10 +10680,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -10680,10 +10696,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -10696,10 +10712,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -10712,10 +10728,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -10728,10 +10744,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -10744,10 +10760,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -10760,10 +10776,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -10776,10 +10792,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -10792,10 +10808,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -10808,10 +10824,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Bug_05" sheetId="39" r:id="rId4"/>
     <sheet name="Bug_11" sheetId="40" r:id="rId5"/>
     <sheet name="Bug_14" sheetId="41" r:id="rId6"/>
+    <sheet name="Bug_72" sheetId="42" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="142">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -9749,6 +9750,174 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Hiển thị câu thông báo Local Name đã tồn tại</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; Salesmen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào "Filter" button thì kết quả hiển thị không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    1. Login vào Account của Administrator
+    2. Click vào Salesmen trên menu
+    3. Click vào Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Trong List salesmen hiện đến  697924 items in 13959 pages 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Trong List Salesmen hiển thị  132 items in 3 pages đúng số record hiện đang có trong DB
+--&gt; click vào page thứ 2 thì hiện đúng</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug_72</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset khi chon Select a type trong Group hay Region không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào Salesmen  trên menu
+   3. Click vào Add new record
+   5. Chọn lần lượt chọn value trong Group  &gt; Region &gt; Area &gt; Local
+    6. Click chọn value là "Select a type" trong Group hay Region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Chỉ reset lại các cấp trừ cấp kế tiếp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Phải reset lại hết các cấp dưới
+(VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local được reset mà không reset lại Field Region)</t>
     </r>
   </si>
 </sst>
@@ -10294,6 +10463,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="5122264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="5610225"/>
+          <a:ext cx="10058400" cy="2538343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10584,9 +10846,9 @@
   <dimension ref="B2:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11927,20 +12189,38 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+    <row r="77" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>72</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+    <row r="78" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <v>73</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -12135,6 +12415,7 @@
     <hyperlink ref="E9" location="Bug_05!A1" display="Bug_05"/>
     <hyperlink ref="E14" location="Bug_11!A1" display="Bug_11"/>
     <hyperlink ref="E17" location="Bug_14!A1" display="Bug_14"/>
+    <hyperlink ref="E77" location="Bug_72!A1" display="Bug_72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12209,4 +12490,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="149">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -9840,7 +9840,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Reset khi chon Select a type trong Group hay Region không đúng
+      <t xml:space="preserve">Reset khi chon Select a type trong Group hay Region không đúng treong Filter/Add new record
 </t>
     </r>
     <r>
@@ -9866,7 +9866,7 @@
       <t xml:space="preserve">
    1. Login vào Account của Administrator
    2. Click vào Salesmen  trên menu
-   3. Click vào Add new record
+   3. Click vào Add new record/Filter
    5. Chọn lần lượt chọn value trong Group  &gt; Region &gt; Area &gt; Local
     6. Click chọn value là "Select a type" trong Group hay Region
 </t>
@@ -9918,6 +9918,974 @@
       <t xml:space="preserve">
       Phải reset lại hết các cấp dưới
 (VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local được reset mà không reset lại Field Region)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Salesmen trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click mở Form Add New Record
+    1.  Không nhập gì và nhấn icon Insert
+    2. Nhập vào Field lần lượt là null trừ smsQuota
+    3. Nhập đầy đủ các Field trùng với 1 Salesmen đã có
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Salesmen trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    1. Click vào icon Update của 1 record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chỉ GET lên UPI Code, FullName, Phone và Role
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phải GET thêm value của các Field SmsQuota, ExpiredDate; Group, Region, Area, Local (nếu có)
+      2. Chỉnh sửa value của các Field và click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công, nhưng update ExpiredDate = ngày hiện tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update thành công, nhưng không update ExpiredDate (nếu chọn ExpiredDate thì phải update = value đã chọn)
+      3. Chỉnh sửa 1 trong các Field là null, click chọn icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Form Update đóng lại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Hiện thông báo các Field không được Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sai chính tả trong Alert khi click delete record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Salesmen trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào icon Deletecủa 1 record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert lên câu "Delete this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saleman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nội dung trong Alert phài là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Delete this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salesman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Administrator &gt;&gt; Customer Supervisor </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sai chính tả trong Alert khi click delete record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Administrator trên menu
+   - Click vào SMS &amp; Customers Date &gt;&gt; Customer Supervisor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào icon Deletecủa 1 record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert lên câu "Delete this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supervior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nội dung trong Alert phài là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Delete this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supervisor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Login vào Account của Administrator
+   - Click vào Administrator trên menu
+   - Click vào SMS &amp; Customers Date &gt;&gt; Customer Supervisor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click mở Form Add New Record
+    1.  Không nhập gì và nhấn icon Insert
+    2. Nhập vào Field lần lượt là null trừ field phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert lên thông báo "Error"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ
+    3. Nhập vào Field không đầy đủ trừ phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo
+     4. Nhập đầy đủ các Field trùng với 1 Customer supervisor đã có
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không thể tạo 2 record trùng nhau, hiện ra thông báo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Login vào Account của Administrator
+   - Click vào Administrator trên menu
+   - Click vào SMS &amp; Customers Date &gt;&gt; Customer Supervisor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào icon Update của 1 record
+    1. Chỉnh sửa các Field lần lượt là null trừ field phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form lại, không hiển thị câu thông báo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiển thị câu thông báo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    2. Nhập vào Field không đầy đủ trừ phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alert lên thông báo "Error"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     4. Nhập đầy đủ các Field trùng với 1 Customer supervisor đã có
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không thể có 2 record trùng nhau, hiện ra thông báo</t>
     </r>
   </si>
 </sst>
@@ -9925,7 +10893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10000,6 +10968,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10033,7 +11006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -10071,15 +11044,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10159,10 +11148,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -10846,9 +11839,9 @@
   <dimension ref="B2:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12207,7 +13200,7 @@
       </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>73</v>
       </c>
@@ -12223,53 +13216,95 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+    <row r="79" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>74</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+    <row r="80" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>75</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+    <row r="81" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>76</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
+    <row r="82" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>77</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="27"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+    <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>78</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="27"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+    <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>79</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="27"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="151">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -10886,6 +10886,99 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Không thể có 2 record trùng nhau, hiện ra thông báo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt;  Customer </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi khi nhập vào filter mà không click vào Filter button mà click vào icon  Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Login vào Account của Administrator
+   - Click vào Customer trên menu
+   - Nhập vào UPI Code hoặc FullName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Không click vào "Filter" button
+  - Click vào icon Edit của 1 reocrd đang có trong List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện ra kết quả filter theo keyword vừa nhập ở trên, thực hiện chức năng Filter trong khi click vào icon update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không thực hiện Filter mà giữ nguyên List và mở ra form Update record vừa chọn</t>
     </r>
   </si>
 </sst>
@@ -11841,7 +11934,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13275,7 +13368,9 @@
         <v>146</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G82" s="27"/>
     </row>
     <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
@@ -13289,7 +13384,9 @@
         <v>147</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G83" s="27"/>
     </row>
     <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
@@ -13303,15 +13400,25 @@
         <v>148</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G84" s="27"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+    <row r="85" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>80</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3090" windowWidth="20610" windowHeight="7185" tabRatio="726"/>
+    <workbookView xWindow="60" yWindow="3150" windowWidth="20610" windowHeight="7125" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -10979,6 +10979,342 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> không thực hiện Filter mà giữ nguyên List và mở ra form Update record vừa chọn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Customer trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click mở Form Add New Record
+    1.  Không nhập gì và nhấn icon Insert
+    2. Nhập vào Field lần lượt là null trừ field phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert lên thông báo "Error"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ
+    3. Nhập vào Field không đầy đủ trừ phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo
+    4. Nhập ngày CreateDate&lt; Update/CreateDate và Update khác ngày hiện tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert thành công với ngày CreateDate và Update = ngày hiện tại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bỏ Field Create Date và Update vì không cần thiết, khi tạo mới customer thì sẽ insert vào createDate và Update = ngày hiện tại (cái này em đã hỏi ý của anh Sơn rồi)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     4. Nhập đầy đủ các Field trùng với 1 Customer đã có
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không thể tạo 2 record trùng nhau, hiện ra thông báo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi insert thành công thì new record được insert vào cuối cùng trong list, làm user phải click đến trang cuối mới view/Approve được
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Login vào Account của Administrator
+   - Click vào Customer trên menu
+   - Click mở Form Add New Record
+    - Nhập đầy đủ cá điều kiện
+    - Click vào icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Tạo mới thành công, nhưng insert record mới tạo ở cuối cùng của list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected:
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiển thị ở đầu của trang 1
+(Note: vì trong List có khá nhiều trang)</t>
     </r>
   </si>
 </sst>
@@ -11929,12 +12265,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I100"/>
+  <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13421,20 +13757,36 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
+    <row r="86" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>81</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+    <row r="87" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <v>82</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -13541,13 +13893,77 @@
       <c r="F100" s="2"/>
       <c r="G100" s="7"/>
     </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="7"/>
+    </row>
   </sheetData>
   <autoFilter ref="B4:G16"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F108">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -11315,6 +11315,90 @@
       </rPr>
       <t>Hiển thị ở đầu của trang 1
 (Note: vì trong List có khá nhiều trang)</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Customer &gt;&gt; import</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chọn file *.xlsx thì khi import báo lỗi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Login vào Account của Administrator
+   - Click vào Customer trên menu
+   - Click vào Important button
+    - Click Browse chọn file có là *.xlsx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Hiện ra câu báo "Reading error: file is not a valid OLE2 Compound File."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Import thành công vì file *.xlsx cũng là file excel</t>
     </r>
   </si>
 </sst>
@@ -12270,7 +12354,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13789,12 +13873,20 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+    <row r="88" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
+        <v>83</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -11398,7 +11398,8 @@
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Import thành công vì file *.xlsx cũng là file excel</t>
+      <t>Import thành công vì file *.xlsx cũng là file excel
+(Excel gồm các file *.xls và *.xlsx)</t>
     </r>
   </si>
 </sst>
@@ -13873,7 +13874,7 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>83</v>
       </c>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="159">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -343,81 +343,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Promotion trên Menu vẫn được highlight</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Number trong cột phonenumber đều bằng 0 sau khi thực hiện filter</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  - Sau khi click filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Số trong Phonenumber đều bằng 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> number trong phonenumber vẫn giữ nguyên số</t>
     </r>
   </si>
   <si>
@@ -2004,9 +1929,6 @@
   </si>
   <si>
     <t>Administrator &gt;&gt;  Geopraphic &gt;&gt;  Province</t>
-  </si>
-  <si>
-    <t>Please, fixe giúp em bug này trước</t>
   </si>
   <si>
     <t>please, case  "Insert thành công, nhưng có một số record được insert cuối/ giữa/ đầu của Section tùy vào chon section"  em vẫn chưa hiểu có thể giải thích giúp em được không ạ</t>
@@ -11400,6 +11322,137 @@
       </rPr>
       <t>Import thành công vì file *.xlsx cũng là file excel
 (Excel gồm các file *.xls và *.xlsx)</t>
+    </r>
+  </si>
+  <si>
+    <t>Reopen</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please, fixe giúp em bug này trước
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 21/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 21/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 21/5/2012 - Failed</t>
+  </si>
+  <si>
+    <r>
+      <t>Number trong cột phonenumber đều bằng 0 sau khi thực hiện filter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Login vào Account của Administrator
+  - Click vào Promotion trên Menu
+  - Nhập vào Field From và To
+  - Click vào Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tất cả các record trong phone number đề có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phone number(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number trong phonenumber vẫn giữ nguyên số 
+(Xem hình)</t>
     </r>
   </si>
 </sst>
@@ -11582,7 +11635,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11659,11 +11712,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12352,10 +12408,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12372,14 +12428,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12406,10 +12462,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -12420,20 +12476,20 @@
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -12444,17 +12500,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="H6" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -12474,7 +12532,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -12492,15 +12550,17 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="H8" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -12508,17 +12568,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>157</v>
+      </c>
       <c r="H9" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -12530,15 +12592,17 @@
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>157</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -12550,7 +12614,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
@@ -12558,7 +12622,7 @@
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -12570,7 +12634,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
@@ -12578,7 +12642,7 @@
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="14"/>
     </row>
@@ -12590,7 +12654,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
@@ -12598,7 +12662,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -12610,7 +12674,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -12620,7 +12684,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -12632,7 +12696,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
@@ -12640,7 +12704,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="14"/>
     </row>
@@ -12652,7 +12716,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
@@ -12660,7 +12724,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="14"/>
     </row>
@@ -12672,7 +12736,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -12682,10 +12746,10 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -12696,7 +12760,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
@@ -12704,7 +12768,7 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="14"/>
     </row>
@@ -12716,17 +12780,17 @@
         <v>8</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -12738,7 +12802,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
@@ -12746,7 +12810,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -12758,7 +12822,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
@@ -12766,7 +12830,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -12778,7 +12842,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
@@ -12786,7 +12850,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -12795,10 +12859,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
@@ -12806,7 +12870,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -12815,10 +12879,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
@@ -12826,7 +12890,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -12838,7 +12902,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -12853,10 +12917,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -12871,10 +12935,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -12889,10 +12953,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -12907,10 +12971,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -12925,17 +12989,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
@@ -12945,10 +13009,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -12963,10 +13027,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -12981,10 +13045,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -12999,10 +13063,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13017,10 +13081,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13035,10 +13099,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13053,10 +13117,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13071,10 +13135,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13089,10 +13153,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13107,10 +13171,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13125,10 +13189,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13143,17 +13207,17 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -13163,10 +13227,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13179,10 +13243,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13195,10 +13259,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13211,10 +13275,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13227,10 +13291,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13243,10 +13307,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13259,10 +13323,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13275,10 +13339,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13291,10 +13355,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -13307,10 +13371,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -13323,10 +13387,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -13339,10 +13403,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -13355,10 +13419,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -13371,10 +13435,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -13387,10 +13451,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -13403,10 +13467,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -13419,10 +13483,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -13433,10 +13497,10 @@
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -13447,10 +13511,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -13463,10 +13527,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -13479,10 +13543,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -13493,10 +13557,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -13509,10 +13573,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -13525,10 +13589,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -13541,10 +13605,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -13557,10 +13621,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -13573,10 +13637,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -13589,10 +13653,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -13605,10 +13669,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -13621,10 +13685,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -13637,10 +13701,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -13653,10 +13717,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -13669,10 +13733,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -13685,10 +13749,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -13701,13 +13765,13 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -13719,10 +13783,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -13735,10 +13799,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -13751,10 +13815,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -13767,10 +13831,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -13783,58 +13847,58 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="27"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="27"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="27"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -13847,10 +13911,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -13863,10 +13927,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -13879,10 +13943,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -14104,9 +14168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -11454,6 +11454,9 @@
       <t xml:space="preserve"> number trong phonenumber vẫn giữ nguyên số 
 (Xem hình)</t>
     </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 21/5/2012</t>
   </si>
 </sst>
 </file>
@@ -11727,7 +11730,113 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -12408,10 +12517,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12638,9 +12747,11 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="H12" s="19" t="s">
         <v>66</v>
       </c>
@@ -12783,7 +12894,7 @@
         <v>105</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="22" t="s">
@@ -14119,6 +14230,11 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5:G200">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$F5="Close"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F108">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
@@ -14142,7 +14258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="160">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -4107,304 +4107,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     - Login vào account của Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Click vào Inbox trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
-       2. Click vào Failure trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
-      3. Click vào Compose button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
-      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
-       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
     </r>
@@ -4758,626 +4460,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Hiển thị câu thông báo Name đã tồn tại</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Login vào Account của Administrator
-    - Click vào Administrator trên Menu
-    - Click vào Permistion &gt;&gt; Administrator Management
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Click  mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-     2. Nhập vào UPI Code, click vào icon insert
-     3. Nhập vào UPI Code và Fullname, click icon Insert
-     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
-     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
-    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
-    7. Nhập đầy đủ các field với UPI code đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
-    8. Nhập đầy đủ các field với Fullname là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hiển thị câu thông báo </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Login vào Account của Administrator
-    - Click vào Administrator trên menu
-    - Click chọn Permistion &gt;&gt; Administrator Management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Click vào 1 record mở ra Form Update
-    1.  Xóa UPI Code, click vào icon Update
-    2. Xóa giá trị trong Fullnam, và click vào icon Update
-    3. Xóa giá trị trong Phone, và click vào icon Update
-    4. Xóa giá trị Password, và click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo không được trống
-     5. Sửa  UPI Code tồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo vì không thể trùng
-     6. Sửa Fullname với giá trị space, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo
-     7. Sửa giá trị trong phone sang giá trị dồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> câu thông báo
-     8. Sửa giá trị trong phone là số + chữ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Update thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo </t>
     </r>
   </si>
   <si>
@@ -11458,12 +10540,1018 @@
   <si>
     <t>[Tâm] retest 21/5/2012</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     - Login vào account của Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
+      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Ko thay muc Allow Approve in SMS &amp; Customer data, chi thay muc Allow Approve in Permission =&gt; sua muc do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
+       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Login vào Account của Administrator
+    - Click vào Administrator trên Menu
+    - Click vào Permistion &gt;&gt; Administrator Management
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Click  mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+     2. Nhập vào UPI Code, click vào icon insert
+     3. Nhập vào UPI Code và Fullname, click icon Insert
+     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] case na`y ko dung. Vi` khi khach hang ko can add new nua thi` ho co quyen dong Form Add new, sao lai phai bat ho nhap cac thong tin trong khi ho muon cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
+    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[dan] Can not reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    7. Nhập đầy đủ các field với UPI code đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
+    8. Nhập đầy đủ các field với Fullname là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login vào Account của Administrator
+    - Click vào Administrator trên menu
+    - Click chọn Permistion &gt;&gt; Administrator Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào 1 record mở ra Form Update
+    1.  Xóa UPI Code, click vào icon Update
+    2. Xóa giá trị trong Fullnam, và click vào icon Update
+    3. Xóa giá trị trong Phone, và click vào icon Update
+    4. Xóa giá trị Password, và click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo không được trống
+     5. Sửa  UPI Code tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo vì không thể trùng
+     6. Sửa Fullname với giá trị space, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo
+     7. Sửa giá trị trong phone sang giá trị dồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo
+     8. Sửa giá trị trong phone là số + chữ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] can not reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11542,6 +11630,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -11718,11 +11821,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11730,105 +11833,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -12517,10 +12522,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12528,7 +12533,7 @@
     <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="67" style="5" customWidth="1"/>
+    <col min="4" max="4" width="81" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="5" customWidth="1"/>
@@ -12537,14 +12542,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12589,10 +12594,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>61</v>
@@ -12615,10 +12620,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>61</v>
@@ -12659,10 +12664,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>61</v>
@@ -12677,16 +12682,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>61</v>
@@ -12705,10 +12710,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>61</v>
@@ -12747,10 +12752,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>66</v>
@@ -13005,7 +13010,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="360" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -13013,14 +13018,16 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" ht="225" x14ac:dyDescent="0.25">
@@ -13031,14 +13038,16 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -13049,17 +13058,19 @@
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>24</v>
       </c>
@@ -13067,17 +13078,19 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="375" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -13085,14 +13098,16 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -13103,7 +13118,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
@@ -13123,7 +13138,7 @@
         <v>47</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -13141,7 +13156,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -13159,7 +13174,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -13177,7 +13192,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13195,7 +13210,7 @@
         <v>51</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13213,7 +13228,7 @@
         <v>51</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13231,7 +13246,7 @@
         <v>51</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13249,7 +13264,7 @@
         <v>52</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13267,7 +13282,7 @@
         <v>52</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13285,7 +13300,7 @@
         <v>53</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13303,7 +13318,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13321,7 +13336,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
@@ -13341,7 +13356,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13357,7 +13372,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13373,7 +13388,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13389,7 +13404,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13405,7 +13420,7 @@
         <v>57</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13421,7 +13436,7 @@
         <v>58</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13437,7 +13452,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13453,7 +13468,7 @@
         <v>63</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13469,7 +13484,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -13485,7 +13500,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -13501,7 +13516,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -13876,13 +13891,13 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -13894,10 +13909,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -13910,10 +13925,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -13926,10 +13941,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -13942,10 +13957,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -13958,10 +13973,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -13974,10 +13989,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -13990,10 +14005,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -14006,10 +14021,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14022,10 +14037,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14038,10 +14053,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14054,10 +14069,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -14231,7 +14246,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -10542,327 +10543,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     - Login vào account của Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Click vào Inbox trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
-       2. Click vào Failure trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
-      3. Click vào Compose button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
-      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] Ko thay muc Allow Approve in SMS &amp; Customer data, chi thay muc Allow Approve in Permission =&gt; sua muc do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
-       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
     </r>
@@ -11008,7 +10688,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Dan] case na`y ko dung. Vi` khi khach hang ko can add new nua thi` ho co quyen dong Form Add new, sao lai phai bat ho nhap cac thong tin trong khi ho muon cancel</t>
+      <t xml:space="preserve">[Dan] case na`y ko dung. Vi` khi khach hang ko can add new nua thi` ho co quyen dong Form Add new, sao lai phai bat ho nhap cac thong tin trong khi ho muon cancel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] nếu User muốn Cancel thì User sẽ click vào icon "Cancel" chứ không phải click vào icon "Insert"</t>
     </r>
     <r>
       <rPr>
@@ -11124,7 +10817,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[dan] Can not reproduce</t>
+      <t xml:space="preserve">[dan] Can not reproduce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam] Trong Form Add New, Input vào field phone number là số + chữ (vd:01234567a) thì vẫn insert thành công, phone number thì làm gì có chữ?  </t>
     </r>
     <r>
       <rPr>
@@ -11230,6 +10936,340 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Hiển thị câu thông báo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     - Login vào account của Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
+      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Ko thay muc Allow Approve in SMS &amp; Customer data, chi thay muc Allow Approve in Permission =&gt; sua muc do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] okie anh do em ghi sai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
+       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
     </r>
   </si>
   <si>
@@ -11487,7 +11527,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Dan] can not reproduce</t>
+      <t xml:space="preserve">[Dan] can not reproduce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam] Trong Form Update, sửa giá trị trong field phone number là số + chữ (vd:01234567a) thì vẫn update thành công, phone number thì làm gì có chữ? </t>
     </r>
     <r>
       <rPr>
@@ -11551,7 +11604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11644,6 +11697,15 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12523,9 +12585,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12762,7 +12824,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -12844,7 +12906,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -12868,7 +12930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -12888,7 +12950,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="25" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="25" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>15</v>
       </c>
@@ -12910,7 +12972,7 @@
       </c>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>16</v>
       </c>
@@ -12930,7 +12992,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -13010,7 +13072,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="375" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -13018,7 +13080,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13078,7 +13140,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13090,7 +13152,7 @@
       </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="405" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -13202,7 +13264,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -13572,7 +13634,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>53</v>
       </c>
@@ -13632,7 +13694,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>56</v>
       </c>
@@ -13678,7 +13740,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>59</v>
       </c>
@@ -13758,7 +13820,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>64</v>
       </c>
@@ -13790,7 +13852,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:7" ht="345" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" ht="330" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>66</v>
       </c>
@@ -13822,7 +13884,7 @@
       </c>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" ht="195" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>68</v>
       </c>
@@ -14016,7 +14078,7 @@
       </c>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>80</v>
       </c>
@@ -14032,7 +14094,7 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="285" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>81</v>
       </c>
@@ -14064,7 +14126,7 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>83</v>
       </c>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Bug_72" sheetId="42" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$88</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -1730,9 +1730,6 @@
   </si>
   <si>
     <t xml:space="preserve">Administrator &gt;&gt; Permistion &gt;&gt; Administrator Management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator &gt;&gt; Permission - Allow Approve </t>
   </si>
   <si>
     <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Supervisor Position</t>
@@ -10539,9 +10536,6 @@
     </r>
   </si>
   <si>
-    <t>[Tâm] retest 21/5/2012</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
@@ -11598,6 +11592,18 @@
       </rPr>
       <t xml:space="preserve"> Hiện câu thông báo </t>
     </r>
+  </si>
+  <si>
+    <t>[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đếu login vào được</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 21/5/2012 Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Permission &gt;&gt; Allow Approve </t>
+  </si>
+  <si>
+    <t>[Tam] chờ fix bug 26 sẽ retest</t>
   </si>
 </sst>
 </file>
@@ -11803,7 +11809,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11856,9 +11862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11888,6 +11891,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12587,7 +12596,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12604,14 +12613,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12638,10 +12647,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -12656,16 +12665,16 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="H5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -12682,13 +12691,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -12706,9 +12715,11 @@
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="H7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -12726,13 +12737,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="14"/>
     </row>
@@ -12744,19 +12755,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -12772,13 +12783,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -12796,9 +12807,11 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>65</v>
+      <c r="G11" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -12814,13 +12827,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>66</v>
+        <v>150</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="I12" s="14"/>
     </row>
@@ -12838,9 +12851,11 @@
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="H13" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -12862,7 +12877,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -12882,7 +12897,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="14"/>
     </row>
@@ -12902,7 +12917,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="14"/>
     </row>
@@ -12924,10 +12939,10 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -12946,31 +12961,31 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="25" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+    <row r="19" spans="2:9" s="24" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
         <v>15</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="D19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="24"/>
+      <c r="G19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -12988,7 +13003,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -13008,7 +13023,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -13028,7 +13043,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -13048,7 +13063,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -13060,7 +13075,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
@@ -13068,7 +13083,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -13080,7 +13095,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13088,7 +13103,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -13100,7 +13115,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -13108,7 +13123,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="14"/>
     </row>
@@ -13120,7 +13135,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -13128,7 +13143,7 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" s="14"/>
     </row>
@@ -13140,7 +13155,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13148,7 +13163,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="14"/>
     </row>
@@ -13160,7 +13175,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13168,7 +13183,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29" s="14"/>
     </row>
@@ -13177,17 +13192,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>49</v>
+      <c r="G30" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
@@ -13197,10 +13212,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -13215,10 +13230,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -13233,10 +13248,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -13251,10 +13266,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13269,10 +13284,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13287,10 +13302,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13305,10 +13320,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13323,10 +13338,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13341,10 +13356,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13359,10 +13374,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13377,10 +13392,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13395,17 +13410,17 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -13415,10 +13430,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13431,10 +13446,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13447,10 +13462,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13463,10 +13478,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13479,10 +13494,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13495,10 +13510,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13511,10 +13526,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13527,10 +13542,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13543,10 +13558,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -13559,10 +13574,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -13575,10 +13590,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -13594,7 +13609,7 @@
         <v>40</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -13607,10 +13622,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -13623,10 +13638,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -13639,10 +13654,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -13655,10 +13670,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -13671,10 +13686,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -13685,10 +13700,10 @@
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -13699,10 +13714,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -13715,10 +13730,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -13731,10 +13746,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -13745,10 +13760,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -13761,10 +13776,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -13777,10 +13792,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -13793,10 +13808,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -13809,10 +13824,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -13825,10 +13840,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -13841,10 +13856,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -13857,10 +13872,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -13873,10 +13888,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -13889,10 +13904,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -13905,10 +13920,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -13921,10 +13936,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -13937,10 +13952,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -13953,13 +13968,13 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -13971,10 +13986,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -13987,10 +14002,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -14003,10 +14018,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -14019,10 +14034,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -14035,58 +14050,58 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="26"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="26"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="26"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14099,10 +14114,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14115,10 +14130,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14131,10 +14146,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -14303,7 +14318,7 @@
       <c r="G108" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G16"/>
+  <autoFilter ref="B4:G88"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$88</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1911,9 +1910,6 @@
     </r>
   </si>
   <si>
-    <t>please, Fixe bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; CustomerType </t>
   </si>
   <si>
@@ -4071,36 +4067,6 @@
       <t xml:space="preserve">
       Phải reset lại hết các cấp dưới
 (VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local phải được reset mà không phải chỉ reset lại Field Region không)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Select phone number
-[Dan] Em co the mo ta tu` luc login vao den luc xay ra bug duoc ko? Thanks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam]Okie anh, em đã mô tả lại, anh xem và fixed hộ em nhé</t>
     </r>
   </si>
   <si>
@@ -11594,9 +11560,6 @@
     </r>
   </si>
   <si>
-    <t>[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đếu login vào được</t>
-  </si>
-  <si>
     <t>[Tâm] retest 21/5/2012 Passed</t>
   </si>
   <si>
@@ -11604,6 +11567,43 @@
   </si>
   <si>
     <t>[Tam] chờ fix bug 26 sẽ retest</t>
+  </si>
+  <si>
+    <t>[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Select phone number
+[Dan] Em co the mo ta tu` luc login vao den luc xay ra bug duoc ko? Thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam]Okie anh, em đã mô tả lại, anh xem và fixed hộ em nhé</t>
+    </r>
+  </si>
+  <si>
+    <t>please, Fixed bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
   </si>
 </sst>
 </file>
@@ -11889,14 +11889,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12594,9 +12594,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12613,14 +12613,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12647,10 +12647,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -12665,16 +12665,16 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -12691,13 +12691,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>152</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -12716,10 +12716,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -12737,13 +12737,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>152</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="14"/>
     </row>
@@ -12755,19 +12755,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -12783,17 +12783,17 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -12807,11 +12807,11 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>158</v>
+      <c r="G11" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -12827,13 +12827,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="14"/>
     </row>
@@ -12851,11 +12851,11 @@
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>161</v>
+      <c r="G13" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="14"/>
     </row>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="14"/>
     </row>
@@ -12939,10 +12939,10 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -12961,7 +12961,7 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="14"/>
     </row>
@@ -12973,17 +12973,17 @@
         <v>8</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="23"/>
     </row>
@@ -13003,7 +13003,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -13083,7 +13083,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -13095,7 +13095,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -13115,7 +13115,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="14"/>
     </row>
@@ -13135,7 +13135,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="14"/>
     </row>
@@ -13155,7 +13155,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I28" s="14"/>
     </row>
@@ -13175,7 +13175,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="14"/>
     </row>
@@ -13192,17 +13192,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="29" t="s">
-        <v>48</v>
+      <c r="G30" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
@@ -13215,7 +13215,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -13233,7 +13233,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -13248,10 +13248,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -13266,10 +13266,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13284,10 +13284,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13302,10 +13302,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13320,10 +13320,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13338,10 +13338,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13356,10 +13356,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13374,10 +13374,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13392,10 +13392,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13410,17 +13410,17 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -13430,10 +13430,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13446,10 +13446,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13462,10 +13462,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13478,10 +13478,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13494,10 +13494,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13510,10 +13510,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13526,10 +13526,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13542,10 +13542,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13558,10 +13558,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -13574,10 +13574,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -13590,10 +13590,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -13609,7 +13609,7 @@
         <v>40</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -13622,10 +13622,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -13638,10 +13638,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -13654,10 +13654,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -13670,10 +13670,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -13686,10 +13686,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -13700,10 +13700,10 @@
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -13714,10 +13714,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -13730,10 +13730,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -13746,10 +13746,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -13760,10 +13760,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -13776,10 +13776,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -13792,10 +13792,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -13808,10 +13808,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -13824,10 +13824,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -13840,10 +13840,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -13856,10 +13856,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -13872,10 +13872,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -13888,10 +13888,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -13904,10 +13904,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -13920,10 +13920,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -13936,10 +13936,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -13952,10 +13952,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -13968,13 +13968,13 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -13986,10 +13986,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -14002,10 +14002,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -14018,10 +14018,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -14034,10 +14034,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -14050,10 +14050,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -14066,10 +14066,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -14082,10 +14082,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -14098,10 +14098,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14114,10 +14114,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14130,10 +14130,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14146,10 +14146,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -11809,7 +11809,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11869,19 +11869,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -11897,6 +11885,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12594,9 +12597,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12613,14 +12616,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12693,7 +12696,7 @@
       <c r="F6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="22" t="s">
         <v>150</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -12739,7 +12742,7 @@
       <c r="F8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>150</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -12763,7 +12766,7 @@
       <c r="F9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="22" t="s">
         <v>151</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -12785,7 +12788,7 @@
       <c r="F10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="22" t="s">
         <v>151</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -12807,7 +12810,7 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="23" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -12851,7 +12854,7 @@
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>158</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -12965,27 +12968,27 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="24" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+    <row r="19" spans="2:9" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
         <v>15</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -13201,7 +13204,7 @@
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="24" t="s">
         <v>161</v>
       </c>
       <c r="H30" s="16"/>
@@ -14059,7 +14062,7 @@
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="25"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
@@ -14075,7 +14078,7 @@
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="25"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
@@ -14091,7 +14094,7 @@
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="25"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="161">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -2043,9 +2043,6 @@
   </si>
   <si>
     <t>So phone trong Promotion phai ton tai trong Customer nen neu so phone do ko co trong Customer thi` cung se ko hien thi len duoc</t>
-  </si>
-  <si>
-    <t>Em dang mo ta function nao vay</t>
   </si>
   <si>
     <r>
@@ -10503,403 +10500,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Login vào Account của Administrator
-    - Click vào Administrator trên Menu
-    - Click vào Permistion &gt;&gt; Administrator Management
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Click  mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-     2. Nhập vào UPI Code, click vào icon insert
-     3. Nhập vào UPI Code và Fullname, click icon Insert
-     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] case na`y ko dung. Vi` khi khach hang ko can add new nua thi` ho co quyen dong Form Add new, sao lai phai bat ho nhap cac thong tin trong khi ho muon cancel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam] nếu User muốn Cancel thì User sẽ click vào icon "Cancel" chứ không phải click vào icon "Insert"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
-    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[dan] Can not reproduce
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Tam] Trong Form Add New, Input vào field phone number là số + chữ (vd:01234567a) thì vẫn insert thành công, phone number thì làm gì có chữ?  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    7. Nhập đầy đủ các field với UPI code đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
-    8. Nhập đầy đủ các field với Fullname là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hiển thị câu thông báo </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
 </t>
     </r>
@@ -11569,9 +11169,6 @@
     <t>[Tam] chờ fix bug 26 sẽ retest</t>
   </si>
   <si>
-    <t>[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
     </r>
@@ -11604,6 +11201,432 @@
   </si>
   <si>
     <t>please, Fixed bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] em check voi Son giup anh case na`y nhe, thanks em</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Login vào Account của Administrator
+    - Click vào Administrator trên Menu
+    - Click vào Permistion &gt;&gt; Administrator Management
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Click  mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+     2. Nhập vào UPI Code, click vào icon insert
+     3. Nhập vào UPI Code và Fullname, click icon Insert
+     4. Nhập vào UPI Code, Fullname và phone, click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện ra thông báo vì chưa nhập Fullname, phone, password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] case na`y ko dung. Vi` khi khach hang ko can add new nua thi` ho co quyen dong Form Add new, sao lai phai bat ho nhap cac thong tin trong khi ho muon cancel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam] nếu User muốn Cancel thì User sẽ click vào icon "Cancel" chứ không phải click vào icon "Insert"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] bi hoa mat, nhin icon insert ra Cancel =&gt; da fix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     5.  Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thông báo số phone đã tồn tại (vì khi login bằng phone number, nên số phone phải là duy nhất)
+    6. Nhập đầy đủ các field với số phone là số + chữ, click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện ra câu thông báo vì phone không có chứa chữ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[dan] Can not reproduce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam] Trong Form Add New, Input vào field phone number là số + chữ (vd:01234567a) thì vẫn insert thành công, phone number thì làm gì có chữ?  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    7. Nhập đầy đủ các field với UPI code đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo UPI Code không được trùng
+    8. Nhập đầy đủ các field với Fullname là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị câu thông báo </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11809,7 +11832,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11856,9 +11879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11883,9 +11903,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11900,6 +11917,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12597,9 +12617,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12616,14 +12636,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12668,10 +12688,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>59</v>
@@ -12694,10 +12714,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>59</v>
@@ -12719,7 +12739,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>59</v>
@@ -12740,10 +12760,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>59</v>
@@ -12758,16 +12778,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>59</v>
@@ -12786,17 +12806,17 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -12810,10 +12830,10 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="14"/>
@@ -12830,12 +12850,12 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="14"/>
@@ -12854,8 +12874,8 @@
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>158</v>
+      <c r="G13" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>59</v>
@@ -12944,7 +12964,7 @@
       <c r="H17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12968,27 +12988,27 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
+    <row r="19" spans="2:9" s="28" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
         <v>15</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26" t="s">
+      <c r="D19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="29"/>
+      <c r="G19" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -13098,7 +13118,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13118,7 +13138,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -13138,7 +13158,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -13158,7 +13178,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13178,7 +13198,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13195,20 +13215,22 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="G30" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -13218,14 +13240,16 @@
         <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -13236,14 +13260,16 @@
         <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="15"/>
+      <c r="H32" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -13254,14 +13280,16 @@
         <v>48</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" ht="300" x14ac:dyDescent="0.25">
@@ -13272,14 +13300,16 @@
         <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -13290,7 +13320,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13308,7 +13338,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13326,7 +13356,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13344,7 +13374,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13362,7 +13392,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13380,7 +13410,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13398,7 +13428,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13416,7 +13446,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
@@ -13436,7 +13466,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13452,7 +13482,7 @@
         <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13468,7 +13498,7 @@
         <v>54</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13484,7 +13514,7 @@
         <v>55</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13500,7 +13530,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13516,7 +13546,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13532,7 +13562,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13548,7 +13578,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13564,7 +13594,7 @@
         <v>61</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -13580,7 +13610,7 @@
         <v>62</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -13596,7 +13626,7 @@
         <v>62</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -13628,7 +13658,7 @@
         <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -13644,7 +13674,7 @@
         <v>66</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -13660,7 +13690,7 @@
         <v>66</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -13676,7 +13706,7 @@
         <v>66</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -13689,10 +13719,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -13703,10 +13733,10 @@
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -13717,10 +13747,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -13733,10 +13763,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -13749,10 +13779,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -13763,10 +13793,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -13779,10 +13809,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -13795,10 +13825,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -13811,10 +13841,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -13827,10 +13857,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -13843,10 +13873,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -13859,10 +13889,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -13875,10 +13905,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -13891,10 +13921,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -13907,10 +13937,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -13923,10 +13953,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -13939,10 +13969,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -13955,10 +13985,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -13971,13 +14001,13 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -13989,10 +14019,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -14005,10 +14035,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -14021,10 +14051,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -14037,10 +14067,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -14053,58 +14083,58 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="21"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="21"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="21"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14117,10 +14147,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14133,10 +14163,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14149,10 +14179,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -11832,7 +11832,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11874,9 +11874,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12617,9 +12614,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12636,14 +12633,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12716,7 +12713,7 @@
       <c r="F6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>149</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -12762,7 +12759,7 @@
       <c r="F8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>149</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -12786,7 +12783,7 @@
       <c r="F9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>150</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -12808,7 +12805,7 @@
       <c r="F10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>150</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -12830,10 +12827,10 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="14"/>
@@ -12852,10 +12849,10 @@
       <c r="F12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="14"/>
@@ -12874,7 +12871,7 @@
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -12964,7 +12961,7 @@
       <c r="H17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12988,27 +12985,27 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="28" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="2:9" s="27" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="27"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -13224,13 +13221,13 @@
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>158</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -13327,7 +13324,9 @@
         <v>17</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" ht="285" x14ac:dyDescent="0.25">
@@ -13345,7 +13344,9 @@
         <v>17</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" ht="285" x14ac:dyDescent="0.25">
@@ -13363,7 +13364,9 @@
         <v>17</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" ht="255" x14ac:dyDescent="0.25">
@@ -13381,7 +13384,9 @@
         <v>17</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" ht="285" x14ac:dyDescent="0.25">
@@ -13399,7 +13404,9 @@
         <v>17</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="15"/>
+      <c r="H39" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" ht="225" x14ac:dyDescent="0.25">
@@ -13417,7 +13424,9 @@
         <v>17</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="15"/>
+      <c r="H40" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -13435,7 +13444,9 @@
         <v>17</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9" ht="225" x14ac:dyDescent="0.25">
@@ -13455,7 +13466,9 @@
       <c r="G42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9" ht="225" x14ac:dyDescent="0.25">
@@ -13473,6 +13486,9 @@
         <v>17</v>
       </c>
       <c r="G43" s="7"/>
+      <c r="H43" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
@@ -13489,6 +13505,9 @@
         <v>17</v>
       </c>
       <c r="G44" s="7"/>
+      <c r="H44" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
@@ -13505,6 +13524,9 @@
         <v>17</v>
       </c>
       <c r="G45" s="7"/>
+      <c r="H45" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
@@ -14092,7 +14114,7 @@
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="20"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
@@ -14108,7 +14130,7 @@
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="20"/>
+      <c r="G83" s="19"/>
     </row>
     <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
@@ -14124,7 +14146,7 @@
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="20"/>
+      <c r="G84" s="19"/>
     </row>
     <row r="85" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="162">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -2043,88 +2043,6 @@
   </si>
   <si>
     <t>So phone trong Promotion phai ton tai trong Customer nen neu so phone do ko co trong Customer thi` cung se ko hien thi len duoc</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outboxthì không hiện kết quả filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Customer
-   2. Click vào SMS List trên menu
-   3. Chọn Filter theo "By From"/"By To"
-   4. Nhập giá trị vào textbox
-   5. Click vào Filter button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-         Không thấy hiển thị kết quả sau khi filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-    1. Hiển thị tất cả các record có By From/By To like %string input%
-    2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%</t>
-    </r>
   </si>
   <si>
     <r>
@@ -11627,6 +11545,103 @@
       </rPr>
       <t xml:space="preserve">Hiển thị câu thông báo </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outboxthì không hiện kết quả filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Chọn Filter theo "By From"/"By To"
+   4. Nhập giá trị vào textbox
+   5. Click vào Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Không thấy hiển thị kết quả sau khi filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    1. Hiển thị tất cả các record có By From/By To like %string input%
+    2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Hien tai da~ support filter like, nen khi em dung %% thi` se ko filter duoc. </t>
+    </r>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -12614,9 +12629,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12685,10 +12700,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>59</v>
@@ -12711,10 +12726,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>59</v>
@@ -12736,7 +12751,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>59</v>
@@ -12757,10 +12772,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>59</v>
@@ -12775,16 +12790,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>59</v>
@@ -12803,10 +12818,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>59</v>
@@ -12828,7 +12843,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>63</v>
@@ -12847,10 +12862,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>64</v>
@@ -12872,7 +12887,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>59</v>
@@ -12993,14 +13008,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>59</v>
@@ -13115,7 +13130,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13135,7 +13150,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -13155,7 +13170,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -13175,7 +13190,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13195,7 +13210,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13212,17 +13227,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>59</v>
@@ -13237,7 +13252,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -13257,7 +13272,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -13277,7 +13292,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -13297,7 +13312,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13317,7 +13332,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13337,7 +13352,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13357,7 +13372,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13377,7 +13392,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13397,7 +13412,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13417,7 +13432,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13437,7 +13452,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13457,7 +13472,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
@@ -13479,7 +13494,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13498,7 +13513,7 @@
         <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13517,7 +13532,7 @@
         <v>54</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13536,13 +13551,16 @@
         <v>55</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="7"/>
+      <c r="H46" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
@@ -13552,13 +13570,16 @@
         <v>55</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="7"/>
+      <c r="H47" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
@@ -13568,15 +13589,18 @@
         <v>56</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="7"/>
+      <c r="H48" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="49" spans="2:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>45</v>
       </c>
@@ -13584,15 +13608,18 @@
         <v>56</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="7"/>
+      <c r="H49" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="50" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>46</v>
       </c>
@@ -13600,15 +13627,18 @@
         <v>61</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="7"/>
+      <c r="H50" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="51" spans="2:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>47</v>
       </c>
@@ -13616,15 +13646,18 @@
         <v>61</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="7"/>
+      <c r="H51" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="52" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>48</v>
       </c>
@@ -13632,15 +13665,18 @@
         <v>62</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="7"/>
+      <c r="H52" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="53" spans="2:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>49</v>
       </c>
@@ -13648,15 +13684,18 @@
         <v>62</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="7"/>
+      <c r="H53" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="54" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>50</v>
       </c>
@@ -13671,8 +13710,11 @@
         <v>17</v>
       </c>
       <c r="G54" s="7"/>
+      <c r="H54" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="55" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>51</v>
       </c>
@@ -13680,15 +13722,18 @@
         <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7"/>
+      <c r="H55" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="56" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>52</v>
       </c>
@@ -13696,15 +13741,18 @@
         <v>66</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="7"/>
+      <c r="H56" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="57" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>53</v>
       </c>
@@ -13712,15 +13760,18 @@
         <v>66</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="7"/>
+      <c r="H57" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="58" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>54</v>
       </c>
@@ -13728,23 +13779,26 @@
         <v>66</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="7"/>
+      <c r="H58" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="59" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -13752,27 +13806,27 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -13780,15 +13834,15 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>57</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -13796,29 +13850,29 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
@@ -13831,10 +13885,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -13847,10 +13901,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -13863,10 +13917,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -13879,10 +13933,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -13895,10 +13949,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -13911,10 +13965,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -13927,10 +13981,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -13943,10 +13997,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -13959,10 +14013,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -13975,10 +14029,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -13991,10 +14045,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -14007,10 +14061,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -14023,13 +14077,13 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -14041,10 +14095,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -14057,10 +14111,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -14073,10 +14127,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -14089,10 +14143,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -14105,10 +14159,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -14121,10 +14175,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -14137,10 +14191,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -14153,10 +14207,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14169,10 +14223,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14185,10 +14239,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14201,10 +14255,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="171">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -3227,230 +3227,6 @@
   </si>
   <si>
     <t>Administrator &gt;&gt; Promotion</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Condition của StartDate và EndDate không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Administrator
-   2. Click vào Promotion trên menu
-   3. Click vào Add new Record
-   4. Nhập đầy đủ các field với StartDate &lt; EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Hiện ra câu báo StartDate phải &gt; = EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Và Repro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   4. Nhập đầy đủ Field với StartDate &gt; EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       thì hiện thông báo "End date must be &gt;= start date"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Và Repro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   4. Nhập đầy đủ Field với StartDate = EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công nhưng StartDate = Date chọn, EndDate = ngày hiện hành
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công, insert vào các Field như giá trị đã nhập hoặc chọn</t>
-    </r>
   </si>
   <si>
     <r>
@@ -11643,12 +11419,285 @@
   <si>
     <t>Invalid</t>
   </si>
+  <si>
+    <t>[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha</t>
+  </si>
+  <si>
+    <t>[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe</t>
+  </si>
+  <si>
+    <t>[Dan] hien tai, neu ko nhap Subject thi` he thong tu dong set subject la "No subject", day la code da co tu` truoc</t>
+  </si>
+  <si>
+    <t>do not fix</t>
+  </si>
+  <si>
+    <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Condition của StartDate và EndDate không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào Promotion trên menu
+   3. Click vào Add new Record
+   4. Nhập đầy đủ các field với StartDate &lt; EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra câu báo StartDate phải &gt; = EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Tai sao Start Date phai &gt;= End Date ????</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Và Repro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   4. Nhập đầy đủ Field với StartDate &gt; EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       thì hiện thông báo "End date must be &gt;= start date"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Và Repro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   4. Nhập đầy đủ Field với StartDate = EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công nhưng StartDate = Date chọn, EndDate = ngày hiện hành
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công, insert vào các Field như giá trị đã nhập hoặc chọn</t>
+    </r>
+  </si>
+  <si>
+    <t>Can not reproduce</t>
+  </si>
+  <si>
+    <t>[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe</t>
+  </si>
+  <si>
+    <t>[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11752,6 +11801,20 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -11847,7 +11910,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11932,6 +11995,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12629,9 +12701,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12700,10 +12772,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>59</v>
@@ -12726,10 +12798,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>59</v>
@@ -12751,7 +12823,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>59</v>
@@ -12772,10 +12844,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>59</v>
@@ -12790,16 +12862,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>59</v>
@@ -12818,10 +12890,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>59</v>
@@ -12843,7 +12915,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>63</v>
@@ -12862,10 +12934,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>64</v>
@@ -12887,7 +12959,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>59</v>
@@ -13008,14 +13080,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>59</v>
@@ -13130,7 +13202,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13150,7 +13222,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -13170,7 +13242,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -13190,7 +13262,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13210,7 +13282,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13227,17 +13299,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>59</v>
@@ -13252,7 +13324,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -13272,7 +13344,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -13292,7 +13364,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -13312,7 +13384,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13332,7 +13404,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13352,7 +13424,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13372,7 +13444,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13392,7 +13464,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13412,7 +13484,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13432,7 +13504,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13452,7 +13524,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13472,7 +13544,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
@@ -13494,7 +13566,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13513,7 +13585,7 @@
         <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13532,7 +13604,7 @@
         <v>54</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13551,7 +13623,7 @@
         <v>55</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13570,7 +13642,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13589,7 +13661,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13608,7 +13680,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13627,7 +13699,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13646,7 +13718,7 @@
         <v>61</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -13665,7 +13737,7 @@
         <v>62</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -13684,7 +13756,7 @@
         <v>62</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -13722,15 +13794,15 @@
         <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="13" t="s">
-        <v>161</v>
+      <c r="H55" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -13749,7 +13821,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="13" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -13768,7 +13840,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="13" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -13787,7 +13859,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="13" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -13806,7 +13878,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
         <v>73</v>
@@ -13816,7 +13888,9 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
@@ -13832,7 +13906,12 @@
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
@@ -13849,6 +13928,9 @@
         <v>17</v>
       </c>
       <c r="G62" s="7"/>
+      <c r="H62" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
@@ -13863,6 +13945,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
+      <c r="H63" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
@@ -13878,9 +13963,14 @@
       <c r="F64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="65" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>60</v>
       </c>
@@ -13894,9 +13984,14 @@
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="66" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>61</v>
       </c>
@@ -13911,8 +14006,11 @@
         <v>17</v>
       </c>
       <c r="G66" s="7"/>
+      <c r="H66" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="67" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>62</v>
       </c>
@@ -13927,8 +14025,11 @@
         <v>17</v>
       </c>
       <c r="G67" s="7"/>
+      <c r="H67" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="68" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>63</v>
       </c>
@@ -13943,8 +14044,11 @@
         <v>17</v>
       </c>
       <c r="G68" s="7"/>
+      <c r="H68" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="69" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>64</v>
       </c>
@@ -13959,8 +14063,11 @@
         <v>17</v>
       </c>
       <c r="G69" s="7"/>
+      <c r="H69" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="70" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>65</v>
       </c>
@@ -13976,7 +14083,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="345" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>66</v>
       </c>
@@ -13984,15 +14091,18 @@
         <v>90</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="7"/>
+      <c r="H71" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="72" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>67</v>
       </c>
@@ -14000,23 +14110,25 @@
         <v>90</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="73" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -14024,47 +14136,53 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="7"/>
+      <c r="H74" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="75" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="7"/>
+      <c r="H75" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="76" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -14072,49 +14190,57 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="78" spans="2:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7"/>
+      <c r="H78" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="79" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -14122,15 +14248,15 @@
       </c>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -14138,15 +14264,15 @@
       </c>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -14154,15 +14280,15 @@
       </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -14170,15 +14296,15 @@
       </c>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="2:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -14186,15 +14312,15 @@
       </c>
       <c r="G83" s="19"/>
     </row>
-    <row r="84" spans="2:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -14202,15 +14328,15 @@
       </c>
       <c r="G84" s="19"/>
     </row>
-    <row r="85" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14218,15 +14344,15 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="2:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="285" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14234,15 +14360,15 @@
       </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14250,23 +14376,28 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -14274,7 +14405,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -14282,7 +14413,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -14290,7 +14421,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -14298,7 +14429,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -14306,7 +14437,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -14314,7 +14445,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -14322,7 +14453,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -14528,9 +14659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="173">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -9642,259 +9642,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   - Login vào Account của Administrator
-   - Click vào Customer trên menu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Click mở Form Add New Record
-    1.  Không nhập gì và nhấn icon Insert
-    2. Nhập vào Field lần lượt là null trừ field phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alert lên thông báo "Error"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ
-    3. Nhập vào Field không đầy đủ trừ phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo
-    4. Nhập ngày CreateDate&lt; Update/CreateDate và Update khác ngày hiện tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Result: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Insert thành công với ngày CreateDate và Update = ngày hiện tại</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bỏ Field Create Date và Update vì không cần thiết, khi tạo mới customer thì sẽ insert vào createDate và Update = ngày hiện tại (cái này em đã hỏi ý của anh Sơn rồi)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     4. Nhập đầy đủ các Field trùng với 1 Customer đã có
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Không thể tạo 2 record trùng nhau, hiện ra thông báo</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Khi insert thành công thì new record được insert vào cuối cùng trong list, làm user phải click đến trang cuối mới view/Approve được
 </t>
     </r>
@@ -11691,6 +11438,266 @@
   </si>
   <si>
     <t>[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Customer trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click mở Form Add New Record
+    1.  Không nhập gì và nhấn icon Insert
+    2. Nhập vào Field lần lượt là null trừ field phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert lên thông báo "Error"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ
+    3. Nhập vào Field không đầy đủ trừ phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo
+    4. Nhập ngày CreateDate&lt; Update/CreateDate và Update khác ngày hiện tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert thành công với ngày CreateDate và Update = ngày hiện tại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bỏ Field Create Date và Update vì không cần thiết, khi tạo mới customer thì sẽ insert vào createDate và Update = ngày hiện tại (cái này em đã hỏi ý của anh Sơn rồi)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     4. Nhập đầy đủ các Field trùng với 1 Customer đã có
+[Dan] Chi nen kiem tra tren UPI Code va Phone Number thoi, vi` cac thong tin khac co the tru`ng duoc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không thể tạo 2 record trùng nhau, hiện ra thông báo</t>
+    </r>
+  </si>
+  <si>
+    <t>[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay</t>
+  </si>
+  <si>
+    <t>partial fixed</t>
   </si>
 </sst>
 </file>
@@ -11993,9 +12000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12004,6 +12008,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12701,9 +12708,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12720,14 +12727,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -12772,10 +12779,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>59</v>
@@ -12798,10 +12805,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>59</v>
@@ -12823,7 +12830,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>59</v>
@@ -12844,10 +12851,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>59</v>
@@ -12862,16 +12869,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>59</v>
@@ -12890,10 +12897,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>59</v>
@@ -12915,7 +12922,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>63</v>
@@ -12934,10 +12941,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>64</v>
@@ -12959,7 +12966,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>59</v>
@@ -13087,7 +13094,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>59</v>
@@ -13202,7 +13209,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13262,7 +13269,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13282,7 +13289,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13299,7 +13306,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>103</v>
@@ -13309,7 +13316,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>59</v>
@@ -13794,15 +13801,15 @@
         <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="30" t="s">
-        <v>160</v>
+      <c r="H55" s="29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -13889,7 +13896,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -13907,10 +13914,10 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -13929,7 +13936,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -13946,7 +13953,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -13964,10 +13971,10 @@
         <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -13985,10 +13992,10 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14007,7 +14014,7 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14026,7 +14033,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -14045,7 +14052,7 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14064,7 +14071,7 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14091,7 +14098,7 @@
         <v>90</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -14099,7 +14106,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14117,7 +14124,7 @@
         <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -14152,7 +14159,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14171,7 +14178,7 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14207,10 +14214,10 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -14229,7 +14236,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14247,6 +14254,9 @@
         <v>17</v>
       </c>
       <c r="G79" s="7"/>
+      <c r="H79" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
@@ -14262,7 +14272,12 @@
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
@@ -14279,6 +14294,9 @@
         <v>17</v>
       </c>
       <c r="G81" s="7"/>
+      <c r="H81" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
@@ -14295,6 +14313,9 @@
         <v>17</v>
       </c>
       <c r="G82" s="19"/>
+      <c r="H82" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
@@ -14311,6 +14332,9 @@
         <v>17</v>
       </c>
       <c r="G83" s="19"/>
+      <c r="H83" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
@@ -14327,6 +14351,9 @@
         <v>17</v>
       </c>
       <c r="G84" s="19"/>
+      <c r="H84" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
@@ -14343,8 +14370,11 @@
         <v>17</v>
       </c>
       <c r="G85" s="7"/>
+      <c r="H85" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="86" spans="2:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>81</v>
       </c>
@@ -14352,13 +14382,16 @@
         <v>138</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="7"/>
+      <c r="H86" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
@@ -14368,33 +14401,36 @@
         <v>138</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G87" s="7"/>
+      <c r="H87" s="13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="175">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -9809,9 +9809,6 @@
     </r>
   </si>
   <si>
-    <t>Reopen</t>
-  </si>
-  <si>
     <t>Close</t>
   </si>
   <si>
@@ -9834,9 +9831,6 @@
   </si>
   <si>
     <t>[Tâm] retest 21/5/2012 - Passed</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 21/5/2012 - Failed</t>
   </si>
   <si>
     <r>
@@ -10641,9 +10635,6 @@
     </r>
   </si>
   <si>
-    <t>please, Fixed bug này trước để em có thể test tiếp phần Approve cho Promotion và customer</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng
 </t>
@@ -11699,12 +11690,141 @@
   <si>
     <t>partial fixed</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">please, Fixed bug này trước để em có thể test tiếp phần Approve cho Promotion và customer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 28/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 21/5/2012 - Failed
+[Tâm] retest 28/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt;  Salesmen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào icon Edit thì không hiện ra Form Edit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Login vào Account của Administrator
+   - Click vào Salesmen trên menu
+    - Click vào icon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Không hiện Form Edit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Hiện ra Form Edit</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11820,6 +11940,15 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12018,7 +12147,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12708,9 +12865,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12779,10 +12936,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>59</v>
@@ -12805,10 +12962,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>59</v>
@@ -12827,10 +12984,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>59</v>
@@ -12851,10 +13008,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>59</v>
@@ -12869,7 +13026,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -12878,7 +13035,7 @@
         <v>143</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>59</v>
@@ -12900,7 +13057,7 @@
         <v>143</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>59</v>
@@ -12922,7 +13079,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>63</v>
@@ -12941,10 +13098,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>64</v>
@@ -12966,7 +13123,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>59</v>
@@ -13094,7 +13251,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>59</v>
@@ -13209,7 +13366,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13269,7 +13426,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13289,7 +13446,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13306,17 +13463,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>59</v>
@@ -13801,7 +13958,7 @@
         <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -13809,7 +13966,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -13896,7 +14053,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -13914,10 +14071,10 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -13936,7 +14093,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -13953,7 +14110,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -13971,10 +14128,10 @@
         <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -13992,10 +14149,10 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14014,7 +14171,7 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14033,7 +14190,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -14052,7 +14209,7 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14071,7 +14228,7 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14098,7 +14255,7 @@
         <v>90</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -14106,7 +14263,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14124,7 +14281,7 @@
         <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -14159,7 +14316,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14178,7 +14335,7 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14214,10 +14371,10 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -14236,7 +14393,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14255,7 +14412,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -14273,10 +14430,10 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -14295,7 +14452,7 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -14314,7 +14471,7 @@
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
@@ -14333,7 +14490,7 @@
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -14352,7 +14509,7 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14371,7 +14528,7 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
@@ -14382,7 +14539,7 @@
         <v>138</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14390,7 +14547,7 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -14409,7 +14566,7 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14427,18 +14584,26 @@
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+    <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <v>84</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -14599,7 +14764,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="176">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -11817,6 +11817,109 @@
       </rPr>
       <t xml:space="preserve">
       Hiện ra Form Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add new không được
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Login vào Account của Administrator
+   - Click vào Salesmen trên menu
+    - Click vào Add new record
+   - Nhập đầy đủ các fields
+   - Click vào icon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Hiện thông báo "can not add, please try again later or contact administrator! "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Insert thành công</t>
     </r>
   </si>
 </sst>
@@ -12147,7 +12250,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12865,9 +12989,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14606,12 +14730,20 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+    <row r="90" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <v>85</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -14764,7 +14896,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -16,9 +16,9 @@
     <sheet name="Bug_72" sheetId="42" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$90</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="177">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -996,83 +996,6 @@
       </rPr>
       <t xml:space="preserve"> 
         Các Promotion chưa Approve thì không được hiển thị. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Khi filter theo "To" thì hiện thị thông báo
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Click chọn Date trong filter To 
-  -  Click Filter button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thông báo "Select Start date "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Phải cho filter theo "To"</t>
     </r>
   </si>
   <si>
@@ -10601,9 +10524,6 @@
     <t xml:space="preserve">Administrator &gt;&gt; Permission &gt;&gt; Allow Approve </t>
   </si>
   <si>
-    <t>[Tam] chờ fix bug 26 sẽ retest</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
     </r>
@@ -11922,12 +11842,627 @@
       Insert thành công</t>
     </r>
   </si>
+  <si>
+    <t>[Tam] chờ fix bug 26 sẽ retest
+[Tâm] retest 28/5/2012 - Passed</t>
+  </si>
+  <si>
+    <r>
+      <t>Khi filter theo "To" thì hiện thị thông báo
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click chọn Date trong filter To 
+  -  Click Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "Select Start date "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Phải cho filter theo "To"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Filter một số case không đúng
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Login vào Account của Administrator
+   - Click vào Promotion trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ase 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: không chọn gì, field Approved là Show All -&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra tất cả các record của promotion hiện có
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Chọn field Approved là Approved -&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra tất cả các record của promotion hiện có đã được Approved
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Chọn field Approved là Not Approved -&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra tất cả các record của promotion hiện có đã được Not Approved
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Click chọn các Field --&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thị tất cả các record có start date &gt;= From, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End date &lt; To</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đúng điều khi chọn Approved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện thị tất cả các record có start date &gt;= From, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End date &lt; = To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, đúng điều khi chọn Approved</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12047,6 +12582,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -12250,7 +12795,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12989,9 +13562,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13042,62 +13615,65 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
+        <f>IF(D5="","",MAX($B$4:$B4)+1)</f>
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="H5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
+        <f>IF(D6="","",MAX($B$4:$B5)+1)</f>
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
+        <f>IF(D7="","",MAX($B$4:$B6)+1)</f>
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -13108,18 +13684,19 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
+        <f>IF(D8="","",MAX($B$4:$B7)+1)</f>
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -13132,42 +13709,44 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
+        <f>IF(D9="","",MAX($B$4:$B8)+1)</f>
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
+        <f>IF(D10="","",MAX($B$4:$B9)+1)</f>
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -13178,18 +13757,19 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
+        <f>IF(D11="","",MAX($B$4:$B10)+1)</f>
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -13203,15 +13783,16 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
+        <f>IF(D12="","",MAX($B$4:$B11)+1)</f>
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -13222,18 +13803,19 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
+        <f>IF(D13="","",MAX($B$4:$B12)+1)</f>
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -13244,25 +13826,26 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
+        <f>IF(D14="","",MAX($B$4:$B13)+1)</f>
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -13272,39 +13855,43 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
+        <f>IF(D15="","",MAX($B$4:$B14)+1)</f>
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
+        <f>IF(D16="","",MAX($B$4:$B15)+1)</f>
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
@@ -13312,19 +13899,20 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
+        <f>IF(D17="","",MAX($B$4:$B16)+1)</f>
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -13334,14 +13922,15 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
+        <f>IF(D18="","",MAX($B$4:$B17)+1)</f>
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -13356,41 +13945,43 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" s="27" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+      <c r="B19" s="2">
+        <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
+        <f>IF(D20="","",MAX($B$4:$B19)+1)</f>
         <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
@@ -13398,12 +13989,13 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
+        <f>IF(D21="","",MAX($B$4:$B20)+1)</f>
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -13418,12 +14010,13 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
+        <f>IF(D22="","",MAX($B$4:$B21)+1)</f>
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -13438,19 +14031,20 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
+        <f>IF(D23="","",MAX($B$4:$B22)+1)</f>
         <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
@@ -13458,19 +14052,20 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
+        <f>IF(D24="","",MAX($B$4:$B23)+1)</f>
         <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
@@ -13478,19 +14073,20 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" ht="375" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
+        <f>IF(D25="","",MAX($B$4:$B24)+1)</f>
         <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -13498,19 +14094,20 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
+        <f>IF(D26="","",MAX($B$4:$B25)+1)</f>
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
@@ -13518,19 +14115,20 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
+        <f>IF(D27="","",MAX($B$4:$B26)+1)</f>
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -13538,19 +14136,20 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
+        <f>IF(D28="","",MAX($B$4:$B27)+1)</f>
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -13558,19 +14157,20 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" ht="405" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
+        <f>IF(D29="","",MAX($B$4:$B28)+1)</f>
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -13578,41 +14178,43 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
+        <f>IF(D30="","",MAX($B$4:$B29)+1)</f>
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
+        <f>IF(D31="","",MAX($B$4:$B30)+1)</f>
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -13620,19 +14222,20 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
+        <f>IF(D32="","",MAX($B$4:$B31)+1)</f>
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -13640,19 +14243,20 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
+        <f>IF(D33="","",MAX($B$4:$B32)+1)</f>
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -13660,19 +14264,20 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" ht="300" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
+        <f>IF(D34="","",MAX($B$4:$B33)+1)</f>
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -13680,19 +14285,20 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
+        <f>IF(D35="","",MAX($B$4:$B34)+1)</f>
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -13700,19 +14306,20 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
+        <f>IF(D36="","",MAX($B$4:$B35)+1)</f>
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -13720,19 +14327,20 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
+        <f>IF(D37="","",MAX($B$4:$B36)+1)</f>
         <v>33</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -13740,19 +14348,20 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" ht="255" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
+        <f>IF(D38="","",MAX($B$4:$B37)+1)</f>
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -13760,19 +14369,20 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
+        <f>IF(D39="","",MAX($B$4:$B38)+1)</f>
         <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -13780,19 +14390,20 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
+        <f>IF(D40="","",MAX($B$4:$B39)+1)</f>
         <v>36</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -13800,19 +14411,20 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
+        <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -13820,41 +14432,43 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
+        <f>IF(D42="","",MAX($B$4:$B41)+1)</f>
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
+        <f>IF(D43="","",MAX($B$4:$B42)+1)</f>
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -13862,18 +14476,19 @@
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
+        <f>IF(D44="","",MAX($B$4:$B43)+1)</f>
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -13881,18 +14496,19 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
+        <f>IF(D45="","",MAX($B$4:$B44)+1)</f>
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -13900,18 +14516,19 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
+        <f>IF(D46="","",MAX($B$4:$B45)+1)</f>
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -13919,18 +14536,19 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
+        <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -13938,18 +14556,19 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
+        <f>IF(D48="","",MAX($B$4:$B47)+1)</f>
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -13957,18 +14576,19 @@
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
+        <f>IF(D49="","",MAX($B$4:$B48)+1)</f>
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -13976,18 +14596,19 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
+        <f>IF(D50="","",MAX($B$4:$B49)+1)</f>
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -13995,18 +14616,19 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
+        <f>IF(D51="","",MAX($B$4:$B50)+1)</f>
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -14014,18 +14636,19 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
+        <f>IF(D52="","",MAX($B$4:$B51)+1)</f>
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -14033,18 +14656,19 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
+        <f>IF(D53="","",MAX($B$4:$B52)+1)</f>
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -14052,18 +14676,19 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
+        <f>IF(D54="","",MAX($B$4:$B53)+1)</f>
         <v>50</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -14071,18 +14696,19 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
+        <f>IF(D55="","",MAX($B$4:$B54)+1)</f>
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -14090,18 +14716,19 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
+        <f>IF(D56="","",MAX($B$4:$B55)+1)</f>
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -14109,18 +14736,19 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
+        <f>IF(D57="","",MAX($B$4:$B56)+1)</f>
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -14128,18 +14756,19 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
+        <f>IF(D58="","",MAX($B$4:$B57)+1)</f>
         <v>54</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -14147,18 +14776,19 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
+        <f>IF(D59="","",MAX($B$4:$B58)+1)</f>
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -14167,49 +14797,54 @@
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+      <c r="B60" s="2">
+        <f>IF(D60="","",MAX($B$4:$B59)+1)</f>
+        <v>56</v>
+      </c>
       <c r="C60" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <v>56</v>
+        <f>IF(D61="","",MAX($B$4:$B60)+1)</f>
+        <v>57</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <v>57</v>
+        <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
+        <v>58</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -14217,77 +14852,81 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <v>58</v>
+        <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
+        <v>59</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <v>59</v>
+        <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
+        <v>60</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
-        <v>60</v>
+        <f>IF(D65="","",MAX($B$4:$B64)+1)</f>
+        <v>61</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
-        <v>61</v>
+        <f>IF(D66="","",MAX($B$4:$B65)+1)</f>
+        <v>62</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -14295,18 +14934,19 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
-        <v>62</v>
+        <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
+        <v>63</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -14314,18 +14954,19 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
-        <v>63</v>
+        <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
+        <v>64</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -14333,18 +14974,19 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <v>64</v>
+        <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
+        <v>65</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -14352,18 +14994,19 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
-        <v>65</v>
+        <f>IF(D70="","",MAX($B$4:$B69)+1)</f>
+        <v>66</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -14373,13 +15016,14 @@
     </row>
     <row r="71" spans="2:8" ht="345" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
-        <v>66</v>
+        <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
+        <v>67</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -14387,36 +15031,38 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
-        <v>67</v>
+        <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
+        <v>68</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
-        <v>68</v>
+        <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
+        <v>69</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -14426,13 +15072,14 @@
     </row>
     <row r="74" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
-        <v>69</v>
+        <f>IF(D74="","",MAX($B$4:$B73)+1)</f>
+        <v>70</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -14440,37 +15087,41 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
-        <v>70</v>
+        <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
+        <v>71</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="H75" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
-        <v>71</v>
+        <f>IF(D76="","",MAX($B$4:$B75)+1)</f>
+        <v>72</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -14480,36 +15131,38 @@
     </row>
     <row r="77" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
-        <v>72</v>
+        <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
+        <v>73</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
-        <v>73</v>
+        <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
+        <v>74</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -14517,18 +15170,19 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
-        <v>74</v>
+        <f>IF(D79="","",MAX($B$4:$B78)+1)</f>
+        <v>75</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -14536,39 +15190,41 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
-        <v>75</v>
+        <f>IF(D80="","",MAX($B$4:$B79)+1)</f>
+        <v>76</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
-        <v>76</v>
+        <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
+        <v>77</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -14576,18 +15232,19 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
-        <v>77</v>
+        <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
+        <v>78</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -14595,18 +15252,19 @@
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
-        <v>78</v>
+        <f>IF(D83="","",MAX($B$4:$B82)+1)</f>
+        <v>79</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -14614,18 +15272,19 @@
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
-        <v>79</v>
+        <f>IF(D84="","",MAX($B$4:$B83)+1)</f>
+        <v>80</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -14633,18 +15292,19 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
-        <v>80</v>
+        <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
+        <v>81</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -14652,18 +15312,19 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
-        <v>81</v>
+        <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
+        <v>82</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -14671,18 +15332,19 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
-        <v>82</v>
+        <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
+        <v>83</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -14690,39 +15352,41 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
-        <v>83</v>
+        <f>IF(D88="","",MAX($B$4:$B87)+1)</f>
+        <v>84</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
-        <v>84</v>
+        <f>IF(D89="","",MAX($B$4:$B88)+1)</f>
+        <v>85</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -14732,13 +15396,14 @@
     </row>
     <row r="90" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
-        <v>85</v>
+        <f>IF(D90="","",MAX($B$4:$B89)+1)</f>
+        <v>86</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -14746,16 +15411,28 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+    <row r="91" spans="2:8" ht="330" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
+        <v>87</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="str">
+        <f>IF(D92="","",MAX($B$4:$B91)+1)</f>
+        <v/>
+      </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="2"/>
@@ -14763,7 +15440,10 @@
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
+      <c r="B93" s="2" t="str">
+        <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
+        <v/>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="2"/>
@@ -14771,7 +15451,10 @@
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
+      <c r="B94" s="2" t="str">
+        <f>IF(D94="","",MAX($B$4:$B93)+1)</f>
+        <v/>
+      </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="2"/>
@@ -14779,7 +15462,10 @@
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="str">
+        <f>IF(D95="","",MAX($B$4:$B94)+1)</f>
+        <v/>
+      </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="2"/>
@@ -14787,7 +15473,10 @@
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="str">
+        <f>IF(D96="","",MAX($B$4:$B95)+1)</f>
+        <v/>
+      </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="2"/>
@@ -14795,7 +15484,10 @@
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="str">
+        <f>IF(D97="","",MAX($B$4:$B96)+1)</f>
+        <v/>
+      </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="2"/>
@@ -14803,7 +15495,10 @@
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="str">
+        <f>IF(D98="","",MAX($B$4:$B97)+1)</f>
+        <v/>
+      </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="2"/>
@@ -14811,7 +15506,10 @@
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="str">
+        <f>IF(D99="","",MAX($B$4:$B98)+1)</f>
+        <v/>
+      </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="2"/>
@@ -14819,7 +15517,10 @@
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
+      <c r="B100" s="2" t="str">
+        <f>IF(D100="","",MAX($B$4:$B99)+1)</f>
+        <v/>
+      </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="2"/>
@@ -14827,7 +15528,10 @@
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="str">
+        <f>IF(D101="","",MAX($B$4:$B100)+1)</f>
+        <v/>
+      </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="2"/>
@@ -14835,7 +15539,10 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="str">
+        <f>IF(D102="","",MAX($B$4:$B101)+1)</f>
+        <v/>
+      </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="2"/>
@@ -14843,7 +15550,10 @@
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="str">
+        <f>IF(D103="","",MAX($B$4:$B102)+1)</f>
+        <v/>
+      </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="2"/>
@@ -14851,7 +15561,10 @@
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="str">
+        <f>IF(D104="","",MAX($B$4:$B103)+1)</f>
+        <v/>
+      </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="2"/>
@@ -14859,7 +15572,10 @@
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="str">
+        <f>IF(D105="","",MAX($B$4:$B104)+1)</f>
+        <v/>
+      </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="2"/>
@@ -14867,7 +15583,10 @@
       <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="str">
+        <f>IF(D106="","",MAX($B$4:$B105)+1)</f>
+        <v/>
+      </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="2"/>
@@ -14875,7 +15594,10 @@
       <c r="G106" s="7"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="str">
+        <f>IF(D107="","",MAX($B$4:$B106)+1)</f>
+        <v/>
+      </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="2"/>
@@ -14891,12 +15613,12 @@
       <c r="G108" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G88"/>
+  <autoFilter ref="B4:G90"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="178">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -12455,6 +12455,89 @@
         <scheme val="minor"/>
       </rPr>
       <t>, đúng điều khi chọn Approved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không hiện ra field From khi send cho nhiều user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Login vào Account của Administrator/salesmen
+   - Click vào Promotion trên menu
+   - Click vào Compose
+   - Nhập đầy đủ các field và chọn nhiều phone number
+   - Click vào "Send SMS" button
+   - Login vào Account vừa được gửi sms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    Hiện record sms vừa gửi, nhưng cột FROM là null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     Hiện record sms vừa gửi, nhưng cột FROM phải GET lên tên của người gửi</t>
     </r>
   </si>
 </sst>
@@ -12795,7 +12878,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13562,9 +13666,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15428,15 +15532,21 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="str">
+    <row r="92" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
         <f>IF(D92="","",MAX($B$4:$B91)+1)</f>
-        <v/>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -15618,7 +15728,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="181">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -3587,100 +3587,6 @@
       <t xml:space="preserve"> 
        1. Chưa chọn ngày thì ngày hiện tại phải được highlight
        2. Chọn ngày thì ngày được chọn phải highlight</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong Filter chọn customer, salemen hoặc Administrator
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1. Login vào Account của Salesmen/Customer/Administrator
-   2. Click vào SMS List  trên menu
-   3. Click vào Compose button
-   4. Click vào "Browse" button
-   5. Trong Form Filter lần lượt chọn value trong Group  &gt; Region &gt; Area &gt; Local
-    6. Click chọn value là "Select a type" trong Group hay Region</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Chỉ reset lại cấp con của nó
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      Phải reset lại hết các cấp dưới
-(VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local phải được reset mà không phải chỉ reset lại Field Region không)</t>
     </r>
   </si>
   <si>
@@ -9858,340 +9764,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     - Login vào account của Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Click vào Inbox trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
-       2. Click vào Failure trong SMS List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
-      3. Click vào Compose button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
-      4. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; Allow Approve
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Ko thay muc Allow Approve in SMS &amp; Customer data, chi thay muc Allow Approve in Permission =&gt; sua muc do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam] okie anh do em ghi sai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
-       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Update
 </t>
     </r>
@@ -10522,37 +10094,6 @@
   </si>
   <si>
     <t xml:space="preserve">Administrator &gt;&gt; Permission &gt;&gt; Allow Approve </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Select phone number
-[Dan] Em co the mo ta tu` luc login vao den luc xay ra bug duoc ko? Thanks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam]Okie anh, em đã mô tả lại, anh xem và fixed hộ em nhé</t>
-    </r>
   </si>
   <si>
     <r>
@@ -12538,6 +12079,576 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     Hiện record sms vừa gửi, nhưng cột FROM phải GET lên tên của người gửi</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tam - 28/05/2012] vậy sao không thêm điều kiện khi get "phone number (1)"
+- phone number (1) sẽ hiển thị theo điều kiện là chỉ count những số phone nào được chọn và hiện tại đang tồn tại -&gt; để khi User xem chi tiet nó thống nhất về con số được count hơn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong Filter chọn customer, salemen hoặc Administrator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1. Login vào Account của Salesmen/Administrator
+   2. Click vào SMS List  trên menu
+   3. Click vào Compose button
+   4. Click vào "Browse" button
+   5. Trong Form Filter lần lượt chọn value trong Group  &gt; Region &gt; Area &gt; Local
+    6. Click chọn value là "Select a type" trong Group hay Region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Chỉ reset lại cấp con của nó
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Phải reset lại hết các cấp dưới
+(VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local phải được reset mà không phải chỉ reset lại Field Region không)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi click vào button Browser chọn Phone number sẽ hiển thị ra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Select phone number
+[Dan] Em co the mo ta tu` luc login vao den luc xay ra bug duoc ko? Thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam]Okie anh, em đã mô tả lại, anh xem và fixed hộ em nhé
+[Tâm] retest 28/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị title của Tab Browser không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     - Login vào account của Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click vào Inbox trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Dashboard"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Inbox"
+       2. Click vào Failure trong SMS List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SMSFailure.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Failure"
+      3. Click vào Compose button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị URL "http://pharma.u-matrixsoft.com/Administrator/ComposeSMS.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Compose SMS"
+      4. Click vào Administrator &gt;&gt; Permission &gt;&gt; Allow Approve
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Ko thay muc Allow Approve in SMS &amp; Customer data, chi thay muc Allow Approve in Permission =&gt; sua muc do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] okie anh do em ghi sai, đã sửa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/AllowApprove.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "Allow Approve"
+       5. Click vào Administrator &gt;&gt; SMS &amp; Customer Data &gt;&gt; SMS Type
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Trên tab Browser hiển thị  URL "http://pharma.u-matrixsoft.com/Administrator/SmsTypeManagement.aspx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trên tab Browser hiển thị "SMS Type"</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Passed
+Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
+--&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click vào icon cancel thì không đóng form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Login vào Account của Administrator
+    - Click vào Administrator trên menu
+    - Click vào Permistion &gt;&gt; Role bên trái
+    - Click mở Form Add New Record
+    -  Click vào icon "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new</t>
     </r>
   </si>
 </sst>
@@ -12878,7 +12989,63 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13666,9 +13833,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13679,7 +13846,7 @@
     <col min="4" max="4" width="81" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="5" customWidth="1"/>
     <col min="8" max="9" width="24.28515625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="4.85546875" style="4"/>
   </cols>
@@ -13738,10 +13905,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>58</v>
@@ -13765,10 +13932,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>58</v>
@@ -13788,10 +13955,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>58</v>
@@ -13813,10 +13980,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>58</v>
@@ -13832,16 +13999,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>58</v>
@@ -13861,10 +14028,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>58</v>
@@ -13887,7 +14054,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>62</v>
@@ -13907,10 +14074,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>63</v>
@@ -13930,10 +14097,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>58</v>
@@ -13972,14 +14139,14 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>58</v>
@@ -13999,9 +14166,11 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H16" s="13" t="s">
         <v>58</v>
       </c>
@@ -14024,7 +14193,9 @@
       <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="H17" s="13" t="s">
         <v>58</v>
       </c>
@@ -14045,9 +14216,11 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H18" s="13" t="s">
         <v>58</v>
       </c>
@@ -14062,14 +14235,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>58</v>
@@ -14089,9 +14262,11 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H20" s="13" t="s">
         <v>58</v>
       </c>
@@ -14110,9 +14285,11 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H21" s="13" t="s">
         <v>58</v>
       </c>
@@ -14131,9 +14308,11 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H22" s="13" t="s">
         <v>58</v>
       </c>
@@ -14152,9 +14331,11 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H23" s="13" t="s">
         <v>58</v>
       </c>
@@ -14173,9 +14354,11 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H24" s="13" t="s">
         <v>58</v>
       </c>
@@ -14190,13 +14373,15 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H25" s="13" t="s">
         <v>58</v>
       </c>
@@ -14211,13 +14396,15 @@
         <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="H26" s="13" t="s">
         <v>58</v>
       </c>
@@ -14232,7 +14419,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
@@ -14253,7 +14440,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
@@ -14274,7 +14461,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
@@ -14292,17 +14479,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>58</v>
@@ -14318,7 +14505,7 @@
         <v>45</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
@@ -14339,7 +14526,7 @@
         <v>45</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
@@ -14360,7 +14547,7 @@
         <v>47</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
@@ -14381,7 +14568,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
@@ -14402,7 +14589,7 @@
         <v>48</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
@@ -14423,7 +14610,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
@@ -14444,7 +14631,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
@@ -14465,7 +14652,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
@@ -14486,7 +14673,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
@@ -14507,7 +14694,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
@@ -14528,7 +14715,7 @@
         <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
@@ -14549,7 +14736,7 @@
         <v>51</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
@@ -14572,7 +14759,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -14592,7 +14779,7 @@
         <v>53</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -14612,7 +14799,7 @@
         <v>53</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -14632,7 +14819,7 @@
         <v>54</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -14652,7 +14839,7 @@
         <v>54</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -14672,7 +14859,7 @@
         <v>55</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -14692,7 +14879,7 @@
         <v>55</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -14712,7 +14899,7 @@
         <v>60</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -14732,7 +14919,7 @@
         <v>60</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -14752,7 +14939,7 @@
         <v>61</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -14772,7 +14959,7 @@
         <v>61</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -14812,7 +14999,7 @@
         <v>65</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -14820,7 +15007,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14914,7 +15101,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -14933,10 +15120,10 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -14956,7 +15143,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -14974,7 +15161,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -14993,10 +15180,10 @@
         <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -15015,10 +15202,10 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15038,7 +15225,7 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15058,7 +15245,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -15078,7 +15265,7 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15098,7 +15285,7 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15127,7 +15314,7 @@
         <v>89</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -15135,7 +15322,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15154,7 +15341,7 @@
         <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -15191,7 +15378,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15207,13 +15394,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15239,22 +15426,22 @@
         <v>73</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -15263,10 +15450,10 @@
         <v>74</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -15274,7 +15461,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15283,10 +15470,10 @@
         <v>75</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -15294,7 +15481,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -15303,20 +15490,20 @@
         <v>76</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -15325,10 +15512,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -15336,7 +15523,7 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -15345,10 +15532,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -15356,7 +15543,7 @@
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
@@ -15365,10 +15552,10 @@
         <v>79</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -15376,7 +15563,7 @@
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -15385,10 +15572,10 @@
         <v>80</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -15396,7 +15583,7 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15405,10 +15592,10 @@
         <v>81</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -15416,7 +15603,7 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
@@ -15425,10 +15612,10 @@
         <v>82</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -15436,7 +15623,7 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -15445,10 +15632,10 @@
         <v>83</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -15456,7 +15643,7 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15465,20 +15652,20 @@
         <v>84</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -15487,10 +15674,10 @@
         <v>85</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -15504,10 +15691,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -15524,7 +15711,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -15541,7 +15728,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -15549,15 +15736,21 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="str">
+    <row r="93" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
-        <v/>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -15728,7 +15921,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -12549,107 +12549,6 @@
     <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click vào icon cancel thì không đóng form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    - Login vào Account của Administrator
-    - Click vào Administrator trên menu
-    - Click vào Permistion &gt;&gt; Role bên trái
-    - Click mở Form Add New Record
-    -  Click vào icon "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cancel"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Không đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -13833,9 +13732,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15736,21 +15635,15 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B93" s="2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="str">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
-        <v>89</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F93" s="2"/>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -1651,9 +1651,6 @@
     <t>Administrator &gt;&gt; Permistion &gt;&gt; Role</t>
   </si>
   <si>
-    <t xml:space="preserve">Administrator &gt;&gt; Permistion &gt;&gt; Administrator Management </t>
-  </si>
-  <si>
     <t>Administrator &gt;&gt; SMS &amp; Customer Data  &gt;&gt; Supervisor Position</t>
   </si>
   <si>
@@ -1846,9 +1843,6 @@
   </si>
   <si>
     <t>Administrator &gt;&gt;  Geopraphic &gt;&gt;  Province</t>
-  </si>
-  <si>
-    <t>please, case  "Insert thành công, nhưng có một số record được insert cuối/ giữa/ đầu của Section tùy vào chon section"  em vẫn chưa hiểu có thể giải thích giúp em được không ạ</t>
   </si>
   <si>
     <t>Administrator &gt;&gt;  Geopraphic &gt;&gt;  District</t>
@@ -4900,238 +4894,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Get tất cả các channel hiện có </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   - Login vào Account của Administrator
-   - Click vào Administrator trên menu
-   - Click vào SMS &amp; Customer Data  &gt;&gt; Channel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Click mở Form Add New Record
-    1.  không nhập gì và click vào icon "Insert"
-    2. Nhập vào UPI Code và Click icon Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiển thị câu thông báo 
-    3. Nhập vào Channel Name là space
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị ra câu thông báo
-    4. Nhập vàoChannel Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo Channel Name đã tồn tại
-    5. Nhập vào Channel Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Add new
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công</t>
     </r>
   </si>
   <si>
@@ -12549,6 +12311,1156 @@
     <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "</t>
+  </si>
+  <si>
+    <t>Administrator &gt;&gt; Permistion &gt;&gt; Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator &gt;&gt; Permistion &gt;&gt; Administrator </t>
+  </si>
+  <si>
+    <r>
+      <t>[Tâm] retest 28/5/2012 - Passed
+Nhưng case  5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert -  hiện thông báo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Can not save, change to another phone numer or UpiCode, try again later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or contact administrator!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hiện tại đang dùng account của administrator thì không cần câ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u "or contact administrator! "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 28/5/2012 - Failed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nhưng khi
+1. Xóa giá trị Password, và click vào icon Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not save, change to another phone numer or UpiCode, try again later or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "All fields are required fields "
+2. Full Name có nên cho trùng không?, nếu có thì check giúp em luôn nhé</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Administrator trên menu
+   - Click vào SMS &amp; Customer Data  &gt;&gt; Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click mở Form Add New Record
+    1.  không nhập gì và click vào icon "Insert"
+    2. Nhập vào UPI Code và Click icon Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị câu thông báo 
+    3. Nhập vào Channel Name là space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị ra câu thông báo
+    4. Nhập vào Channel Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert, và không insert vào DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo Channel Name đã tồn tại
+    5. Nhập vào Channel Name với giá trị chưa tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Add new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+4. Nhập vào Customer Type với giá trị đã tồn tại
+Result: hiện câu thông báo "Can not save, try again later or contact administrator "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+3. Nhập vào position với giá trị tồn tại
+Result: hiện câu thông báo "Can not add, please provide new name or try again or contact administrator! "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhập vào  SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+    6.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo 
+[Sybtax trong SMS] không được phép trùng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhập vào  SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+    5.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo 
+[Sybtax trong SMS] không được phép trùng</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+4. Nhập vào Channel name với giá trị đã tồn tại
+Result: hiện câu thông báo "Can not save, try again later or contact administrator "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+4. Nhập vào  Channel name với giá trị đã tồn tại
+Result: hiện câu thông báo "Can not save, try again later or contact administrator "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can not add, please provide new name or try again or contact administrator!  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can not update, please provide another name or try again </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or contact administrator!  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "Can not update, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not add, please provide new name or try again or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can not update, please try again later or contact admnistrator.!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "can not update, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12888,56 +13800,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -13731,10 +14594,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13745,12 +14608,12 @@
     <col min="4" max="4" width="81" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="5" customWidth="1"/>
     <col min="8" max="9" width="24.28515625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="4.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
@@ -13765,7 +14628,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -13785,10 +14648,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -13804,16 +14667,16 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -13831,13 +14694,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -13854,13 +14717,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -13879,13 +14742,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="14"/>
     </row>
@@ -13898,19 +14761,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -13927,17 +14790,17 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f>IF(D11="","",MAX($B$4:$B10)+1)</f>
         <v>7</v>
@@ -13953,10 +14816,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -13973,13 +14836,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14"/>
     </row>
@@ -13996,13 +14859,13 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -14025,7 +14888,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -14038,17 +14901,17 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="14"/>
     </row>
@@ -14065,13 +14928,13 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" s="14"/>
     </row>
@@ -14093,13 +14956,13 @@
         <v>17</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -14115,13 +14978,13 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="14"/>
     </row>
@@ -14134,17 +14997,17 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="26"/>
     </row>
@@ -14161,13 +15024,13 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -14184,13 +15047,13 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -14207,13 +15070,13 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -14230,13 +15093,13 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -14249,17 +15112,17 @@
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -14272,17 +15135,17 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -14295,17 +15158,17 @@
         <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I26" s="14"/>
     </row>
@@ -14318,15 +15181,17 @@
         <v>43</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="H27" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I27" s="14"/>
     </row>
@@ -14336,18 +15201,20 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="H28" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I28" s="14"/>
     </row>
@@ -14357,18 +15224,20 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="H29" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I29" s="14"/>
     </row>
@@ -14378,20 +15247,20 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I30" s="15"/>
     </row>
@@ -14401,18 +15270,20 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="H31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I31" s="14"/>
     </row>
@@ -14422,18 +15293,20 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="H32" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I32" s="14"/>
     </row>
@@ -14443,18 +15316,20 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="H33" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I33" s="14"/>
     </row>
@@ -14464,18 +15339,20 @@
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="H34" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I34" s="14"/>
     </row>
@@ -14485,18 +15362,20 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="H35" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I35" s="14"/>
     </row>
@@ -14506,18 +15385,20 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="H36" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I36" s="14"/>
     </row>
@@ -14527,18 +15408,20 @@
         <v>33</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="H37" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I37" s="14"/>
     </row>
@@ -14548,18 +15431,20 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="H38" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I38" s="14"/>
     </row>
@@ -14569,18 +15454,20 @@
         <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="H39" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I39" s="14"/>
     </row>
@@ -14590,18 +15477,20 @@
         <v>36</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="H40" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I40" s="14"/>
     </row>
@@ -14611,18 +15500,20 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="H41" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I41" s="14"/>
     </row>
@@ -14632,20 +15523,20 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I42" s="14"/>
     </row>
@@ -14655,18 +15546,20 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="H43" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="225" x14ac:dyDescent="0.25">
@@ -14675,10 +15568,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -14686,7 +15579,7 @@
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="225" x14ac:dyDescent="0.25">
@@ -14695,10 +15588,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -14706,7 +15599,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -14715,10 +15608,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -14726,7 +15619,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
@@ -14735,10 +15628,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -14746,7 +15639,7 @@
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="240" x14ac:dyDescent="0.25">
@@ -14755,10 +15648,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -14766,7 +15659,7 @@
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="270" x14ac:dyDescent="0.25">
@@ -14775,10 +15668,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -14786,7 +15679,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="240" x14ac:dyDescent="0.25">
@@ -14795,10 +15688,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -14806,7 +15699,7 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="270" x14ac:dyDescent="0.25">
@@ -14815,10 +15708,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -14826,7 +15719,7 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
@@ -14835,10 +15728,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -14846,7 +15739,7 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="270" x14ac:dyDescent="0.25">
@@ -14855,10 +15748,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -14866,7 +15759,7 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -14878,7 +15771,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -14886,7 +15779,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -14895,10 +15788,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
@@ -14906,7 +15799,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -14915,10 +15808,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -14926,7 +15819,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14935,10 +15828,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -14946,7 +15839,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14955,10 +15848,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -14966,7 +15859,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -14975,10 +15868,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -14986,21 +15879,21 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f>IF(D60="","",MAX($B$4:$B59)+1)</f>
         <v>56</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -15009,20 +15902,20 @@
         <v>57</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -15031,10 +15924,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -15042,7 +15935,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -15051,16 +15944,16 @@
         <v>59</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -15069,20 +15962,20 @@
         <v>60</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -15091,20 +15984,20 @@
         <v>61</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15113,10 +16006,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
@@ -15124,7 +16017,7 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15133,10 +16026,10 @@
         <v>63</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
@@ -15144,7 +16037,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -15153,10 +16046,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
@@ -15164,7 +16057,7 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15173,10 +16066,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
@@ -15184,7 +16077,7 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15193,10 +16086,10 @@
         <v>66</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -15210,10 +16103,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -15221,7 +16114,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15230,17 +16123,17 @@
         <v>68</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -15249,10 +16142,10 @@
         <v>69</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -15266,10 +16159,10 @@
         <v>70</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -15277,7 +16170,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15286,20 +16179,20 @@
         <v>71</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15308,10 +16201,10 @@
         <v>72</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -15325,22 +16218,22 @@
         <v>73</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -15349,10 +16242,10 @@
         <v>74</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -15360,7 +16253,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15369,10 +16262,10 @@
         <v>75</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -15380,7 +16273,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -15389,20 +16282,20 @@
         <v>76</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -15411,10 +16304,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
@@ -15422,7 +16315,7 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -15431,10 +16324,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -15442,7 +16335,7 @@
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
@@ -15451,10 +16344,10 @@
         <v>79</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -15462,7 +16355,7 @@
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -15471,10 +16364,10 @@
         <v>80</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
@@ -15482,7 +16375,7 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15491,10 +16384,10 @@
         <v>81</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
@@ -15502,7 +16395,7 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
@@ -15511,10 +16404,10 @@
         <v>82</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -15522,7 +16415,7 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -15531,10 +16424,10 @@
         <v>83</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -15542,7 +16435,7 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -15551,20 +16444,20 @@
         <v>84</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -15573,10 +16466,10 @@
         <v>85</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -15590,10 +16483,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -15610,7 +16503,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -15627,7 +16520,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -15814,7 +16707,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="200">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -10284,107 +10284,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outboxthì không hiện kết quả filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Customer
-   2. Click vào SMS List trên menu
-   3. Chọn Filter theo "By From"/"By To"
-   4. Nhập giá trị vào textbox
-   5. Click vào Filter button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-         Không thấy hiển thị kết quả sau khi filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-    1. Hiển thị tất cả các record có By From/By To like %string input%
-    2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Hien tai da~ support filter like, nen khi em dung %% thi` se ko filter duoc. </t>
-    </r>
-  </si>
-  <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha</t>
-  </si>
-  <si>
-    <t>[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe</t>
   </si>
   <si>
     <t>[Dan] hien tai, neu ko nhap Subject thi` he thong tu dong set subject la "No subject", day la code da co tu` truoc</t>
@@ -11225,539 +11125,6 @@
       <t xml:space="preserve"> 
        Phải cho filter theo "To"
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Filter một số case không đúng
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Login vào Account của Administrator
-   - Click vào Promotion trên menu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ase 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: không chọn gì, field Approved là Show All -&gt; Click vào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Filter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Hiện ra tất cả các record của promotion hiện có
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Case 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  Chọn field Approved là Approved -&gt; Click vào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Filter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Hiện ra tất cả các record của promotion hiện có đã được Approved
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Case 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  Chọn field Approved là Not Approved -&gt; Click vào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Filter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Hiện ra tất cả các record của promotion hiện có đã được Not Approved
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Case 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  Click chọn các Field --&gt; Click vào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Filter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thị tất cả các record có start date &gt;= From, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>End date &lt; To</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> đúng điều khi chọn Approved
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Hiện thị tất cả các record có start date &gt;= From, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>End date &lt; = To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, đúng điều khi chọn Approved</t>
     </r>
   </si>
   <si>
@@ -13461,6 +12828,966 @@
       <t>Hiện câu thông báo "can not update, please provide another name or try again! "
 (note: hiện đang dùng account Administrator)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not add, please provide new name or try again or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào District Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not update, please provide another name or try again or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "can not update, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)</t>
+    </r>
+  </si>
+  <si>
+    <t>Can not add, please provide new name or try again or contact administrator!</t>
+  </si>
+  <si>
+    <t>can not update, please try again later or contact admnistrator.!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not add, please provide new name or try again or contact administrator! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can not update, please try again later or contact admnistrator.! </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outbox thì không hiện kết quả filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Customer
+   2. Click vào SMS List trên menu
+   3. Chọn Filter theo "By From"/"By To"
+   4. Nhập giá trị vào textbox
+   5. Click vào Filter button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         Không thấy hiển thị kết quả sau khi filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    1. Hiển thị tất cả các record có By From/By To like %string input%
+    2.  Hiển thị "No records to display." khi các record không có By Form/By To like %string input%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Hien tai da~ support filter like, nen khi em dung %% thi` se ko filter duoc. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Filter một số case không đúng
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Login vào Account của Administrator
+   - Click vào Promotion trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ase 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: không chọn gì, field Approved là Show All -&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra tất cả các record của promotion hiện có
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Chọn field Approved là Approved -&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra tất cả các record của promotion hiện có đã được Approved
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Chọn field Approved là Not Approved -&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please provide at least Start date or End Date to filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra tất cả các record của promotion hiện có đã được Not Approved
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Case 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Click chọn các Field --&gt; Click vào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thị tất cả các record có start date &gt;= From, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End date &lt; To</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đúng điều khi chọn Approved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện thị tất cả các record có start date &gt;= From, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End date &lt; = To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, đúng điều khi chọn Approved
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Case 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  Click chọn date của</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> From &gt; To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  --&gt; Click vào "Filter" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thị "No records to display."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện thị thông báo "ngày của From phải nhỏ hơn hoặc bằng To"</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by Form" hoặc "by to" 
+2. % ở result em để đó là điều kiện khi hiển thị kế quả dành cho filter phải là like %String%</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+ chỉ hiện thị khi vừa click, nhưng sau khi GET các record lên thì không highlight ngày đã chọn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
+    </r>
+  </si>
+  <si>
+    <t>[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
+[Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
   </si>
 </sst>
 </file>
@@ -13800,7 +14127,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14595,9 +14929,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14720,7 +15054,7 @@
         <v>138</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>56</v>
@@ -14770,7 +15104,7 @@
         <v>138</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>56</v>
@@ -14793,7 +15127,7 @@
         <v>138</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>56</v>
@@ -14862,7 +15196,7 @@
         <v>138</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>56</v>
@@ -14901,14 +15235,14 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>56</v>
@@ -14931,7 +15265,7 @@
         <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>56</v>
@@ -14956,7 +15290,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -14981,7 +15315,7 @@
         <v>138</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>56</v>
@@ -14997,14 +15331,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
         <v>138</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>56</v>
@@ -15027,7 +15361,7 @@
         <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>56</v>
@@ -15050,7 +15384,7 @@
         <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>56</v>
@@ -15073,7 +15407,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>56</v>
@@ -15096,7 +15430,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>56</v>
@@ -15119,7 +15453,7 @@
         <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>56</v>
@@ -15135,14 +15469,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>56</v>
@@ -15165,7 +15499,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15188,7 +15522,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15201,7 +15535,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>146</v>
@@ -15211,7 +15545,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -15224,7 +15558,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>142</v>
@@ -15234,7 +15568,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -15257,7 +15591,7 @@
         <v>138</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>56</v>
@@ -15280,7 +15614,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -15303,7 +15637,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15326,7 +15660,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15349,7 +15683,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -15372,7 +15706,7 @@
         <v>138</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>56</v>
@@ -15388,14 +15722,14 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -15418,7 +15752,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -15441,7 +15775,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -15464,7 +15798,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -15487,7 +15821,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -15510,7 +15844,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -15533,7 +15867,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -15556,7 +15890,7 @@
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -15577,7 +15911,9 @@
       <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
       </c>
@@ -15597,7 +15933,9 @@
       <c r="F45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
       </c>
@@ -15617,7 +15955,9 @@
       <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
       </c>
@@ -15637,7 +15977,9 @@
       <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
       </c>
@@ -15657,7 +15999,9 @@
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
       </c>
@@ -15677,7 +16021,9 @@
       <c r="F49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
       </c>
@@ -15697,7 +16043,9 @@
       <c r="F50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
       </c>
@@ -15717,7 +16065,9 @@
       <c r="F51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
       </c>
@@ -15737,7 +16087,9 @@
       <c r="F52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
       </c>
@@ -15757,7 +16109,9 @@
       <c r="F53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
       </c>
@@ -15775,9 +16129,11 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="H54" s="13" t="s">
         <v>56</v>
       </c>
@@ -15791,15 +16147,17 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="H55" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -15815,9 +16173,11 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="H56" s="13" t="s">
         <v>56</v>
       </c>
@@ -15835,9 +16195,11 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="H57" s="13" t="s">
         <v>56</v>
       </c>
@@ -15855,9 +16217,11 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="H58" s="13" t="s">
         <v>56</v>
       </c>
@@ -15877,13 +16241,12 @@
       <c r="F59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="60" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
-        <f>IF(D60="","",MAX($B$4:$B59)+1)</f>
-        <v>56</v>
-      </c>
+    <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
         <v>70</v>
       </c>
@@ -15893,13 +16256,13 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f>IF(D61="","",MAX($B$4:$B60)+1)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>72</v>
@@ -15912,16 +16275,16 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>75</v>
@@ -15935,13 +16298,13 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>76</v>
@@ -15953,13 +16316,13 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>76</v>
@@ -15972,16 +16335,16 @@
         <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f>IF(D65="","",MAX($B$4:$B64)+1)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>79</v>
@@ -15994,16 +16357,16 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f>IF(D66="","",MAX($B$4:$B65)+1)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>79</v>
@@ -16017,13 +16380,13 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>79</v>
@@ -16037,13 +16400,13 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>79</v>
@@ -16057,13 +16420,13 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>79</v>
@@ -16077,13 +16440,13 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f>IF(D70="","",MAX($B$4:$B69)+1)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>85</v>
@@ -16100,13 +16463,13 @@
     <row r="71" spans="2:8" ht="345" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -16114,13 +16477,13 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>87</v>
@@ -16133,13 +16496,13 @@
         <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>89</v>
@@ -16156,7 +16519,7 @@
     <row r="74" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f>IF(D74="","",MAX($B$4:$B73)+1)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>91</v>
@@ -16170,13 +16533,13 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>93</v>
@@ -16189,16 +16552,16 @@
         <v>138</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f>IF(D76="","",MAX($B$4:$B75)+1)</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>95</v>
@@ -16215,7 +16578,7 @@
     <row r="77" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>122</v>
@@ -16230,16 +16593,16 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>122</v>
@@ -16253,13 +16616,13 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f>IF(D79="","",MAX($B$4:$B78)+1)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>122</v>
@@ -16273,13 +16636,13 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f>IF(D80="","",MAX($B$4:$B79)+1)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>122</v>
@@ -16292,16 +16655,16 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>122</v>
@@ -16315,13 +16678,13 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>129</v>
@@ -16335,13 +16698,13 @@
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f>IF(D83="","",MAX($B$4:$B82)+1)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>129</v>
@@ -16355,13 +16718,13 @@
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f>IF(D84="","",MAX($B$4:$B83)+1)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>129</v>
@@ -16375,13 +16738,13 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>133</v>
@@ -16395,19 +16758,19 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
@@ -16415,13 +16778,13 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>133</v>
@@ -16435,13 +16798,13 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <f>IF(D88="","",MAX($B$4:$B87)+1)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>136</v>
@@ -16454,22 +16817,22 @@
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <f>IF(D89="","",MAX($B$4:$B88)+1)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -16480,13 +16843,13 @@
     <row r="90" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <f>IF(D90="","",MAX($B$4:$B89)+1)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -16494,16 +16857,16 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="390" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -16514,13 +16877,13 @@
     <row r="92" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <f>IF(D92="","",MAX($B$4:$B91)+1)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -16707,7 +17070,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="201">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -13769,25 +13769,107 @@
  chỉ hiện thị khi vừa click, nhưng sau khi GET các record lên thì không highlight ngày đã chọn</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
-    </r>
-  </si>
-  <si>
     <t>[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
 [Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi Salesmen xóa record của Dashboard thì record đó cũng không còn hiện ở bên Administrator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Tạo mới thành công 1 dashboard cho salesmen
+   3, Login vào Account của salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Dashboard
+   4. Click xóa Dashboard
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Record xóa thành công và bên administrator vẫn bị xóa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Khi salesmen xóa Dashboard thì không ảnh hưởng đến bên Administrator hay của Salesmen khác</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14127,7 +14209,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14929,9 +15018,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14960,7 +15049,10 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <f>COUNTIFS(F5:F20000,"=Close")</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -16256,7 +16348,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -16275,7 +16367,7 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H61" s="28" t="s">
         <v>147</v>
@@ -16294,9 +16386,11 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="H62" s="13" t="s">
         <v>151</v>
       </c>
@@ -16891,15 +16985,21 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="str">
+    <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
-        <v/>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -17070,7 +17170,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3150" windowWidth="20610" windowHeight="7125" tabRatio="726"/>
+    <workbookView xWindow="60" yWindow="3210" windowWidth="20610" windowHeight="7065" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Bug_72" sheetId="42" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$107</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="210">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -2563,91 +2563,6 @@
       </rPr>
       <t xml:space="preserve">      Hiện ra câu thông báo
 --&gt; tương tự với khi các trường hợp khi nhập các field mà chưa chọn phone number của người nhận</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chỉ nhập Subject và click vào "Send SMS" button thị hiện ra trang lỗi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Salesmen
-   2. Click vào SMS List trên menu
-   3. Click vào Compose
-   4. Chọn phone number
-   5. Click vào "Send SMS" button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Result: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       1. Load lại trang
-       2. Phone number không hiện trong box, list phone number vẫn giữ nguyên</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Expected:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      Hiện ra câu thông báo
---&gt; Tương tự khi bỏ trống bất cứ field nào trừ Phone Number</t>
     </r>
   </si>
   <si>
@@ -8090,88 +8005,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Reset khi chon Select a type trong Group hay Region không đúng treong Filter/Add new record
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Administrator
-   2. Click vào Salesmen  trên menu
-   3. Click vào Add new record/Filter
-   5. Chọn lần lượt chọn value trong Group  &gt; Region &gt; Area &gt; Local
-    6. Click chọn value là "Select a type" trong Group hay Region
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Chỉ reset lại các cấp trừ cấp kế tiếp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      Phải reset lại hết các cấp dưới
-(VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local được reset mà không reset lại Field Region)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
     </r>
@@ -10287,525 +10120,16 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>[Dan] hien tai, neu ko nhap Subject thi` he thong tu dong set subject la "No subject", day la code da co tu` truoc</t>
-  </si>
-  <si>
     <t>do not fix</t>
   </si>
   <si>
-    <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
-  </si>
-  <si>
     <t>fixed</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Condition của StartDate và EndDate không đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Administrator
-   2. Click vào Promotion trên menu
-   3. Click vào Add new Record
-   4. Nhập đầy đủ các field với StartDate &lt; EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Hiện ra câu báo StartDate phải &gt; = EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] Tai sao Start Date phai &gt;= End Date ????</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Và Repro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   4. Nhập đầy đủ Field với StartDate &gt; EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       thì hiện thông báo "End date must be &gt;= start date"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Và Repro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   4. Nhập đầy đủ Field với StartDate = EndDate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công nhưng StartDate = Date chọn, EndDate = ngày hiện hành
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-       Insert thành công, insert vào các Field như giá trị đã nhập hoặc chọn</t>
-    </r>
-  </si>
-  <si>
     <t>Can not reproduce</t>
   </si>
   <si>
-    <t>[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe</t>
-  </si>
-  <si>
     <t>[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   - Login vào Account của Administrator
-   - Click vào Customer trên menu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Click mở Form Add New Record
-    1.  Không nhập gì và nhấn icon Insert
-    2. Nhập vào Field lần lượt là null trừ field phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alert lên thông báo "Error"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ
-    3. Nhập vào Field không đầy đủ trừ phone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo
-    4. Nhập ngày CreateDate&lt; Update/CreateDate và Update khác ngày hiện tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Result: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Insert thành công với ngày CreateDate và Update = ngày hiện tại</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bỏ Field Create Date và Update vì không cần thiết, khi tạo mới customer thì sẽ insert vào createDate và Update = ngày hiện tại (cái này em đã hỏi ý của anh Sơn rồi)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     4. Nhập đầy đủ các Field trùng với 1 Customer đã có
-[Dan] Chi nen kiem tra tren UPI Code va Phone Number thoi, vi` cac thong tin khac co the tru`ng duoc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Không thể tạo 2 record trùng nhau, hiện ra thông báo</t>
-    </r>
   </si>
   <si>
     <t>[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay</t>
@@ -13028,18 +12352,6 @@
     </r>
   </si>
   <si>
-    <t>Can not add, please provide new name or try again or contact administrator!</t>
-  </si>
-  <si>
-    <t>can not update, please try again later or contact admnistrator.!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can not add, please provide new name or try again or contact administrator! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">can not update, please try again later or contact admnistrator.! </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outbox thì không hiện kết quả filter
 </t>
@@ -13757,11 +13069,6 @@
       <t xml:space="preserve"> 
        Hiện thị thông báo "ngày của From phải nhỏ hơn hoặc bằng To"</t>
     </r>
-  </si>
-  <si>
-    <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by Form" hoặc "by to" 
-2. % ở result em để đó là điều kiện khi hiển thị kế quả dành cho filter phải là like %String%</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
@@ -13871,12 +13178,887 @@
        Khi salesmen xóa Dashboard thì không ảnh hưởng đến bên Administrator hay của Salesmen khác</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chỉ nhập Phone number và click vào "Send SMS" button thị hiện ra trang lỗi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Salesmen
+   2. Click vào SMS List trên menu
+   3. Click vào Compose
+   4. Chọn phone number
+   5. Click vào "Send SMS" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       1. Load lại trang
+       2. Phone number không hiện trong box, list phone number vẫn giữ nguyên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Hiện ra câu thông báo
+--&gt; Tương tự khi bỏ trống bất cứ field nào trừ Phone Number</t>
+    </r>
+  </si>
+  <si>
+    <t>[Dan] hien tai, neu ko nhap Subject thi` he thong tu dong set subject la "No subject", day la code da co tu` truoc
+[Tam - 28/5/2012] Okie anh với case chi chọn phone number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%</t>
+  </si>
+  <si>
+    <t>[Tam - 28/05/2012]
+Passed đối với filter trong Inbox
+Failed đối với Filter trong Outbox</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Condition của StartDate và EndDate không đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào Promotion trên menu
+   3. Click vào Add new Record
+   4. Nhập đầy đủ các field với StartDate &lt; EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Hiện ra câu báo StartDate phải &gt; = EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Tai sao Start Date phai &gt;= End Date ????
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] Làm gì có ai tạo ngày bắt đầu nhỏ hơn ngày kết thúc, nên ít nhất ngày bắt đầu phải bằng và lớn hơn ngày kết thúc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Và Repro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   4. Nhập đầy đủ Field với StartDate &gt; EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       thì hiện thông báo "End date must be &gt;= start date"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Và Repro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   4. Nhập đầy đủ Field với StartDate = EndDate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công nhưng StartDate = Date chọn, EndDate = ngày hiện hành
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Insert thành công, insert vào các Field như giá trị đã nhập hoặc chọn</t>
+    </r>
+  </si>
+  <si>
+    <t>Can not reproduce
+[Tam - 28/5/2012] Em đã test lại thì không thấy bug này, nên em Close</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] vẫn bị anh Đan ơi
+Anh đừng nhập gì cả và click Filter button thì thấy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset khi chon Select a type trong Group hay Region không đúng trong Filter/Add new record
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào Salesmen  trên menu
+   3. Click vào Add new record/Filter
+   5. Chọn lần lượt chọn value trong Group  &gt; Region &gt; Area &gt; Local
+    6. Click chọn value là "Select a type" trong Group hay Region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       Chỉ reset lại các cấp trừ cấp kế tiếp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Phải reset lại hết các cấp dưới
+(VD: 6. chọn Value là 'Select a type' trong Group" thì các Field Region + Area + local được reset mà không reset lại Field Region)</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Trong Add new vẫn còn lỗi
+reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Customer trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click mở Form Add New Record
+    1.  Không nhập gì và nhấn icon Insert
+    2. Nhập vào Field lần lượt là null trừ field phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert lên thông báo "Error"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đổi nội dung thông báo cho hợp lệ
+    3. Nhập vào Field không đầy đủ trừ phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo
+    4. Nhập ngày CreateDate&lt; Update/CreateDate và Update khác ngày hiện tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert thành công với ngày CreateDate và Update = ngày hiện tại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bỏ Field Create Date và Update vì không cần thiết, khi tạo mới customer thì sẽ insert vào createDate và Update = ngày hiện tại (cái này em đã hỏi ý của anh Sơn rồi)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     4. Nhập đầy đủ các Field trùng với 1 Customer đã có
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Chi nen kiem tra tren UPI Code va Phone Number thoi, vi` cac thong tin khac co the tru`ng duoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] em nghĩ tên của customer thì có thể trùng nhưng phone number thì không, vì login mình dùng số dt, nếu trùng thì khi login vào thì sẽ thế nào? khi hoạt động những function liên quan thì sẽ thế nào?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không thể tạo 2 record trùng nhau, hiện ra thông báo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+1. Không nhập gì và click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo thiếu phone number
+2. Nhập Phone number đã tồn tại vẫn insert thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator.! (tương tự bug 41)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Can not add, please provide new name or try again or contact administrator!  )tương tự bug 40)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator.!  (tương từ bug 41)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+ Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not add, please try again later or contact administrator! (tương tự bug 40)
+Sai ten fullname va trung so dt thi insert thanh cong</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator. (tương tự bug 41)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14008,6 +14190,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -14209,35 +14399,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -15018,9 +15180,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15051,7 +15213,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F20000,"=Close")</f>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -15093,10 +15255,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>56</v>
@@ -15120,10 +15282,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>56</v>
@@ -15143,10 +15305,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>56</v>
@@ -15168,10 +15330,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>56</v>
@@ -15187,16 +15349,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>56</v>
@@ -15216,10 +15378,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>56</v>
@@ -15242,7 +15404,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
@@ -15262,10 +15424,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>61</v>
@@ -15285,10 +15447,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>56</v>
@@ -15310,9 +15472,11 @@
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="H14" s="13" t="s">
         <v>56</v>
       </c>
@@ -15327,14 +15491,14 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>56</v>
@@ -15354,10 +15518,10 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>56</v>
@@ -15382,7 +15546,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -15404,10 +15568,10 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>56</v>
@@ -15423,14 +15587,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>56</v>
@@ -15450,10 +15614,10 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>56</v>
@@ -15473,10 +15637,10 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>56</v>
@@ -15496,10 +15660,10 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>56</v>
@@ -15519,10 +15683,10 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>56</v>
@@ -15542,10 +15706,10 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>56</v>
@@ -15561,14 +15725,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>56</v>
@@ -15584,14 +15748,14 @@
         <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15607,14 +15771,14 @@
         <v>43</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15627,17 +15791,17 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -15650,17 +15814,17 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -15673,17 +15837,17 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>56</v>
@@ -15699,14 +15863,14 @@
         <v>44</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -15722,14 +15886,14 @@
         <v>44</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15745,14 +15909,14 @@
         <v>46</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15768,14 +15932,14 @@
         <v>46</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -15791,14 +15955,14 @@
         <v>47</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>56</v>
@@ -15814,14 +15978,14 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -15837,14 +16001,14 @@
         <v>47</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -15860,14 +16024,14 @@
         <v>48</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -15883,14 +16047,14 @@
         <v>48</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -15906,14 +16070,14 @@
         <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -15929,14 +16093,14 @@
         <v>49</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -15952,14 +16116,14 @@
         <v>50</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -15975,14 +16139,14 @@
         <v>50</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -15997,14 +16161,14 @@
         <v>51</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16019,14 +16183,14 @@
         <v>51</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16041,14 +16205,14 @@
         <v>52</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16063,14 +16227,14 @@
         <v>52</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16085,14 +16249,14 @@
         <v>53</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16107,14 +16271,14 @@
         <v>53</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -16129,14 +16293,14 @@
         <v>58</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -16151,14 +16315,14 @@
         <v>58</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -16173,14 +16337,14 @@
         <v>59</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -16195,14 +16359,14 @@
         <v>59</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -16221,10 +16385,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>56</v>
@@ -16239,17 +16403,17 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -16265,10 +16429,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>56</v>
@@ -16287,10 +16451,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>56</v>
@@ -16309,10 +16473,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>56</v>
@@ -16334,7 +16498,7 @@
         <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16348,7 +16512,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -16367,10 +16531,10 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -16386,13 +16550,13 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -16410,7 +16574,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -16422,17 +16586,17 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -16441,20 +16605,20 @@
         <v>60</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16463,18 +16627,20 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="H66" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -16483,18 +16649,20 @@
         <v>62</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H67" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -16503,18 +16671,20 @@
         <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H68" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16523,18 +16693,20 @@
         <v>64</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H69" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16543,10 +16715,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -16554,24 +16726,26 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="345" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="375" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
         <v>66</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H71" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16580,17 +16754,17 @@
         <v>67</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -16599,10 +16773,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -16616,18 +16790,20 @@
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="H74" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -16636,20 +16812,20 @@
         <v>70</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16658,10 +16834,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -16675,22 +16851,22 @@
         <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -16699,18 +16875,20 @@
         <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="H78" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
@@ -16719,18 +16897,20 @@
         <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="H79" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -16739,20 +16919,20 @@
         <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -16761,18 +16941,20 @@
         <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H81" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -16781,18 +16963,20 @@
         <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H82" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
@@ -16801,18 +16985,20 @@
         <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="19"/>
+      <c r="G83" s="19" t="s">
+        <v>208</v>
+      </c>
       <c r="H83" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
@@ -16821,18 +17007,20 @@
         <v>79</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="19"/>
+      <c r="G84" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="H84" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16841,38 +17029,42 @@
         <v>80</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="7"/>
+      <c r="G85" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="H85" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="360" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="H86" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -16881,18 +17073,20 @@
         <v>82</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="H87" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
@@ -16901,20 +17095,20 @@
         <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -16923,10 +17117,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -16940,10 +17134,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -16960,7 +17154,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -16977,7 +17171,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -16994,7 +17188,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17165,12 +17359,12 @@
       <c r="G108" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G90"/>
+  <autoFilter ref="B4:G107"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$107</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="211">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -10999,11 +10999,6 @@
     </r>
   </si>
   <si>
-    <t>[Tâm] retest 28/5/2012 - Passed
-Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
---&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "</t>
-  </si>
-  <si>
     <t>Administrator &gt;&gt; Permistion &gt;&gt; Administrator</t>
   </si>
   <si>
@@ -14052,6 +14047,19 @@
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 can not update, please try again later or contact admnistrator. (tương tự bug 41)</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Passed
+Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
+--&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
+[Dan] Administrator o day la` nguoi quan tri cua web site, co`n logged user chi la` admin cua site thoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tâm] retest 28/5/2012 - Passed
+Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
+--&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
+[Dan] Administrator o day la` nguoi quan tri cua web site, co`n logged user chi la` admin cua site thoi
+</t>
   </si>
 </sst>
 </file>
@@ -14399,98 +14407,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -15177,12 +15094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15242,7 +15160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f>IF(D5="","",MAX($B$4:$B4)+1)</f>
         <v>1</v>
@@ -15267,7 +15185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>IF(D6="","",MAX($B$4:$B5)+1)</f>
         <v>2</v>
@@ -15292,7 +15210,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>IF(D7="","",MAX($B$4:$B6)+1)</f>
         <v>3</v>
@@ -15315,7 +15233,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f>IF(D8="","",MAX($B$4:$B7)+1)</f>
         <v>4</v>
@@ -15340,7 +15258,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>IF(D9="","",MAX($B$4:$B8)+1)</f>
         <v>5</v>
@@ -15365,7 +15283,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>IF(D10="","",MAX($B$4:$B9)+1)</f>
         <v>6</v>
@@ -15411,7 +15329,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f>IF(D12="","",MAX($B$4:$B11)+1)</f>
         <v>8</v>
@@ -15434,7 +15352,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>IF(D13="","",MAX($B$4:$B12)+1)</f>
         <v>9</v>
@@ -15457,7 +15375,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f>IF(D14="","",MAX($B$4:$B13)+1)</f>
         <v>10</v>
@@ -15482,7 +15400,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f>IF(D15="","",MAX($B$4:$B14)+1)</f>
         <v>11</v>
@@ -15505,7 +15423,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f>IF(D16="","",MAX($B$4:$B15)+1)</f>
         <v>12</v>
@@ -15555,7 +15473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f>IF(D18="","",MAX($B$4:$B17)+1)</f>
         <v>14</v>
@@ -15578,7 +15496,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="27" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="27" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
@@ -15601,7 +15519,7 @@
       </c>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f>IF(D20="","",MAX($B$4:$B19)+1)</f>
         <v>16</v>
@@ -15624,7 +15542,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f>IF(D21="","",MAX($B$4:$B20)+1)</f>
         <v>17</v>
@@ -15647,7 +15565,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f>IF(D22="","",MAX($B$4:$B21)+1)</f>
         <v>18</v>
@@ -15670,7 +15588,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f>IF(D23="","",MAX($B$4:$B22)+1)</f>
         <v>19</v>
@@ -15693,7 +15611,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>IF(D24="","",MAX($B$4:$B23)+1)</f>
         <v>20</v>
@@ -15716,7 +15634,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>IF(D25="","",MAX($B$4:$B24)+1)</f>
         <v>21</v>
@@ -15755,7 +15673,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15778,7 +15696,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15791,7 +15709,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>144</v>
@@ -15801,7 +15719,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -15814,7 +15732,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>140</v>
@@ -15824,14 +15742,14 @@
         <v>17</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f>IF(D30="","",MAX($B$4:$B29)+1)</f>
         <v>26</v>
@@ -15870,7 +15788,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -15893,7 +15811,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15916,7 +15834,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15939,14 +15857,14 @@
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f>IF(D35="","",MAX($B$4:$B34)+1)</f>
         <v>31</v>
@@ -15978,14 +15896,14 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -16008,7 +15926,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -16031,7 +15949,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -16054,7 +15972,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16077,7 +15995,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -16100,7 +16018,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16123,7 +16041,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16146,7 +16064,7 @@
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16168,7 +16086,7 @@
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16190,7 +16108,7 @@
         <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16212,7 +16130,7 @@
         <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16234,7 +16152,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16256,7 +16174,7 @@
         <v>17</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16278,7 +16196,7 @@
         <v>17</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -16300,7 +16218,7 @@
         <v>17</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -16322,7 +16240,7 @@
         <v>17</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -16344,7 +16262,7 @@
         <v>17</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -16366,13 +16284,13 @@
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f>IF(D54="","",MAX($B$4:$B53)+1)</f>
         <v>50</v>
@@ -16403,20 +16321,20 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f>IF(D56="","",MAX($B$4:$B55)+1)</f>
         <v>52</v>
@@ -16438,7 +16356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f>IF(D57="","",MAX($B$4:$B56)+1)</f>
         <v>53</v>
@@ -16460,7 +16378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f>IF(D58="","",MAX($B$4:$B57)+1)</f>
         <v>54</v>
@@ -16498,7 +16416,7 @@
         <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16512,7 +16430,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -16531,13 +16449,13 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
         <v>57</v>
@@ -16577,7 +16495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
         <v>59</v>
@@ -16586,14 +16504,14 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>146</v>
@@ -16615,7 +16533,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>146</v>
@@ -16637,13 +16555,13 @@
         <v>17</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
         <v>62</v>
@@ -16665,7 +16583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
         <v>63</v>
@@ -16687,7 +16605,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
         <v>64</v>
@@ -16726,7 +16644,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
         <v>66</v>
@@ -16735,7 +16653,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -16748,7 +16666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
         <v>67</v>
@@ -16764,7 +16682,7 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
@@ -16800,13 +16718,13 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
         <v>70</v>
@@ -16863,7 +16781,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>148</v>
@@ -16878,14 +16796,14 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>147</v>
@@ -16907,7 +16825,7 @@
         <v>17</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>147</v>
@@ -16935,7 +16853,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
         <v>76</v>
@@ -16957,7 +16875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
         <v>77</v>
@@ -16995,7 +16913,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>147</v>
@@ -17017,7 +16935,7 @@
         <v>17</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>147</v>
@@ -17039,7 +16957,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>147</v>
@@ -17054,20 +16972,20 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
         <v>82</v>
@@ -17154,7 +17072,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -17188,7 +17106,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17359,12 +17277,18 @@
       <c r="G108" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G107"/>
+  <autoFilter ref="B4:G107">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -10126,9 +10126,6 @@
     <t>fixed</t>
   </si>
   <si>
-    <t>Can not reproduce</t>
-  </si>
-  <si>
     <t>[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import</t>
   </si>
   <si>
@@ -11082,105 +11079,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 28/5/2012 - Failed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nhưng khi
-1. Xóa giá trị Password, và click vào icon Update 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can not save, change to another phone numer or UpiCode, try again later or contact administrator!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thông báo "All fields are required fields "
-2. Full Name có nên cho trùng không?, nếu có thì check giúp em luôn nhé</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
     </r>
@@ -11410,13 +11308,6 @@
       </rPr>
       <t xml:space="preserve"> Insert thành công</t>
     </r>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Repro:
-4. Nhập vào Customer Type với giá trị đã tồn tại
-Result: hiện câu thông báo "Can not save, try again later or contact administrator "
-Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
@@ -11424,927 +11315,6 @@
 3. Nhập vào position với giá trị tồn tại
 Result: hiện câu thông báo "Can not add, please provide new name or try again or contact administrator! "
 Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Nhập vào  SMS Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-    6.  Update Syntax tồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo 
-[Sybtax trong SMS] không được phép trùng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Nhập vào  SMS Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-    5.  Update Syntax tồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo 
-[Sybtax trong SMS] không được phép trùng</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Repro:
-4. Nhập vào Channel name với giá trị đã tồn tại
-Result: hiện câu thông báo "Can not save, try again later or contact administrator "
-Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Repro:
-4. Nhập vào  Channel name với giá trị đã tồn tại
-Result: hiện câu thông báo "Can not save, try again later or contact administrator "
-Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    3. Nhập vào Section Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Can not add, please provide new name or try again or contact administrator!  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    3. Nhập vào Section Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Can not update, please provide another name or try again </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or contact administrator!  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện câu thông báo "Can not update, please provide another name or try again! "
-(note: hiện đang dùng account Administrator)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    3. Nhập vào Section Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can not add, please provide new name or try again or contact administrator!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
-(note: hiện đang dùng account Administrator)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    3. Nhập vào Section Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>can not update, please try again later or contact admnistrator.!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện câu thông báo "can not update, please provide another name or try again! "
-(note: hiện đang dùng account Administrator)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    3. Nhập vào Section Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can not add, please provide new name or try again or contact administrator!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
-(note: hiện đang dùng account Administrator)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    3. Nhập vào District Name với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can not update, please provide another name or try again or contact administrator!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hiện câu thông báo "can not update, please provide another name or try again! "
-(note: hiện đang dùng account Administrator)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -13073,23 +12043,6 @@
   <si>
     <t>[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
 [Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
-    </r>
   </si>
   <si>
     <r>
@@ -13264,36 +12217,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%</t>
-  </si>
-  <si>
-    <t>[Tam - 28/05/2012]
-Passed đối với filter trong Inbox
-Failed đối với Filter trong Outbox</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Condition của StartDate và EndDate không đúng
 </t>
     </r>
@@ -13558,24 +12481,6 @@
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 Vẫn còn như mô tả</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] vẫn bị anh Đan ơi
-Anh đừng nhập gì cả và click Filter button thì thấy</t>
-    </r>
   </si>
   <si>
     <r>
@@ -13660,11 +12565,6 @@
     </r>
   </si>
   <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Trong Add new vẫn còn lỗi
-reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
@@ -14016,39 +12916,6 @@
     </r>
   </si>
   <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not update, please try again later or contact admnistrator.! (tương tự bug 41)</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Can not add, please provide new name or try again or contact administrator!  )tương tự bug 40)</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not update, please try again later or contact admnistrator.!  (tương từ bug 41)</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
- Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not add, please try again later or contact administrator! (tương tự bug 40)
-Sai ten fullname va trung so dt thi insert thanh cong</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not update, please try again later or contact admnistrator. (tương tự bug 41)</t>
-  </si>
-  <si>
     <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
@@ -14060,6 +12927,1175 @@
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
 [Dan] Administrator o day la` nguoi quan tri cua web site, co`n logged user chi la` admin cua site thoi
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 28/5/2012 - Failed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nhưng khi
+1. Xóa giá trị Password, và click vào icon Update 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not save, change to another phone numer or UpiCode, try again later or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo "All fields are required fields "
+2. Full Name có nên cho trùng không?, nếu có thì check giúp em luôn nhé
+[dan - 05/28] Full name ko nen trung chi can check UPI Code voi Phone Number la duoc roi</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+3. Nhập vào position với giá trị tồn tại
+Result: hiện câu thông báo "Can not add, please provide new name or try again or contact administrator! "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+[Dan - 05/28] Da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+4. Nhập vào Customer Type với giá trị đã tồn tại
+Result: hiện câu thông báo "Can not save, try again later or contact administrator "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+[Dan - 05/28] Da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+4. Nhập vào  Channel name với giá trị đã tồn tại
+Result: hiện câu thông báo "Can not save, try again later or contact administrator "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+[Dan - 05/28] Da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+4. Nhập vào Channel name với giá trị đã tồn tại
+Result: hiện câu thông báo "Can not save, try again later or contact administrator "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+[Dan - 05/28] Da sua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhập vào  SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+    5.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo 
+[Sybtax trong SMS] không được phép trùng
+[Dan 05/28] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhập vào  SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+    6.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo 
+[Sybtax trong SMS] không được phép trùng
+[Dan -05/28] Da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can not add, please provide new name or try again or contact administrator!  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+[Dan - 05/28] Da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can not update, please provide another name or try again </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or contact administrator!  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "Can not update, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)
+[Dan - 05/28] Da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not add, please provide new name or try again or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can not update, please try again later or contact admnistrator.!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "can not update, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)
+[Dan] Da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào Section Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not add, please provide new name or try again or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    3. Nhập vào District Name với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can not update, please provide another name or try again or contact administrator!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiện câu thông báo "can not update, please provide another name or try again! "
+(note: hiện đang dùng account Administrator)
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+ Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)
+[Dan] da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator.! (tương tự bug 41)
+[Dan] da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Can not add, please provide new name or try again or contact administrator!  )tương tự bug 40)
+[Dan] da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator.!  (tương từ bug 41)
+[Dan] da sua</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)
+[Dan] da sua</t>
+  </si>
+  <si>
+    <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi
+[Dan] OK em, da fixed. Sorry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+[Dan] loi du lieu NULL, da fix</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tam - 28/05/2012]
+Passed đối với filter trong Inbox
+Failed đối với Filter trong Outbox
+[Dan] da fix</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] vẫn bị anh Đan ơi
+Anh đừng nhập gì cả và click Filter button thì thấy
+[Dan] da fixed</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Trong Add new vẫn còn lỗi
+reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
+[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not add, please try again later or contact administrator! (tương tự bug 40)
+Sai ten fullname va trung so dt thi insert thanh cong
+[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
+[Dan] Da sua message</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator. (tương tự bug 41)
+[Dan] da sua msg</t>
   </si>
 </sst>
 </file>
@@ -15098,20 +15134,20 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="81" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" style="5" customWidth="1"/>
     <col min="8" max="9" width="24.28515625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="4.85546875" style="4"/>
   </cols>
@@ -15226,7 +15262,7 @@
         <v>136</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>56</v>
@@ -15276,7 +15312,7 @@
         <v>136</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>56</v>
@@ -15299,7 +15335,7 @@
         <v>136</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>56</v>
@@ -15368,7 +15404,7 @@
         <v>136</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>56</v>
@@ -15393,7 +15429,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>56</v>
@@ -15409,14 +15445,14 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>56</v>
@@ -15439,7 +15475,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>56</v>
@@ -15464,7 +15500,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -15489,7 +15525,7 @@
         <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>56</v>
@@ -15505,14 +15541,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="23" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>56</v>
@@ -15535,7 +15571,7 @@
         <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>56</v>
@@ -15558,7 +15594,7 @@
         <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>56</v>
@@ -15581,7 +15617,7 @@
         <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>56</v>
@@ -15604,7 +15640,7 @@
         <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>56</v>
@@ -15627,7 +15663,7 @@
         <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>56</v>
@@ -15643,14 +15679,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>56</v>
@@ -15673,7 +15709,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15696,7 +15732,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15709,7 +15745,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>144</v>
@@ -15719,7 +15755,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -15732,7 +15768,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>140</v>
@@ -15742,7 +15778,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -15765,7 +15801,7 @@
         <v>136</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>56</v>
@@ -15788,7 +15824,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -15811,7 +15847,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15834,7 +15870,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15857,7 +15893,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -15880,7 +15916,7 @@
         <v>136</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>56</v>
@@ -15896,14 +15932,14 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -15926,7 +15962,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -15949,7 +15985,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -15972,7 +16008,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -15995,14 +16031,14 @@
         <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
@@ -16018,7 +16054,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16041,7 +16077,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16064,7 +16100,7 @@
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16086,7 +16122,7 @@
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16108,7 +16144,7 @@
         <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16130,13 +16166,13 @@
         <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="270" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
@@ -16152,7 +16188,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16174,7 +16210,7 @@
         <v>17</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16196,7 +16232,7 @@
         <v>17</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -16218,7 +16254,7 @@
         <v>17</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -16240,7 +16276,7 @@
         <v>17</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -16262,7 +16298,7 @@
         <v>17</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -16284,7 +16320,7 @@
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -16306,13 +16342,13 @@
         <v>136</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f>IF(D55="","",MAX($B$4:$B54)+1)</f>
         <v>51</v>
@@ -16321,14 +16357,14 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>145</v>
@@ -16350,7 +16386,7 @@
         <v>136</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>56</v>
@@ -16372,7 +16408,7 @@
         <v>136</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>56</v>
@@ -16394,7 +16430,7 @@
         <v>136</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>56</v>
@@ -16416,7 +16452,7 @@
         <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16430,7 +16466,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -16449,10 +16485,10 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
@@ -16471,7 +16507,7 @@
         <v>136</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>147</v>
@@ -16504,20 +16540,20 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f>IF(D65="","",MAX($B$4:$B64)+1)</f>
         <v>60</v>
@@ -16533,13 +16569,13 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>146</v>
+        <v>204</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f>IF(D66="","",MAX($B$4:$B65)+1)</f>
         <v>61</v>
@@ -16555,7 +16591,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>147</v>
@@ -16577,7 +16613,7 @@
         <v>136</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>147</v>
@@ -16599,7 +16635,7 @@
         <v>136</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>147</v>
@@ -16621,7 +16657,7 @@
         <v>136</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>147</v>
@@ -16653,14 +16689,14 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>147</v>
@@ -16682,10 +16718,10 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
         <v>68</v>
@@ -16701,8 +16737,11 @@
         <v>17</v>
       </c>
       <c r="G73" s="7"/>
+      <c r="H73" s="13" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="74" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f>IF(D74="","",MAX($B$4:$B73)+1)</f>
         <v>69</v>
@@ -16718,7 +16757,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>147</v>
@@ -16740,7 +16779,7 @@
         <v>136</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>147</v>
@@ -16763,7 +16802,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
         <v>72</v>
@@ -16781,13 +16820,13 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>148</v>
+        <v>207</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
         <v>73</v>
@@ -16796,14 +16835,14 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>147</v>
@@ -16825,7 +16864,7 @@
         <v>17</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>147</v>
@@ -16847,10 +16886,10 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -16869,7 +16908,7 @@
         <v>136</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>147</v>
@@ -16891,7 +16930,7 @@
         <v>136</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>147</v>
@@ -16913,7 +16952,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>147</v>
@@ -16935,13 +16974,13 @@
         <v>17</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
         <v>80</v>
@@ -16957,7 +16996,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>147</v>
@@ -16972,14 +17011,14 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>147</v>
@@ -17001,7 +17040,7 @@
         <v>136</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>147</v>
@@ -17023,7 +17062,7 @@
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>146</v>
@@ -17035,10 +17074,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -17052,10 +17091,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -17072,7 +17111,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -17089,7 +17128,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -17106,7 +17145,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17279,7 +17318,7 @@
   </sheetData>
   <autoFilter ref="B4:G107">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="Open"/>
       </filters>
     </filterColumn>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -12479,10 +12479,6 @@
 [Tam - 28/5/2012] Em đã test lại thì không thấy bug này, nên em Close</t>
   </si>
   <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Vẫn còn như mô tả</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Reset khi chon Select a type trong Group hay Region không đúng trong Filter/Add new record
 </t>
@@ -12863,59 +12859,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-1. Không nhập gì và click vào icon insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> câu thông báo thiếu phone number
-2. Nhập Phone number đã tồn tại vẫn insert thành công</t>
-    </r>
-  </si>
-  <si>
     <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
@@ -14096,6 +14039,65 @@
     <t>[Tâm] retest 28/5/2012 - Failed
 can not update, please try again later or contact admnistrator. (tương tự bug 41)
 [Dan] da sua msg</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+[Dan] da sua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+1. Không nhập gì và click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo thiếu phone number
+2. Nhập Phone number đã tồn tại vẫn insert thành công
+[Dan] da sua</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15134,9 +15136,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15709,7 +15711,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15732,7 +15734,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15778,7 +15780,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -15847,7 +15849,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15870,7 +15872,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15893,7 +15895,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -15939,7 +15941,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -15962,7 +15964,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -15985,7 +15987,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -16008,7 +16010,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16031,7 +16033,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -16054,7 +16056,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16077,7 +16079,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16100,7 +16102,7 @@
         <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16122,7 +16124,7 @@
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16144,7 +16146,7 @@
         <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16166,7 +16168,7 @@
         <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16188,7 +16190,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16210,7 +16212,7 @@
         <v>17</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16232,7 +16234,7 @@
         <v>17</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -16254,7 +16256,7 @@
         <v>17</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -16276,7 +16278,7 @@
         <v>17</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -16298,7 +16300,7 @@
         <v>17</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -16320,7 +16322,7 @@
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -16364,7 +16366,7 @@
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>145</v>
@@ -16485,7 +16487,7 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H61" s="28" t="s">
         <v>56</v>
@@ -16569,7 +16571,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>147</v>
@@ -16591,7 +16593,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>147</v>
@@ -16757,7 +16759,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>147</v>
@@ -16820,7 +16822,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>147</v>
@@ -16835,14 +16837,14 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>147</v>
@@ -16864,7 +16866,7 @@
         <v>17</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>147</v>
@@ -16952,7 +16954,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>147</v>
@@ -16974,7 +16976,7 @@
         <v>17</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>147</v>
@@ -16996,13 +16998,13 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="360" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="330" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
         <v>81</v>
@@ -17011,14 +17013,14 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>147</v>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$107</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -11310,13 +11310,6 @@
     </r>
   </si>
   <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Repro:
-3. Nhập vào position với giá trị tồn tại
-Result: hiện câu thông báo "Can not add, please provide new name or try again or contact administrator! "
-Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Khi chọn filter theo "By Form" trong Inbox hay "By To" trong Outbox thì không hiện kết quả filter
 </t>
@@ -12859,17 +12852,200 @@
     </r>
   </si>
   <si>
+    <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi
+[Dan] OK em, da fixed. Sorry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+[Dan] loi du lieu NULL, da fix</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tam - 28/05/2012]
+Passed đối với filter trong Inbox
+Failed đối với Filter trong Outbox
+[Dan] da fix</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] vẫn bị anh Đan ơi
+Anh đừng nhập gì cả và click Filter button thì thấy
+[Dan] da fixed</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
+[Dan] Da sua message</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator. (tương tự bug 41)
+[Dan] da sua msg</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+[Dan] da sua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+1. Không nhập gì và click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo thiếu phone number
+2. Nhập Phone number đã tồn tại vẫn insert thành công
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+Trong Add new vẫn còn lỗi
+reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not add, please try again later or contact administrator! (tương tự bug 40)
+Sai ten fullname va trung so dt thi insert thanh cong
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks</t>
+    </r>
+  </si>
+  <si>
     <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
-[Dan] Administrator o day la` nguoi quan tri cua web site, co`n logged user chi la` admin cua site thoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Tâm] retest 28/5/2012 - Passed
+[Dan] Administrator o day la` nguoi quan tri cua web site, co`n logged user chi la` admin cua site thoi
+[Tam] [Tâm] retest 29/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
 [Dan] Administrator o day la` nguoi quan tri cua web site, co`n logged user chi la` admin cua site thoi
-</t>
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <r>
@@ -12968,7 +13144,8 @@
       </rPr>
       <t xml:space="preserve"> Hiện thông báo "All fields are required fields "
 2. Full Name có nên cho trùng không?, nếu có thì check giúp em luôn nhé
-[dan - 05/28] Full name ko nen trung chi can check UPI Code voi Phone Number la duoc roi</t>
+[dan - 05/28] Full name ko nen trung chi can check UPI Code voi Phone Number la duoc roi
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -12977,7 +13154,16 @@
 3. Nhập vào position với giá trị tồn tại
 Result: hiện câu thông báo "Can not add, please provide new name or try again or contact administrator! "
 Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-[Dan - 05/28] Da sua</t>
+[Dan - 05/28] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>[Tâm] retest 28/5/2012 - Failed
+Repro:
+3. Nhập vào position với giá trị tồn tại
+Result: hiện câu thông báo "Can not add, please provide new name or try again or contact administrator! "
+Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
@@ -12985,7 +13171,8 @@
 4. Nhập vào Customer Type với giá trị đã tồn tại
 Result: hiện câu thông báo "Can not save, try again later or contact administrator "
 Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-[Dan - 05/28] Da sua</t>
+[Dan - 05/28] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
@@ -12993,7 +13180,8 @@
 4. Nhập vào  Channel name với giá trị đã tồn tại
 Result: hiện câu thông báo "Can not save, try again later or contact administrator "
 Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-[Dan - 05/28] Da sua</t>
+[Dan - 05/28] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
@@ -13001,7 +13189,8 @@
 4. Nhập vào Channel name với giá trị đã tồn tại
 Result: hiện câu thông báo "Can not save, try again later or contact administrator "
 Expected: Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-[Dan - 05/28] Da sua</t>
+[Dan - 05/28] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <r>
@@ -13146,7 +13335,8 @@
       </rPr>
       <t xml:space="preserve"> Hiển thị câu thông báo 
 [Sybtax trong SMS] không được phép trùng
-[Dan 05/28] da sua</t>
+[Dan 05/28] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -13292,7 +13482,30 @@
       </rPr>
       <t xml:space="preserve"> Hiển thị câu thông báo 
 [Sybtax trong SMS] không được phép trùng
-[Dan -05/28] Da sua</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan -05/28] Da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Failed
+Vẫn hiển thị msg trên</t>
     </r>
   </si>
   <si>
@@ -13391,7 +13604,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-[Dan - 05/28] Da sua</t>
+[Dan - 05/28] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -13503,7 +13717,8 @@
       </rPr>
       <t>Hiện câu thông báo "Can not update, please provide another name or try again! "
 (note: hiện đang dùng account Administrator)
-[Dan - 05/28] Da sua</t>
+[Dan - 05/28] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -13615,7 +13830,8 @@
       </rPr>
       <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
 (note: hiện đang dùng account Administrator)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -13715,7 +13931,8 @@
       </rPr>
       <t>Hiện câu thông báo "can not update, please provide another name or try again! "
 (note: hiện đang dùng account Administrator)
-[Dan] Da sua</t>
+[Dan] Da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -13815,7 +14032,8 @@
       </rPr>
       <t>Hiện câu thông báo "Can not Add, please provide another name or try again! "
 (note: hiện đang dùng account Administrator)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
@@ -13915,189 +14133,39 @@
       </rPr>
       <t>Hiện câu thông báo "can not update, please provide another name or try again! "
 (note: hiện đang dùng account Administrator)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
     </r>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
  Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 can not update, please try again later or contact admnistrator.! (tương tự bug 41)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 Can not add, please provide new name or try again or contact administrator!  )tương tự bug 40)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 can not update, please try again later or contact admnistrator.!  (tương từ bug 41)
-[Dan] da sua</t>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)
-[Dan] da sua</t>
-  </si>
-  <si>
-    <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi
-[Dan] OK em, da fixed. Sorry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-[Dan] loi du lieu NULL, da fix</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tam - 28/05/2012]
-Passed đối với filter trong Inbox
-Failed đối với Filter trong Outbox
-[Dan] da fix</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Vẫn còn như mô tả
-[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] vẫn bị anh Đan ơi
-Anh đừng nhập gì cả và click Filter button thì thấy
-[Dan] da fixed</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Trong Add new vẫn còn lỗi
-reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
-[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not add, please try again later or contact administrator! (tương tự bug 40)
-Sai ten fullname va trung so dt thi insert thanh cong
-[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
-[Dan] Da sua message</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not update, please try again later or contact admnistrator. (tương tự bug 41)
-[Dan] da sua msg</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Vẫn còn như mô tả
-[Dan] da sua</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-1. Không nhập gì và click vào icon insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> câu thông báo thiếu phone number
-2. Nhập Phone number đã tồn tại vẫn insert thành công
-[Dan] da sua</t>
-    </r>
+[Dan] da sua
+[Tâm] retest 29/5/2012 - Passed</t>
   </si>
 </sst>
 </file>
@@ -14282,7 +14350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -14320,21 +14388,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -14344,7 +14397,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14400,9 +14453,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -14445,7 +14495,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15136,9 +15228,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15146,7 +15238,7 @@
     <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="94.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="77.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
     <col min="7" max="7" width="57.85546875" style="5" customWidth="1"/>
@@ -15155,21 +15247,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F20000,"=Close")</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -15240,7 +15332,7 @@
       <c r="F6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -15263,7 +15355,7 @@
       <c r="F7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -15288,7 +15380,7 @@
       <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -15313,7 +15405,7 @@
       <c r="F9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>153</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -15336,7 +15428,7 @@
       <c r="F10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>153</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -15344,7 +15436,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f>IF(D11="","",MAX($B$4:$B10)+1)</f>
         <v>7</v>
@@ -15359,7 +15451,7 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -15405,7 +15497,7 @@
       <c r="F13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>157</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -15430,7 +15522,7 @@
       <c r="F14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>152</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -15501,7 +15593,7 @@
       <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>160</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -15534,19 +15626,19 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="27" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -15555,7 +15647,7 @@
       <c r="H19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -15708,10 +15800,10 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>181</v>
+        <v>136</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15731,10 +15823,10 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>180</v>
+        <v>136</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15756,7 +15848,7 @@
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>166</v>
       </c>
       <c r="H28" s="13" t="s">
@@ -15777,10 +15869,10 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -15802,7 +15894,7 @@
       <c r="F30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>151</v>
       </c>
       <c r="H30" s="13" t="s">
@@ -15823,10 +15915,10 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -15846,10 +15938,10 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15869,10 +15961,10 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15892,10 +15984,10 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -15938,10 +16030,10 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -15961,10 +16053,10 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -15984,10 +16076,10 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -16010,7 +16102,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16030,17 +16122,17 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
@@ -16053,10 +16145,10 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16076,10 +16168,10 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16099,10 +16191,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16121,10 +16213,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16143,10 +16235,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16165,16 +16257,16 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
@@ -16187,10 +16279,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16209,10 +16301,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16231,10 +16323,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -16253,10 +16345,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -16275,10 +16367,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -16297,10 +16389,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -16319,10 +16411,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -16359,16 +16451,16 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H55" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16454,7 +16546,7 @@
         <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16468,7 +16560,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -16487,9 +16579,9 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="H61" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H61" s="27" t="s">
         <v>56</v>
       </c>
     </row>
@@ -16515,7 +16607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
         <v>58</v>
@@ -16542,16 +16634,16 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H64" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" s="29" t="s">
         <v>146</v>
       </c>
     </row>
@@ -16571,7 +16663,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>147</v>
@@ -16592,8 +16684,8 @@
       <c r="F66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="20" t="s">
-        <v>203</v>
+      <c r="G66" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>147</v>
@@ -16691,7 +16783,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -16720,7 +16812,7 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="180" x14ac:dyDescent="0.25">
@@ -16759,7 +16851,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>147</v>
@@ -16822,7 +16914,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>147</v>
@@ -16837,14 +16929,14 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>147</v>
@@ -16866,7 +16958,7 @@
         <v>17</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>147</v>
@@ -16953,8 +17045,8 @@
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="19" t="s">
-        <v>208</v>
+      <c r="G83" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>147</v>
@@ -16975,8 +17067,8 @@
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="19" t="s">
-        <v>209</v>
+      <c r="G84" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>147</v>
@@ -16998,7 +17090,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>147</v>
@@ -17013,14 +17105,14 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>147</v>
@@ -17104,7 +17196,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="390" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="360" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
         <v>86</v>
@@ -17113,7 +17205,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -17138,7 +17230,7 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
         <v>88</v>
@@ -17147,7 +17239,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17329,7 +17421,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -12852,30 +12852,6 @@
     </r>
   </si>
   <si>
-    <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi
-[Dan] OK em, da fixed. Sorry</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
 </t>
@@ -14166,6 +14142,55 @@
 Can not add, please provide new name or try again or contact administrator! (tương tự bug 40,)
 [Dan] da sua
 [Tâm] retest 29/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed
+[Tâm] retest 29/5/2012 - Passed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Dan] OK em, da fixed. Sorry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi click phân trang thì mất hết các record và phân trang</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15228,9 +15253,9 @@
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15261,7 +15286,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F20000,"=Close")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -15803,7 +15828,7 @@
         <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -15826,7 +15851,7 @@
         <v>136</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -15872,7 +15897,7 @@
         <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -15918,7 +15943,7 @@
         <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -15941,7 +15966,7 @@
         <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -15964,7 +15989,7 @@
         <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -15987,7 +16012,7 @@
         <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -16033,7 +16058,7 @@
         <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -16056,7 +16081,7 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -16079,7 +16104,7 @@
         <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -16102,7 +16127,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16125,7 +16150,7 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -16148,7 +16173,7 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16171,7 +16196,7 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16194,7 +16219,7 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16216,7 +16241,7 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16238,7 +16263,7 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16260,7 +16285,7 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16282,7 +16307,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16304,7 +16329,7 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16326,7 +16351,7 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -16348,7 +16373,7 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -16370,7 +16395,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -16392,7 +16417,7 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -16414,7 +16439,7 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -16442,7 +16467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f>IF(D55="","",MAX($B$4:$B54)+1)</f>
         <v>51</v>
@@ -16455,10 +16480,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>145</v>
@@ -16579,7 +16604,7 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>56</v>
@@ -16663,7 +16688,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>147</v>
@@ -16685,7 +16710,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>147</v>
@@ -16851,7 +16876,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>147</v>
@@ -16914,7 +16939,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>147</v>
@@ -16936,7 +16961,7 @@
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>147</v>
@@ -16958,7 +16983,7 @@
         <v>17</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>147</v>
@@ -17046,7 +17071,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>147</v>
@@ -17068,7 +17093,7 @@
         <v>17</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>147</v>
@@ -17090,7 +17115,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>147</v>
@@ -17112,7 +17137,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>147</v>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="3210" windowWidth="20610" windowHeight="7065" tabRatio="726"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$107</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -9692,23 +9692,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] em check voi Son giup anh case na`y nhe, thanks em</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
     </r>
@@ -10124,12 +10107,6 @@
   </si>
   <si>
     <t>fixed</t>
-  </si>
-  <si>
-    <t>[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import</t>
-  </si>
-  <si>
-    <t>[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay</t>
   </si>
   <si>
     <t>partial fixed</t>
@@ -10532,10 +10509,6 @@
     </r>
   </si>
   <si>
-    <t>[Tam - 28/05/2012] vậy sao không thêm điều kiện khi get "phone number (1)"
-- phone number (1) sẽ hiển thị theo điều kiện là chỉ count những số phone nào được chọn và hiện tại đang tồn tại -&gt; để khi User xem chi tiet nó thống nhất về con số được count hơn</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Trong Filter chọn customer, salemen hoặc Administrator
 </t>
@@ -12852,6 +12825,30 @@
     </r>
   </si>
   <si>
+    <t>[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi
+[Dan] OK em, da fixed. Sorry</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
 </t>
@@ -14144,60 +14141,91 @@
 [Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
-    <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed
-[Tâm] retest 29/5/2012 - Passed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <t xml:space="preserve">[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Dan] OK em, da fixed. Sorry
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi click phân trang thì mất hết các record và phân trang</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] em check voi Son giup anh case na`y nhe, thanks em
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sơn] - Theo yêu cầu thì Salesmen vẫn verify password và phone luôn đó Đan. Có thể do developer trước làm thiếu nên mới xảy ra bug này. Đan fix giúp Sơn nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/05/2012] vậy sao không thêm điều kiện khi get "phone number (1)"
+- phone number (1) sẽ hiển thị theo điều kiện là chỉ count những số phone nào được chọn và hiện tại đang tồn tại -&gt; để khi User xem chi tiet nó thống nhất về con số được count hơn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sơn] - Trường hợp này sẽ xảy ra nếu tạo promotions xong rồi sau đó nhân viên sale nghỉ việc hoặc customer bị xóa đi. Cho nên khi click vào số phone sẽ không có thông tin gì để hiển thị vì không tìm thấy record trong database.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sơn] - Hiện tại khách hàng chưa áp dụng chức năng SMSQuota và ExpiredDate cho NV Sale của họ nên việc update ExpiredDate = ngày hiện tại vẫn ok.
+Về Region, Area, Local thì chỉ áp dụng cho Customer thôi, không áp dụng cho Salesmen. Nên nếu được thì có thể áp dụng POC và POS cho Salesmen là hợp lý nhất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sơn] - Không cần apply format xlsx cho chức năng này vì khách hàng không yêu cầu mình làm. Thanks all.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14340,6 +14368,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14520,49 +14563,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -14572,6 +14573,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14606,7 +14612,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14655,7 +14661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14704,7 +14710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14748,7 +14754,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14797,7 +14803,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14846,7 +14852,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14895,7 +14901,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14939,7 +14945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15037,7 +15043,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -15072,7 +15077,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15248,17 +15252,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:I108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="4" customWidth="1"/>
@@ -15271,7 +15275,7 @@
     <col min="10" max="16384" width="4.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="26.25">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -15283,13 +15287,13 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F20000,"=Close")</f>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="30">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="135" hidden="1">
       <c r="B5" s="2">
         <f>IF(D5="","",MAX($B$4:$B4)+1)</f>
         <v>1</v>
@@ -15340,7 +15344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="150" hidden="1">
       <c r="B6" s="2">
         <f>IF(D6="","",MAX($B$4:$B5)+1)</f>
         <v>2</v>
@@ -15365,7 +15369,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="165" hidden="1">
       <c r="B7" s="2">
         <f>IF(D7="","",MAX($B$4:$B6)+1)</f>
         <v>3</v>
@@ -15381,14 +15385,14 @@
         <v>136</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="90" hidden="1">
       <c r="B8" s="2">
         <f>IF(D8="","",MAX($B$4:$B7)+1)</f>
         <v>4</v>
@@ -15413,7 +15417,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="135" hidden="1">
       <c r="B9" s="2">
         <f>IF(D9="","",MAX($B$4:$B8)+1)</f>
         <v>5</v>
@@ -15431,14 +15435,14 @@
         <v>136</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="75" hidden="1">
       <c r="B10" s="2">
         <f>IF(D10="","",MAX($B$4:$B9)+1)</f>
         <v>6</v>
@@ -15454,14 +15458,14 @@
         <v>136</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="155.25" customHeight="1">
       <c r="B11" s="2">
         <f>IF(D11="","",MAX($B$4:$B10)+1)</f>
         <v>7</v>
@@ -15477,14 +15481,14 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="105" hidden="1">
       <c r="B12" s="2">
         <f>IF(D12="","",MAX($B$4:$B11)+1)</f>
         <v>8</v>
@@ -15507,7 +15511,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="135" hidden="1">
       <c r="B13" s="2">
         <f>IF(D13="","",MAX($B$4:$B12)+1)</f>
         <v>9</v>
@@ -15523,14 +15527,14 @@
         <v>136</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="165" hidden="1">
       <c r="B14" s="2">
         <f>IF(D14="","",MAX($B$4:$B13)+1)</f>
         <v>10</v>
@@ -15548,14 +15552,14 @@
         <v>136</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="120" hidden="1">
       <c r="B15" s="2">
         <f>IF(D15="","",MAX($B$4:$B14)+1)</f>
         <v>11</v>
@@ -15564,21 +15568,21 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="120" hidden="1">
       <c r="B16" s="2">
         <f>IF(D16="","",MAX($B$4:$B15)+1)</f>
         <v>12</v>
@@ -15594,14 +15598,14 @@
         <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="225">
       <c r="B17" s="2">
         <f>IF(D17="","",MAX($B$4:$B16)+1)</f>
         <v>13</v>
@@ -15619,7 +15623,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -15628,7 +15632,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="135" hidden="1">
       <c r="B18" s="2">
         <f>IF(D18="","",MAX($B$4:$B17)+1)</f>
         <v>14</v>
@@ -15644,14 +15648,14 @@
         <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" hidden="1">
       <c r="B19" s="2">
         <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
@@ -15660,21 +15664,21 @@
         <v>8</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="105" hidden="1">
       <c r="B20" s="2">
         <f>IF(D20="","",MAX($B$4:$B19)+1)</f>
         <v>16</v>
@@ -15690,14 +15694,14 @@
         <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="150" hidden="1">
       <c r="B21" s="2">
         <f>IF(D21="","",MAX($B$4:$B20)+1)</f>
         <v>17</v>
@@ -15713,14 +15717,14 @@
         <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="180" hidden="1">
       <c r="B22" s="2">
         <f>IF(D22="","",MAX($B$4:$B21)+1)</f>
         <v>18</v>
@@ -15736,14 +15740,14 @@
         <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="150" hidden="1">
       <c r="B23" s="2">
         <f>IF(D23="","",MAX($B$4:$B22)+1)</f>
         <v>19</v>
@@ -15759,14 +15763,14 @@
         <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="195" hidden="1">
       <c r="B24" s="2">
         <f>IF(D24="","",MAX($B$4:$B23)+1)</f>
         <v>20</v>
@@ -15782,14 +15786,14 @@
         <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="360" hidden="1">
       <c r="B25" s="2">
         <f>IF(D25="","",MAX($B$4:$B24)+1)</f>
         <v>21</v>
@@ -15798,21 +15802,21 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="225">
       <c r="B26" s="2">
         <f>IF(D26="","",MAX($B$4:$B25)+1)</f>
         <v>22</v>
@@ -15828,14 +15832,14 @@
         <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="240">
       <c r="B27" s="2">
         <f>IF(D27="","",MAX($B$4:$B26)+1)</f>
         <v>23</v>
@@ -15851,43 +15855,43 @@
         <v>136</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="409.5">
       <c r="B28" s="2">
         <f>IF(D28="","",MAX($B$4:$B27)+1)</f>
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="405">
       <c r="B29" s="2">
         <f>IF(D29="","",MAX($B$4:$B28)+1)</f>
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>140</v>
@@ -15897,14 +15901,14 @@
         <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="150" hidden="1">
       <c r="B30" s="2">
         <f>IF(D30="","",MAX($B$4:$B29)+1)</f>
         <v>26</v>
@@ -15920,14 +15924,14 @@
         <v>136</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="225">
       <c r="B31" s="2">
         <f>IF(D31="","",MAX($B$4:$B30)+1)</f>
         <v>27</v>
@@ -15943,14 +15947,14 @@
         <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="240">
       <c r="B32" s="2">
         <f>IF(D32="","",MAX($B$4:$B31)+1)</f>
         <v>28</v>
@@ -15966,14 +15970,14 @@
         <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="240">
       <c r="B33" s="2">
         <f>IF(D33="","",MAX($B$4:$B32)+1)</f>
         <v>29</v>
@@ -15989,14 +15993,14 @@
         <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="300">
       <c r="B34" s="2">
         <f>IF(D34="","",MAX($B$4:$B33)+1)</f>
         <v>30</v>
@@ -16012,14 +16016,14 @@
         <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="135" hidden="1">
       <c r="B35" s="2">
         <f>IF(D35="","",MAX($B$4:$B34)+1)</f>
         <v>31</v>
@@ -16035,14 +16039,14 @@
         <v>136</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="285">
       <c r="B36" s="2">
         <f>IF(D36="","",MAX($B$4:$B35)+1)</f>
         <v>32</v>
@@ -16051,21 +16055,21 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="285">
       <c r="B37" s="2">
         <f>IF(D37="","",MAX($B$4:$B36)+1)</f>
         <v>33</v>
@@ -16081,14 +16085,14 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="255">
       <c r="B38" s="2">
         <f>IF(D38="","",MAX($B$4:$B37)+1)</f>
         <v>34</v>
@@ -16104,14 +16108,14 @@
         <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="2:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="285">
       <c r="B39" s="2">
         <f>IF(D39="","",MAX($B$4:$B38)+1)</f>
         <v>35</v>
@@ -16127,14 +16131,14 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="225">
       <c r="B40" s="2">
         <f>IF(D40="","",MAX($B$4:$B39)+1)</f>
         <v>36</v>
@@ -16150,14 +16154,14 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="240">
       <c r="B41" s="2">
         <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
@@ -16173,14 +16177,14 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="225">
       <c r="B42" s="2">
         <f>IF(D42="","",MAX($B$4:$B41)+1)</f>
         <v>38</v>
@@ -16196,14 +16200,14 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="225">
       <c r="B43" s="2">
         <f>IF(D43="","",MAX($B$4:$B42)+1)</f>
         <v>39</v>
@@ -16219,13 +16223,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="225">
       <c r="B44" s="2">
         <f>IF(D44="","",MAX($B$4:$B43)+1)</f>
         <v>40</v>
@@ -16241,13 +16245,13 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="225">
       <c r="B45" s="2">
         <f>IF(D45="","",MAX($B$4:$B44)+1)</f>
         <v>41</v>
@@ -16263,13 +16267,13 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="240">
       <c r="B46" s="2">
         <f>IF(D46="","",MAX($B$4:$B45)+1)</f>
         <v>42</v>
@@ -16285,13 +16289,13 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="300">
       <c r="B47" s="2">
         <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
@@ -16307,13 +16311,13 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="240">
       <c r="B48" s="2">
         <f>IF(D48="","",MAX($B$4:$B47)+1)</f>
         <v>44</v>
@@ -16329,13 +16333,13 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="270">
       <c r="B49" s="2">
         <f>IF(D49="","",MAX($B$4:$B48)+1)</f>
         <v>45</v>
@@ -16351,13 +16355,13 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="240">
       <c r="B50" s="2">
         <f>IF(D50="","",MAX($B$4:$B49)+1)</f>
         <v>46</v>
@@ -16373,13 +16377,13 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="270">
       <c r="B51" s="2">
         <f>IF(D51="","",MAX($B$4:$B50)+1)</f>
         <v>47</v>
@@ -16395,13 +16399,13 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="240">
       <c r="B52" s="2">
         <f>IF(D52="","",MAX($B$4:$B51)+1)</f>
         <v>48</v>
@@ -16417,13 +16421,13 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="270">
       <c r="B53" s="2">
         <f>IF(D53="","",MAX($B$4:$B52)+1)</f>
         <v>49</v>
@@ -16439,13 +16443,13 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="120" hidden="1">
       <c r="B54" s="2">
         <f>IF(D54="","",MAX($B$4:$B53)+1)</f>
         <v>50</v>
@@ -16461,13 +16465,13 @@
         <v>136</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="225">
       <c r="B55" s="2">
         <f>IF(D55="","",MAX($B$4:$B54)+1)</f>
         <v>51</v>
@@ -16476,20 +16480,20 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="150" hidden="1">
       <c r="B56" s="2">
         <f>IF(D56="","",MAX($B$4:$B55)+1)</f>
         <v>52</v>
@@ -16505,13 +16509,13 @@
         <v>136</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="165" hidden="1">
       <c r="B57" s="2">
         <f>IF(D57="","",MAX($B$4:$B56)+1)</f>
         <v>53</v>
@@ -16527,13 +16531,13 @@
         <v>136</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="165" hidden="1">
       <c r="B58" s="2">
         <f>IF(D58="","",MAX($B$4:$B57)+1)</f>
         <v>54</v>
@@ -16549,13 +16553,13 @@
         <v>136</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="165">
       <c r="B59" s="2">
         <f>IF(D59="","",MAX($B$4:$B58)+1)</f>
         <v>55</v>
@@ -16571,10 +16575,10 @@
         <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="99.75" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
         <v>70</v>
@@ -16585,10 +16589,10 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="120">
       <c r="B61" s="2">
         <f>IF(D61="","",MAX($B$4:$B60)+1)</f>
         <v>56</v>
@@ -16604,13 +16608,13 @@
         <v>17</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="180" hidden="1">
       <c r="B62" s="2">
         <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
         <v>57</v>
@@ -16626,13 +16630,13 @@
         <v>136</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="210">
       <c r="B63" s="2">
         <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
         <v>58</v>
@@ -16647,10 +16651,10 @@
       <c r="F63" s="2"/>
       <c r="G63" s="7"/>
       <c r="H63" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="195" hidden="1">
       <c r="B64" s="2">
         <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
         <v>59</v>
@@ -16659,20 +16663,20 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="210">
       <c r="B65" s="2">
         <f>IF(D65="","",MAX($B$4:$B64)+1)</f>
         <v>60</v>
@@ -16688,13 +16692,13 @@
         <v>17</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="165">
       <c r="B66" s="2">
         <f>IF(D66="","",MAX($B$4:$B65)+1)</f>
         <v>61</v>
@@ -16710,13 +16714,13 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="150" hidden="1">
       <c r="B67" s="2">
         <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
         <v>62</v>
@@ -16732,13 +16736,13 @@
         <v>136</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="180" hidden="1">
       <c r="B68" s="2">
         <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
         <v>63</v>
@@ -16754,13 +16758,13 @@
         <v>136</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="165" hidden="1">
       <c r="B69" s="2">
         <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
         <v>64</v>
@@ -16776,13 +16780,13 @@
         <v>136</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="165">
       <c r="B70" s="2">
         <f>IF(D70="","",MAX($B$4:$B69)+1)</f>
         <v>65</v>
@@ -16799,7 +16803,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="375" hidden="1">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
         <v>66</v>
@@ -16808,20 +16812,20 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="165" hidden="1">
       <c r="B72" s="2">
         <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
         <v>67</v>
@@ -16837,10 +16841,10 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="195">
       <c r="B73" s="2">
         <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
         <v>68</v>
@@ -16857,10 +16861,10 @@
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="180">
       <c r="B74" s="2">
         <f>IF(D74="","",MAX($B$4:$B73)+1)</f>
         <v>69</v>
@@ -16876,13 +16880,13 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="150" hidden="1">
       <c r="B75" s="2">
         <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
         <v>70</v>
@@ -16898,13 +16902,13 @@
         <v>136</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="165">
       <c r="B76" s="2">
         <f>IF(D76="","",MAX($B$4:$B75)+1)</f>
         <v>71</v>
@@ -16921,7 +16925,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="165">
       <c r="B77" s="2">
         <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
         <v>72</v>
@@ -16939,13 +16943,13 @@
         <v>17</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="210">
       <c r="B78" s="2">
         <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
         <v>73</v>
@@ -16954,20 +16958,20 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="150">
       <c r="B79" s="2">
         <f>IF(D79="","",MAX($B$4:$B78)+1)</f>
         <v>74</v>
@@ -16983,13 +16987,13 @@
         <v>17</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="225">
       <c r="B80" s="2">
         <f>IF(D80="","",MAX($B$4:$B79)+1)</f>
         <v>75</v>
@@ -17005,13 +17009,13 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="105" hidden="1">
       <c r="B81" s="2">
         <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
         <v>76</v>
@@ -17027,13 +17031,13 @@
         <v>136</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="120" hidden="1">
       <c r="B82" s="2">
         <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
         <v>77</v>
@@ -17049,13 +17053,13 @@
         <v>136</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="240">
       <c r="B83" s="2">
         <f>IF(D83="","",MAX($B$4:$B82)+1)</f>
         <v>78</v>
@@ -17071,13 +17075,13 @@
         <v>17</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="225">
       <c r="B84" s="2">
         <f>IF(D84="","",MAX($B$4:$B83)+1)</f>
         <v>79</v>
@@ -17093,13 +17097,13 @@
         <v>17</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="165">
       <c r="B85" s="2">
         <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
         <v>80</v>
@@ -17115,13 +17119,13 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="375">
       <c r="B86" s="2">
         <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
         <v>81</v>
@@ -17130,20 +17134,20 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="195" hidden="1">
       <c r="B87" s="2">
         <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
         <v>82</v>
@@ -17159,13 +17163,13 @@
         <v>136</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="165">
       <c r="B88" s="2">
         <f>IF(D88="","",MAX($B$4:$B87)+1)</f>
         <v>83</v>
@@ -17181,22 +17185,22 @@
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="135">
       <c r="B89" s="2">
         <f>IF(D89="","",MAX($B$4:$B88)+1)</f>
         <v>84</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -17204,16 +17208,16 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="165">
       <c r="B90" s="2">
         <f>IF(D90="","",MAX($B$4:$B89)+1)</f>
         <v>85</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -17221,7 +17225,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="360" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="375">
       <c r="B91" s="2">
         <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
         <v>86</v>
@@ -17230,7 +17234,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -17238,7 +17242,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="180">
       <c r="B92" s="2">
         <f>IF(D92="","",MAX($B$4:$B91)+1)</f>
         <v>87</v>
@@ -17247,7 +17251,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -17255,7 +17259,7 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="210">
       <c r="B93" s="2">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
         <v>88</v>
@@ -17264,7 +17268,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17272,7 +17276,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8">
       <c r="B94" s="2" t="str">
         <f>IF(D94="","",MAX($B$4:$B93)+1)</f>
         <v/>
@@ -17283,7 +17287,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8">
       <c r="B95" s="2" t="str">
         <f>IF(D95="","",MAX($B$4:$B94)+1)</f>
         <v/>
@@ -17294,7 +17298,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8">
       <c r="B96" s="2" t="str">
         <f>IF(D96="","",MAX($B$4:$B95)+1)</f>
         <v/>
@@ -17305,7 +17309,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7">
       <c r="B97" s="2" t="str">
         <f>IF(D97="","",MAX($B$4:$B96)+1)</f>
         <v/>
@@ -17316,7 +17320,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7">
       <c r="B98" s="2" t="str">
         <f>IF(D98="","",MAX($B$4:$B97)+1)</f>
         <v/>
@@ -17327,7 +17331,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7">
       <c r="B99" s="2" t="str">
         <f>IF(D99="","",MAX($B$4:$B98)+1)</f>
         <v/>
@@ -17338,7 +17342,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7">
       <c r="B100" s="2" t="str">
         <f>IF(D100="","",MAX($B$4:$B99)+1)</f>
         <v/>
@@ -17349,7 +17353,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7">
       <c r="B101" s="2" t="str">
         <f>IF(D101="","",MAX($B$4:$B100)+1)</f>
         <v/>
@@ -17360,7 +17364,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7">
       <c r="B102" s="2" t="str">
         <f>IF(D102="","",MAX($B$4:$B101)+1)</f>
         <v/>
@@ -17371,7 +17375,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7">
       <c r="B103" s="2" t="str">
         <f>IF(D103="","",MAX($B$4:$B102)+1)</f>
         <v/>
@@ -17382,7 +17386,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7">
       <c r="B104" s="2" t="str">
         <f>IF(D104="","",MAX($B$4:$B103)+1)</f>
         <v/>
@@ -17393,7 +17397,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7">
       <c r="B105" s="2" t="str">
         <f>IF(D105="","",MAX($B$4:$B104)+1)</f>
         <v/>
@@ -17404,7 +17408,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7">
       <c r="B106" s="2" t="str">
         <f>IF(D106="","",MAX($B$4:$B105)+1)</f>
         <v/>
@@ -17415,7 +17419,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7">
       <c r="B107" s="2" t="str">
         <f>IF(D107="","",MAX($B$4:$B106)+1)</f>
         <v/>
@@ -17426,7 +17430,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7">
       <c r="B108" s="2"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -17446,7 +17450,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17470,14 +17474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17485,12 +17489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17498,12 +17502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17511,14 +17515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17526,12 +17530,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17539,12 +17543,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="3210" windowWidth="20610" windowHeight="7065" tabRatio="726"/>
+    <workbookView xWindow="60" yWindow="3270" windowWidth="20610" windowHeight="7005" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="Leakage Bug List" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$107</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="215">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -12007,10 +12007,6 @@
  chỉ hiện thị khi vừa click, nhưng sau khi GET các record lên thì không highlight ngày đã chọn</t>
   </si>
   <si>
-    <t>[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
-[Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Khi Salesmen xóa record của Dashboard thì record đó cũng không còn hiện ở bên Administrator
 </t>
@@ -12825,186 +12821,9 @@
     </r>
   </si>
   <si>
-    <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi
-[Dan] OK em, da fixed. Sorry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-[Dan] loi du lieu NULL, da fix</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tam - 28/05/2012]
-Passed đối với filter trong Inbox
-Failed đối với Filter trong Outbox
-[Dan] da fix</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Vẫn còn như mô tả
-[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] vẫn bị anh Đan ơi
-Anh đừng nhập gì cả và click Filter button thì thấy
-[Dan] da fixed</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
-[Dan] Da sua message</t>
-  </si>
-  <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-can not update, please try again later or contact admnistrator. (tương tự bug 41)
-[Dan] da sua msg</t>
-  </si>
-  <si>
     <t>[Tâm] retest 28/5/2012 - Failed
 Vẫn còn như mô tả
 [Dan] da sua</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-1. Không nhập gì và click vào icon insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> câu thông báo thiếu phone number
-2. Nhập Phone number đã tồn tại vẫn insert thành công
-[Dan] da sua</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-Trong Add new vẫn còn lỗi
-reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-can not add, please try again later or contact administrator! (tương tự bug 40)
-Sai ten fullname va trung so dt thi insert thanh cong
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks</t>
-    </r>
   </si>
   <si>
     <t>[Tâm] retest 28/5/2012 - Passed
@@ -14220,12 +14039,595 @@
       <t>[Sơn] - Không cần apply format xlsx cho chức năng này vì khách hàng không yêu cầu mình làm. Thanks all.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Dan] OK em, da fixed. Sorry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi click phân trang thì mất hết các record và phân trang</t>
+    </r>
+  </si>
+  <si>
+    <t>Validation of viewstate MAC failed. If this application is hosted by a Web Farm or cluster, ensure that &lt;machineKey&gt; configuration specifies the same validationKey and validation algorithm. AutoGenerate cannot be used in a cluster.
+Mat session cua mot so page khi click thi hien trang loi tren</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] loi du lieu NULL, da fix</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/05/2012]
+Passed đối với filter trong Inbox
+Failed đối với Filter trong Outbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da fix</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Failed
+Nhập vào textbox rối click vào clear button vẫn không reser Form Filter</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 29/5/2012 - Passed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tam] restest 29/05/2012 - Failed
+Vẫn còn anh Đan ơi, Ví dụ:
+- Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
+- Anh chọn Group là "select"  thì chỉ có Region disabled, còn lại Area và Local thì không</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam - 28/05/2012] vẫn bị anh Đan ơi
+Anh đừng nhập gì cả và click Filter button thì thấy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da fixed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+Trong Add new vẫn còn lỗi
+reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] restest 29/05/2012 - Failed
+Em test lại rồi nhưng ví dụ:
+- Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
+- Anh chọn Group là "select a group"  thì chỉ có Area và Local se disabled, còn lại Region thì vẫn hiện tất cả các record có trong Region, khi chọn Region thì Area sẽ được load lên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not add, please try again later or contact administrator! (tương tự bug 40)
+Sai ten fullname va trung so dt thi insert thanh cong
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] restest 29/05/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không mở được Form khi click vào icon Edit  salesmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào salesmen trên menu
+   3. Click vào icon Edit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Không hiện ra Form để Edit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Show ra Form Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Da sua message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator. (tương tự bug 41)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da sua msg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+1. Không nhập gì và click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo thiếu phone number
+2. Nhập Phone number đã tồn tại vẫn insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 28/5/2012 - Passed</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14563,7 +14965,77 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14612,7 +15084,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14661,7 +15133,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14710,7 +15182,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14754,7 +15226,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14803,7 +15275,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14852,7 +15324,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14901,7 +15373,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14945,7 +15417,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15043,6 +15515,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -15077,6 +15550,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15252,30 +15726,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:I108"/>
+  <dimension ref="B2:I107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="77.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
     <col min="7" max="7" width="57.85546875" style="5" customWidth="1"/>
     <col min="8" max="9" width="24.28515625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="4.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -15287,13 +15761,13 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
-        <f>COUNTIFS(F5:F20000,"=Close")</f>
-        <v>60</v>
+        <f>COUNTIFS(F5:F19998,"=Close")</f>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -15319,7 +15793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="135" hidden="1">
+    <row r="5" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f>IF(D5="","",MAX($B$4:$B4)+1)</f>
         <v>1</v>
@@ -15344,7 +15818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="150" hidden="1">
+    <row r="6" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>IF(D6="","",MAX($B$4:$B5)+1)</f>
         <v>2</v>
@@ -15369,7 +15843,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="2:9" ht="165" hidden="1">
+    <row r="7" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>IF(D7="","",MAX($B$4:$B6)+1)</f>
         <v>3</v>
@@ -15392,7 +15866,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:9" ht="90" hidden="1">
+    <row r="8" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f>IF(D8="","",MAX($B$4:$B7)+1)</f>
         <v>4</v>
@@ -15417,7 +15891,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" ht="135" hidden="1">
+    <row r="9" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>IF(D9="","",MAX($B$4:$B8)+1)</f>
         <v>5</v>
@@ -15442,7 +15916,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" ht="75" hidden="1">
+    <row r="10" spans="2:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>IF(D10="","",MAX($B$4:$B9)+1)</f>
         <v>6</v>
@@ -15465,7 +15939,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="155.25" customHeight="1">
+    <row r="11" spans="2:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f>IF(D11="","",MAX($B$4:$B10)+1)</f>
         <v>7</v>
@@ -15481,14 +15955,14 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" ht="105" hidden="1">
+    <row r="12" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f>IF(D12="","",MAX($B$4:$B11)+1)</f>
         <v>8</v>
@@ -15511,7 +15985,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" ht="135" hidden="1">
+    <row r="13" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>IF(D13="","",MAX($B$4:$B12)+1)</f>
         <v>9</v>
@@ -15534,7 +16008,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" ht="165" hidden="1">
+    <row r="14" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f>IF(D14="","",MAX($B$4:$B13)+1)</f>
         <v>10</v>
@@ -15559,7 +16033,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="120" hidden="1">
+    <row r="15" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f>IF(D15="","",MAX($B$4:$B14)+1)</f>
         <v>11</v>
@@ -15582,7 +16056,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" ht="120" hidden="1">
+    <row r="16" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f>IF(D16="","",MAX($B$4:$B15)+1)</f>
         <v>12</v>
@@ -15605,7 +16079,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="225">
+    <row r="17" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f>IF(D17="","",MAX($B$4:$B16)+1)</f>
         <v>13</v>
@@ -15623,7 +16097,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -15632,7 +16106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="135" hidden="1">
+    <row r="18" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f>IF(D18="","",MAX($B$4:$B17)+1)</f>
         <v>14</v>
@@ -15655,7 +16129,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" hidden="1">
+    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
@@ -15678,7 +16152,7 @@
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="105" hidden="1">
+    <row r="20" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f>IF(D20="","",MAX($B$4:$B19)+1)</f>
         <v>16</v>
@@ -15701,7 +16175,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="150" hidden="1">
+    <row r="21" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f>IF(D21="","",MAX($B$4:$B20)+1)</f>
         <v>17</v>
@@ -15724,7 +16198,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="180" hidden="1">
+    <row r="22" spans="2:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f>IF(D22="","",MAX($B$4:$B21)+1)</f>
         <v>18</v>
@@ -15747,7 +16221,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" ht="150" hidden="1">
+    <row r="23" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f>IF(D23="","",MAX($B$4:$B22)+1)</f>
         <v>19</v>
@@ -15770,7 +16244,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" ht="195" hidden="1">
+    <row r="24" spans="2:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>IF(D24="","",MAX($B$4:$B23)+1)</f>
         <v>20</v>
@@ -15793,7 +16267,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="360" hidden="1">
+    <row r="25" spans="2:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>IF(D25="","",MAX($B$4:$B24)+1)</f>
         <v>21</v>
@@ -15816,7 +16290,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" ht="225">
+    <row r="26" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f>IF(D26="","",MAX($B$4:$B25)+1)</f>
         <v>22</v>
@@ -15832,14 +16306,14 @@
         <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" ht="240">
+    <row r="27" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f>IF(D27="","",MAX($B$4:$B26)+1)</f>
         <v>23</v>
@@ -15855,14 +16329,14 @@
         <v>136</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" ht="409.5">
+    <row r="28" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f>IF(D28="","",MAX($B$4:$B27)+1)</f>
         <v>24</v>
@@ -15885,7 +16359,7 @@
       </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" ht="405">
+    <row r="29" spans="2:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f>IF(D29="","",MAX($B$4:$B28)+1)</f>
         <v>25</v>
@@ -15901,14 +16375,14 @@
         <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" ht="150" hidden="1">
+    <row r="30" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f>IF(D30="","",MAX($B$4:$B29)+1)</f>
         <v>26</v>
@@ -15931,7 +16405,7 @@
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:9" ht="225">
+    <row r="31" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f>IF(D31="","",MAX($B$4:$B30)+1)</f>
         <v>27</v>
@@ -15947,14 +16421,14 @@
         <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" ht="240">
+    <row r="32" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f>IF(D32="","",MAX($B$4:$B31)+1)</f>
         <v>28</v>
@@ -15970,14 +16444,14 @@
         <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" ht="240">
+    <row r="33" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f>IF(D33="","",MAX($B$4:$B32)+1)</f>
         <v>29</v>
@@ -15993,14 +16467,14 @@
         <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" ht="300">
+    <row r="34" spans="2:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f>IF(D34="","",MAX($B$4:$B33)+1)</f>
         <v>30</v>
@@ -16016,14 +16490,14 @@
         <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="135" hidden="1">
+    <row r="35" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f>IF(D35="","",MAX($B$4:$B34)+1)</f>
         <v>31</v>
@@ -16046,7 +16520,7 @@
       </c>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:9" ht="285">
+    <row r="36" spans="2:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f>IF(D36="","",MAX($B$4:$B35)+1)</f>
         <v>32</v>
@@ -16062,14 +16536,14 @@
         <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:9" ht="285">
+    <row r="37" spans="2:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f>IF(D37="","",MAX($B$4:$B36)+1)</f>
         <v>33</v>
@@ -16085,14 +16559,14 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:9" ht="255">
+    <row r="38" spans="2:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f>IF(D38="","",MAX($B$4:$B37)+1)</f>
         <v>34</v>
@@ -16108,14 +16582,14 @@
         <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="2:9" ht="285">
+    <row r="39" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f>IF(D39="","",MAX($B$4:$B38)+1)</f>
         <v>35</v>
@@ -16131,14 +16605,14 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:9" ht="225">
+    <row r="40" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f>IF(D40="","",MAX($B$4:$B39)+1)</f>
         <v>36</v>
@@ -16154,14 +16628,14 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" ht="240">
+    <row r="41" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
@@ -16177,14 +16651,14 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:9" ht="225">
+    <row r="42" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f>IF(D42="","",MAX($B$4:$B41)+1)</f>
         <v>38</v>
@@ -16200,14 +16674,14 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="2:9" ht="225">
+    <row r="43" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f>IF(D43="","",MAX($B$4:$B42)+1)</f>
         <v>39</v>
@@ -16223,13 +16697,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="225">
+    <row r="44" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f>IF(D44="","",MAX($B$4:$B43)+1)</f>
         <v>40</v>
@@ -16245,13 +16719,13 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="225">
+    <row r="45" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f>IF(D45="","",MAX($B$4:$B44)+1)</f>
         <v>41</v>
@@ -16267,13 +16741,13 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="240">
+    <row r="46" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f>IF(D46="","",MAX($B$4:$B45)+1)</f>
         <v>42</v>
@@ -16289,13 +16763,13 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="300">
+    <row r="47" spans="2:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
@@ -16311,13 +16785,13 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="240">
+    <row r="48" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f>IF(D48="","",MAX($B$4:$B47)+1)</f>
         <v>44</v>
@@ -16333,13 +16807,13 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="270">
+    <row r="49" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f>IF(D49="","",MAX($B$4:$B48)+1)</f>
         <v>45</v>
@@ -16355,13 +16829,13 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="240">
+    <row r="50" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f>IF(D50="","",MAX($B$4:$B49)+1)</f>
         <v>46</v>
@@ -16377,13 +16851,13 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="270">
+    <row r="51" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f>IF(D51="","",MAX($B$4:$B50)+1)</f>
         <v>47</v>
@@ -16399,13 +16873,13 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="240">
+    <row r="52" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f>IF(D52="","",MAX($B$4:$B51)+1)</f>
         <v>48</v>
@@ -16421,13 +16895,13 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="270">
+    <row r="53" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f>IF(D53="","",MAX($B$4:$B52)+1)</f>
         <v>49</v>
@@ -16443,13 +16917,13 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="120" hidden="1">
+    <row r="54" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f>IF(D54="","",MAX($B$4:$B53)+1)</f>
         <v>50</v>
@@ -16471,7 +16945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="225">
+    <row r="55" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f>IF(D55="","",MAX($B$4:$B54)+1)</f>
         <v>51</v>
@@ -16487,13 +16961,13 @@
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="150" hidden="1">
+    <row r="56" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f>IF(D56="","",MAX($B$4:$B55)+1)</f>
         <v>52</v>
@@ -16515,7 +16989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="165" hidden="1">
+    <row r="57" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f>IF(D57="","",MAX($B$4:$B56)+1)</f>
         <v>53</v>
@@ -16537,7 +17011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="165" hidden="1">
+    <row r="58" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f>IF(D58="","",MAX($B$4:$B57)+1)</f>
         <v>54</v>
@@ -16559,7 +17033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="165">
+    <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f>IF(D59="","",MAX($B$4:$B58)+1)</f>
         <v>55</v>
@@ -16578,7 +17052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="99.75" customHeight="1">
+    <row r="60" spans="2:8" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
         <v>70</v>
@@ -16589,10 +17063,10 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="120">
+    <row r="61" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f>IF(D61="","",MAX($B$4:$B60)+1)</f>
         <v>56</v>
@@ -16607,14 +17081,14 @@
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>176</v>
+      <c r="G61" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="180" hidden="1">
+    <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
         <v>57</v>
@@ -16636,7 +17110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="210">
+    <row r="63" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
         <v>58</v>
@@ -16654,7 +17128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="195" hidden="1">
+    <row r="64" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
         <v>59</v>
@@ -16663,20 +17137,20 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="210">
+    <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f>IF(D65="","",MAX($B$4:$B64)+1)</f>
         <v>60</v>
@@ -16691,14 +17165,14 @@
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>177</v>
+      <c r="G65" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="165">
+    <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f>IF(D66="","",MAX($B$4:$B65)+1)</f>
         <v>61</v>
@@ -16714,13 +17188,13 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="150" hidden="1">
+    <row r="67" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
         <v>62</v>
@@ -16742,7 +17216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="180" hidden="1">
+    <row r="68" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
         <v>63</v>
@@ -16764,7 +17238,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="165" hidden="1">
+    <row r="69" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
         <v>64</v>
@@ -16786,7 +17260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="165">
+    <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f>IF(D70="","",MAX($B$4:$B69)+1)</f>
         <v>65</v>
@@ -16803,7 +17277,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="375" hidden="1">
+    <row r="71" spans="2:8" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
         <v>66</v>
@@ -16812,7 +17286,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -16825,7 +17299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="165" hidden="1">
+    <row r="72" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
         <v>67</v>
@@ -16841,10 +17315,10 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="195">
+    <row r="73" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
         <v>68</v>
@@ -16857,14 +17331,16 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="180">
+    <row r="74" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f>IF(D74="","",MAX($B$4:$B73)+1)</f>
         <v>69</v>
@@ -16880,13 +17356,13 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="150" hidden="1">
+    <row r="75" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
         <v>70</v>
@@ -16908,7 +17384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="165">
+    <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f>IF(D76="","",MAX($B$4:$B75)+1)</f>
         <v>71</v>
@@ -16925,7 +17401,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="165">
+    <row r="77" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
         <v>72</v>
@@ -16940,16 +17416,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="210">
+    <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
         <v>73</v>
@@ -16958,20 +17434,20 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="150">
+    <row r="79" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f>IF(D79="","",MAX($B$4:$B78)+1)</f>
         <v>74</v>
@@ -16984,16 +17460,16 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="225">
+    <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f>IF(D80="","",MAX($B$4:$B79)+1)</f>
         <v>75</v>
@@ -17009,13 +17485,13 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="105" hidden="1">
+    <row r="81" spans="2:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
         <v>76</v>
@@ -17037,7 +17513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="120" hidden="1">
+    <row r="82" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
         <v>77</v>
@@ -17059,7 +17535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="240">
+    <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f>IF(D83="","",MAX($B$4:$B82)+1)</f>
         <v>78</v>
@@ -17072,16 +17548,16 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="225">
+    <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f>IF(D84="","",MAX($B$4:$B83)+1)</f>
         <v>79</v>
@@ -17094,16 +17570,16 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="165">
+    <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
         <v>80</v>
@@ -17119,13 +17595,13 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="375">
+    <row r="86" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
         <v>81</v>
@@ -17134,20 +17610,20 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="195" hidden="1">
+    <row r="87" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
         <v>82</v>
@@ -17169,7 +17645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="165">
+    <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <f>IF(D88="","",MAX($B$4:$B87)+1)</f>
         <v>83</v>
@@ -17185,13 +17661,13 @@
         <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="135">
+    <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <f>IF(D89="","",MAX($B$4:$B88)+1)</f>
         <v>84</v>
@@ -17208,7 +17684,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="165">
+    <row r="90" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <f>IF(D90="","",MAX($B$4:$B89)+1)</f>
         <v>85</v>
@@ -17225,7 +17701,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="375">
+    <row r="91" spans="2:8" ht="390" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
         <v>86</v>
@@ -17242,7 +17718,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="2:8" ht="180">
+    <row r="92" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <f>IF(D92="","",MAX($B$4:$B91)+1)</f>
         <v>87</v>
@@ -17259,7 +17735,7 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="2:8" ht="210">
+    <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
         <v>88</v>
@@ -17268,7 +17744,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17276,29 +17752,39 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="2" t="str">
+    <row r="94" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
         <f>IF(D94="","",MAX($B$4:$B93)+1)</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
+      <c r="D94" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="2" t="str">
+    <row r="95" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
         <f>IF(D95="","",MAX($B$4:$B94)+1)</f>
-        <v/>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="str">
         <f>IF(D96="","",MAX($B$4:$B95)+1)</f>
         <v/>
@@ -17309,7 +17795,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="str">
         <f>IF(D97="","",MAX($B$4:$B96)+1)</f>
         <v/>
@@ -17320,7 +17806,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="str">
         <f>IF(D98="","",MAX($B$4:$B97)+1)</f>
         <v/>
@@ -17331,7 +17817,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="str">
         <f>IF(D99="","",MAX($B$4:$B98)+1)</f>
         <v/>
@@ -17342,7 +17828,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="str">
         <f>IF(D100="","",MAX($B$4:$B99)+1)</f>
         <v/>
@@ -17353,7 +17839,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="str">
         <f>IF(D101="","",MAX($B$4:$B100)+1)</f>
         <v/>
@@ -17364,7 +17850,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="str">
         <f>IF(D102="","",MAX($B$4:$B101)+1)</f>
         <v/>
@@ -17375,7 +17861,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="str">
         <f>IF(D103="","",MAX($B$4:$B102)+1)</f>
         <v/>
@@ -17386,7 +17872,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="str">
         <f>IF(D104="","",MAX($B$4:$B103)+1)</f>
         <v/>
@@ -17397,7 +17883,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="str">
         <f>IF(D105="","",MAX($B$4:$B104)+1)</f>
         <v/>
@@ -17408,7 +17894,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="str">
         <f>IF(D106="","",MAX($B$4:$B105)+1)</f>
         <v/>
@@ -17419,7 +17905,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="str">
         <f>IF(D107="","",MAX($B$4:$B106)+1)</f>
         <v/>
@@ -17429,14 +17915,6 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="7"/>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="2"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G107">
@@ -17449,13 +17927,23 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:G200">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="B5:G93 B94:B95 G94:G95 B96:G198">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C94:F94">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$F94="Close"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95:F95">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F95="Close"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F107">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17474,14 +17962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17489,12 +17977,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17502,12 +17990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17515,14 +18003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17530,12 +18018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17543,12 +18031,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Bug_72" sheetId="42" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="215">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -14025,22 +14025,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Sơn] - Không cần apply format xlsx cho chức năng này vì khách hàng không yêu cầu mình làm. Thanks all.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
 </t>
     </r>
@@ -14080,10 +14064,6 @@
       <t>[Tâm] retest 29/5/2012 - Failed
 Khi click phân trang thì mất hết các record và phân trang</t>
     </r>
-  </si>
-  <si>
-    <t>Validation of viewstate MAC failed. If this application is hosted by a Web Farm or cluster, ensure that &lt;machineKey&gt; configuration specifies the same validationKey and validation algorithm. AutoGenerate cannot be used in a cluster.
-Mat session cua mot so page khi click thi hien trang loi tren</t>
   </si>
   <si>
     <r>
@@ -14548,6 +14528,23 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sơn] - Không cần apply format xlsx cho chức năng này vì khách hàng không yêu cầu mình làm. Thanks all.
+[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
 1. Không nhập gì và click vào icon insert
 </t>
@@ -14619,7 +14616,99 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-[Tâm] retest 28/5/2012 - Passed</t>
+[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Customer trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào icon Edit record
+    1. Xóa Full Name -&gt; click vào icon update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update lại, dữ liệu không thay đổi và chuyển xuống chờ approved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo
+   2. Sửa Phone number trùng với phone number của customer khác -&gt; click vào icon update
+Result: Update thành công, chuyển xuống chờ approved
+Expected: Hiện thông báo (vì customer không thể cho trùng phone number)</t>
     </r>
   </si>
 </sst>
@@ -14965,7 +15054,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15727,13 +15837,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:I107"/>
+  <dimension ref="B2:I106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15763,8 +15872,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
-        <f>COUNTIFS(F5:F19998,"=Close")</f>
-        <v>66</v>
+        <f>COUNTIFS(F5:F19997,"=Close")</f>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -15793,7 +15902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f>IF(D5="","",MAX($B$4:$B4)+1)</f>
         <v>1</v>
@@ -15818,7 +15927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>IF(D6="","",MAX($B$4:$B5)+1)</f>
         <v>2</v>
@@ -15843,7 +15952,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>IF(D7="","",MAX($B$4:$B6)+1)</f>
         <v>3</v>
@@ -15866,7 +15975,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f>IF(D8="","",MAX($B$4:$B7)+1)</f>
         <v>4</v>
@@ -15891,7 +16000,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>IF(D9="","",MAX($B$4:$B8)+1)</f>
         <v>5</v>
@@ -15916,7 +16025,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>IF(D10="","",MAX($B$4:$B9)+1)</f>
         <v>6</v>
@@ -15962,7 +16071,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f>IF(D12="","",MAX($B$4:$B11)+1)</f>
         <v>8</v>
@@ -15985,7 +16094,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>IF(D13="","",MAX($B$4:$B12)+1)</f>
         <v>9</v>
@@ -16008,7 +16117,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f>IF(D14="","",MAX($B$4:$B13)+1)</f>
         <v>10</v>
@@ -16033,7 +16142,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f>IF(D15="","",MAX($B$4:$B14)+1)</f>
         <v>11</v>
@@ -16056,7 +16165,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f>IF(D16="","",MAX($B$4:$B15)+1)</f>
         <v>12</v>
@@ -16106,7 +16215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f>IF(D18="","",MAX($B$4:$B17)+1)</f>
         <v>14</v>
@@ -16129,7 +16238,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
@@ -16152,7 +16261,7 @@
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f>IF(D20="","",MAX($B$4:$B19)+1)</f>
         <v>16</v>
@@ -16175,7 +16284,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f>IF(D21="","",MAX($B$4:$B20)+1)</f>
         <v>17</v>
@@ -16198,7 +16307,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f>IF(D22="","",MAX($B$4:$B21)+1)</f>
         <v>18</v>
@@ -16221,7 +16330,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f>IF(D23="","",MAX($B$4:$B22)+1)</f>
         <v>19</v>
@@ -16244,7 +16353,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>IF(D24="","",MAX($B$4:$B23)+1)</f>
         <v>20</v>
@@ -16267,7 +16376,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="375" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>IF(D25="","",MAX($B$4:$B24)+1)</f>
         <v>21</v>
@@ -16290,7 +16399,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f>IF(D26="","",MAX($B$4:$B25)+1)</f>
         <v>22</v>
@@ -16313,7 +16422,7 @@
       </c>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f>IF(D27="","",MAX($B$4:$B26)+1)</f>
         <v>23</v>
@@ -16359,7 +16468,7 @@
       </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="405" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f>IF(D29="","",MAX($B$4:$B28)+1)</f>
         <v>25</v>
@@ -16382,7 +16491,7 @@
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f>IF(D30="","",MAX($B$4:$B29)+1)</f>
         <v>26</v>
@@ -16405,7 +16514,7 @@
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f>IF(D31="","",MAX($B$4:$B30)+1)</f>
         <v>27</v>
@@ -16428,7 +16537,7 @@
       </c>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f>IF(D32="","",MAX($B$4:$B31)+1)</f>
         <v>28</v>
@@ -16451,7 +16560,7 @@
       </c>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f>IF(D33="","",MAX($B$4:$B32)+1)</f>
         <v>29</v>
@@ -16474,7 +16583,7 @@
       </c>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="300" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f>IF(D34="","",MAX($B$4:$B33)+1)</f>
         <v>30</v>
@@ -16497,7 +16606,7 @@
       </c>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f>IF(D35="","",MAX($B$4:$B34)+1)</f>
         <v>31</v>
@@ -16520,7 +16629,7 @@
       </c>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f>IF(D36="","",MAX($B$4:$B35)+1)</f>
         <v>32</v>
@@ -16543,7 +16652,7 @@
       </c>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="285" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f>IF(D37="","",MAX($B$4:$B36)+1)</f>
         <v>33</v>
@@ -16566,7 +16675,7 @@
       </c>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="255" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f>IF(D38="","",MAX($B$4:$B37)+1)</f>
         <v>34</v>
@@ -16612,7 +16721,7 @@
       </c>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f>IF(D40="","",MAX($B$4:$B39)+1)</f>
         <v>36</v>
@@ -16635,7 +16744,7 @@
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
@@ -16658,7 +16767,7 @@
       </c>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f>IF(D42="","",MAX($B$4:$B41)+1)</f>
         <v>38</v>
@@ -16681,7 +16790,7 @@
       </c>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f>IF(D43="","",MAX($B$4:$B42)+1)</f>
         <v>39</v>
@@ -16703,7 +16812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f>IF(D44="","",MAX($B$4:$B43)+1)</f>
         <v>40</v>
@@ -16725,7 +16834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="225" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f>IF(D45="","",MAX($B$4:$B44)+1)</f>
         <v>41</v>
@@ -16747,7 +16856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f>IF(D46="","",MAX($B$4:$B45)+1)</f>
         <v>42</v>
@@ -16769,7 +16878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
@@ -16791,7 +16900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f>IF(D48="","",MAX($B$4:$B47)+1)</f>
         <v>44</v>
@@ -16813,7 +16922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f>IF(D49="","",MAX($B$4:$B48)+1)</f>
         <v>45</v>
@@ -16835,7 +16944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f>IF(D50="","",MAX($B$4:$B49)+1)</f>
         <v>46</v>
@@ -16857,7 +16966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f>IF(D51="","",MAX($B$4:$B50)+1)</f>
         <v>47</v>
@@ -16879,7 +16988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f>IF(D52="","",MAX($B$4:$B51)+1)</f>
         <v>48</v>
@@ -16901,7 +17010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f>IF(D53="","",MAX($B$4:$B52)+1)</f>
         <v>49</v>
@@ -16923,7 +17032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f>IF(D54="","",MAX($B$4:$B53)+1)</f>
         <v>50</v>
@@ -16961,13 +17070,13 @@
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f>IF(D56="","",MAX($B$4:$B55)+1)</f>
         <v>52</v>
@@ -16989,7 +17098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f>IF(D57="","",MAX($B$4:$B56)+1)</f>
         <v>53</v>
@@ -17011,7 +17120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f>IF(D58="","",MAX($B$4:$B57)+1)</f>
         <v>54</v>
@@ -17052,7 +17161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="7" t="s">
         <v>70</v>
@@ -17063,7 +17172,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -17082,13 +17191,13 @@
         <v>17</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
         <v>57</v>
@@ -17110,7 +17219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
         <v>58</v>
@@ -17128,7 +17237,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
         <v>59</v>
@@ -17166,7 +17275,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
@@ -17188,13 +17297,13 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
         <v>62</v>
@@ -17216,7 +17325,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
         <v>63</v>
@@ -17238,7 +17347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
         <v>64</v>
@@ -17277,7 +17386,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="375" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
         <v>66</v>
@@ -17299,7 +17408,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
         <v>67</v>
@@ -17318,7 +17427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
         <v>68</v>
@@ -17334,7 +17443,7 @@
         <v>136</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
@@ -17356,13 +17465,13 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
         <v>70</v>
@@ -17401,7 +17510,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
         <v>72</v>
@@ -17419,7 +17528,7 @@
         <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
@@ -17441,13 +17550,13 @@
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f>IF(D79="","",MAX($B$4:$B78)+1)</f>
         <v>74</v>
@@ -17463,7 +17572,7 @@
         <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
@@ -17491,7 +17600,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
         <v>76</v>
@@ -17513,7 +17622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
         <v>77</v>
@@ -17551,7 +17660,7 @@
         <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
@@ -17573,7 +17682,7 @@
         <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
@@ -17617,13 +17726,13 @@
         <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
         <v>82</v>
@@ -17645,7 +17754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <f>IF(D88="","",MAX($B$4:$B87)+1)</f>
         <v>83</v>
@@ -17658,10 +17767,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
@@ -17752,14 +17861,16 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <f>IF(D94="","",MAX($B$4:$B93)+1)</f>
         <v>89</v>
       </c>
-      <c r="C94" s="7"/>
+      <c r="C94" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -17767,16 +17878,16 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <f>IF(D95="","",MAX($B$4:$B94)+1)</f>
         <v>90</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
@@ -17784,7 +17895,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="str">
         <f>IF(D96="","",MAX($B$4:$B95)+1)</f>
         <v/>
@@ -17795,7 +17906,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="str">
         <f>IF(D97="","",MAX($B$4:$B96)+1)</f>
         <v/>
@@ -17806,7 +17917,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="str">
         <f>IF(D98="","",MAX($B$4:$B97)+1)</f>
         <v/>
@@ -17817,7 +17928,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="str">
         <f>IF(D99="","",MAX($B$4:$B98)+1)</f>
         <v/>
@@ -17828,7 +17939,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="str">
         <f>IF(D100="","",MAX($B$4:$B99)+1)</f>
         <v/>
@@ -17839,7 +17950,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="str">
         <f>IF(D101="","",MAX($B$4:$B100)+1)</f>
         <v/>
@@ -17850,7 +17961,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="str">
         <f>IF(D102="","",MAX($B$4:$B101)+1)</f>
         <v/>
@@ -17861,7 +17972,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="str">
         <f>IF(D103="","",MAX($B$4:$B102)+1)</f>
         <v/>
@@ -17872,7 +17983,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="str">
         <f>IF(D104="","",MAX($B$4:$B103)+1)</f>
         <v/>
@@ -17883,7 +17994,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="str">
         <f>IF(D105="","",MAX($B$4:$B104)+1)</f>
         <v/>
@@ -17894,7 +18005,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="str">
         <f>IF(D106="","",MAX($B$4:$B105)+1)</f>
         <v/>
@@ -17905,45 +18016,28 @@
       <c r="F106" s="2"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="str">
-        <f>IF(D107="","",MAX($B$4:$B106)+1)</f>
-        <v/>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B4:G107">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:G106"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:G93 B94:B95 G94:G95 B96:G198">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="B5:G93 B97:G197 B95:E95 B96:C96 B94 G94:G96">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94:F94">
+  <conditionalFormatting sqref="C94:F94 F95">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F94="Close"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:F95">
+  <conditionalFormatting sqref="D96:F96">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F95="Close"</formula>
+      <formula>$F96="Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F106">
       <formula1>"Open, In-Progress, Close, Reopen"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="216">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -14709,6 +14709,82 @@
    2. Sửa Phone number trùng với phone number của customer khác -&gt; click vào icon update
 Result: Update thành công, chuyển xuống chờ approved
 Expected: Hiện thông báo (vì customer không thể cho trùng phone number)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi mất session , khi user click hiện trang báo lỗi ở một số nơi 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Hiện ra trang lỗi "Validation of viewstate MAC failed. If this application is hosted by a Web Farm or cluster, ensure that &lt;machineKey&gt; configuration specifies the same validationKey and validation algorithm. AutoGenerate cannot be used in a cluster."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Khi mất session thì khi user click phải chuyển về trang default.</t>
     </r>
   </si>
 </sst>
@@ -15840,7 +15916,7 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
@@ -17895,13 +17971,15 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="str">
+    <row r="96" spans="2:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
         <f>IF(D96="","",MAX($B$4:$B95)+1)</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -15130,63 +15130,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -15916,9 +15860,9 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17654,7 +17598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f>IF(D80="","",MAX($B$4:$B79)+1)</f>
         <v>75</v>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -10976,82 +10976,6 @@
   </si>
   <si>
     <r>
-      <t>[Tâm] retest 28/5/2012 - Passed
-Nhưng case  5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert -  hiện thông báo  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Can not save, change to another phone numer or UpiCode, try again later</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or contact administrator!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hiện tại đang dùng account của administrator thì không cần câ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u "or contact administrator! "</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lỗi trong chức năng Insert
 </t>
     </r>
@@ -14008,23 +13932,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Sơn] - Hiện tại khách hàng chưa áp dụng chức năng SMSQuota và ExpiredDate cho NV Sale của họ nên việc update ExpiredDate = ngày hiện tại vẫn ok.
-Về Region, Area, Local thì chỉ áp dụng cho Customer thôi, không áp dụng cho Salesmen. Nên nếu được thì có thể áp dụng POC và POS cho Salesmen là hợp lý nhất.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
 </t>
     </r>
@@ -14143,6 +14050,628 @@
     </r>
   </si>
   <si>
+    <t>[Tâm] retest 29/5/2012 - Passed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam - 28/05/2012] vẫn bị anh Đan ơi
+Anh đừng nhập gì cả và click Filter button thì thấy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da fixed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not add, please try again later or contact administrator! (tương tự bug 40)
+Sai ten fullname va trung so dt thi insert thanh cong
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] restest 29/05/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không mở được Form khi click vào icon Edit  salesmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   1. Login vào Account của Administrator
+   2. Click vào salesmen trên menu
+   3. Click vào icon Edit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Không hiện ra Form để Edit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Show ra Form Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Da sua message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+can not update, please try again later or contact admnistrator. (tương tự bug 41)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da sua msg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sơn] - Không cần apply format xlsx cho chức năng này vì khách hàng không yêu cầu mình làm. Thanks all.
+[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+1. Không nhập gì và click vào icon insert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> câu thông báo thiếu phone number
+2. Nhập Phone number đã tồn tại vẫn insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lỗi trong chức năng Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repro:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   - Login vào Account của Administrator
+   - Click vào Customer trên menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Click vào icon Edit record
+    1. Xóa Full Name -&gt; click vào icon update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đóng Form Update lại, dữ liệu không thay đổi và chuyển xuống chờ approved
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện thông báo
+   2. Sửa Phone number trùng với phone number của customer khác -&gt; click vào icon update
+Result: Update thành công, chuyển xuống chờ approved
+Expected: Hiện thông báo (vì customer không thể cho trùng phone number)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi mất session , khi user click hiện trang báo lỗi ở một số nơi 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Hiện ra trang lỗi "Validation of viewstate MAC failed. If this application is hosted by a Web Farm or cluster, ensure that &lt;machineKey&gt; configuration specifies the same validationKey and validation algorithm. AutoGenerate cannot be used in a cluster."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Khi mất session thì khi user click phải chuyển về trang default.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Tâm] retest 28/5/2012 - Passed
+Nhưng case  5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert -  hiện thông báo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Can not save, change to another phone numer or UpiCode, try again later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or contact administrator!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hiện tại đang dùng account của administrator thì không cần câ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u "or contact administrator! "
+[Dan] administrator o day la` nguoi maintain cai site, co`n user dang nhap vo Admin chi la` nguoi quan tri noi dung site thoi</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">[Tam - 28/05/2012]
 Passed đối với filter trong Inbox
@@ -14173,80 +14702,8 @@
       </rPr>
       <t xml:space="preserve">
 [Tâm] retest 29/5/2012 - Failed
-Nhập vào textbox rối click vào clear button vẫn không reser Form Filter</t>
-    </r>
-  </si>
-  <si>
-    <t>[Tâm] retest 29/5/2012 - Passed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi Filter theo To trong Outbox vẫn không được</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[dan] a cung ko nam ro chi biet cai table o tren dung GetManagerOfCustomer con cai table o duoi du`ng GetCustomerContact. Em co the hoi lai Son nha
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam] Thank anh, em sẽ hỏi lại anh Sơn</t>
+Nhập vào textbox rối click vào clear button vẫn không reser Form Filter
+[Dan] da fix</t>
     </r>
   </si>
   <si>
@@ -14278,49 +14735,8 @@
 [Tam] restest 29/05/2012 - Failed
 Vẫn còn anh Đan ơi, Ví dụ:
 - Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
-- Anh chọn Group là "select"  thì chỉ có Region disabled, còn lại Area và Local thì không</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] anh check tren WebSite thi` thay OK mac du` ko sua gi` het. Nen em test lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Tam - 28/05/2012] vẫn bị anh Đan ơi
-Anh đừng nhập gì cả và click Filter button thì thấy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] da fixed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Passed</t>
+- Anh chọn Group là "select"  thì chỉ có Region disabled, còn lại Area và Local thì không
+[dan] da fix</t>
     </r>
   </si>
   <si>
@@ -14354,181 +14770,13 @@
       <t>[Tam] restest 29/05/2012 - Failed
 Em test lại rồi nhưng ví dụ:
 - Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
-- Anh chọn Group là "select a group"  thì chỉ có Area và Local se disabled, còn lại Region thì vẫn hiện tất cả các record có trong Region, khi chọn Region thì Area sẽ được load lên</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-can not add, please try again later or contact administrator! (tương tự bug 40)
-Sai ten fullname va trung so dt thi insert thanh cong
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Hien nay anh chi check Phone Number va Upi Code thoi, ko co check full name. Ful name chi check la` required field. Em verify laiu cai bug na`y giup nhe, thanks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam] restest 29/05/2012 - Passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Không mở được Form khi click vào icon Edit  salesmen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   1. Login vào Account của Administrator
-   2. Click vào salesmen trên menu
-   3. Click vào icon Edit 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Result: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      Không hiện ra Form để Edit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-       Show ra Form Edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-can not add, provide new phone number or try again later or contact asministrator. (tương tự bug 40)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] Da sua message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Tâm] retest 29/5/2012 - Passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-can not update, please try again later or contact admnistrator. (tương tự bug 41)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] da sua msg
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] File dung de import phai dung dinh dang quy dinh nen ko the dung file khac de Import
+- Anh chọn Group là "select a group"  thì chỉ có Area và Local se disabled, còn lại Region thì vẫn hiện tất cả các record có trong Region, khi chọn Region thì Area sẽ được load lên
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay.
 </t>
     </r>
     <r>
@@ -14539,252 +14787,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Sơn] - Không cần apply format xlsx cho chức năng này vì khách hàng không yêu cầu mình làm. Thanks all.
-[Tâm] retest 29/5/2012 - Passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-1. Không nhập gì và click vào icon insert
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "Please provide UPI Code and Full Name"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> câu thông báo thiếu phone number
-2. Nhập Phone number đã tồn tại vẫn insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] da sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Tâm] retest 29/5/2012 - Passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi trong chức năng Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Repro:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   - Login vào Account của Administrator
-   - Click vào Customer trên menu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Click vào icon Edit record
-    1. Xóa Full Name -&gt; click vào icon update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đóng Form Update lại, dữ liệu không thay đổi và chuyển xuống chờ approved
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện thông báo
-   2. Sửa Phone number trùng với phone number của customer khác -&gt; click vào icon update
-Result: Update thành công, chuyển xuống chờ approved
-Expected: Hiện thông báo (vì customer không thể cho trùng phone number)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi mất session , khi user click hiện trang báo lỗi ở một số nơi 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     Hiện ra trang lỗi "Validation of viewstate MAC failed. If this application is hosted by a Web Farm or cluster, ensure that &lt;machineKey&gt; configuration specifies the same validationKey and validation algorithm. AutoGenerate cannot be used in a cluster."
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-       Khi mất session thì khi user click phải chuyển về trang default.</t>
+      <t xml:space="preserve">[Sơn] - Hiện tại khách hàng chưa áp dụng chức năng SMSQuota và ExpiredDate cho NV Sale của họ nên việc update ExpiredDate = ngày hiện tại vẫn ok.
+Về Region, Area, Local thì chỉ áp dụng cho Customer thôi, không áp dụng cho Salesmen. Nên nếu được thì có thể áp dụng POC và POS cho Salesmen là hợp lý nhất.
+</t>
     </r>
   </si>
 </sst>
@@ -15130,28 +15135,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -15857,12 +15841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15922,7 +15907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f>IF(D5="","",MAX($B$4:$B4)+1)</f>
         <v>1</v>
@@ -15947,7 +15932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>IF(D6="","",MAX($B$4:$B5)+1)</f>
         <v>2</v>
@@ -15972,7 +15957,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>IF(D7="","",MAX($B$4:$B6)+1)</f>
         <v>3</v>
@@ -15995,7 +15980,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f>IF(D8="","",MAX($B$4:$B7)+1)</f>
         <v>4</v>
@@ -16020,7 +16005,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>IF(D9="","",MAX($B$4:$B8)+1)</f>
         <v>5</v>
@@ -16045,7 +16030,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>IF(D10="","",MAX($B$4:$B9)+1)</f>
         <v>6</v>
@@ -16084,14 +16069,14 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f>IF(D12="","",MAX($B$4:$B11)+1)</f>
         <v>8</v>
@@ -16114,7 +16099,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>IF(D13="","",MAX($B$4:$B12)+1)</f>
         <v>9</v>
@@ -16137,7 +16122,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f>IF(D14="","",MAX($B$4:$B13)+1)</f>
         <v>10</v>
@@ -16162,7 +16147,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f>IF(D15="","",MAX($B$4:$B14)+1)</f>
         <v>11</v>
@@ -16185,7 +16170,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f>IF(D16="","",MAX($B$4:$B15)+1)</f>
         <v>12</v>
@@ -16208,7 +16193,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f>IF(D17="","",MAX($B$4:$B16)+1)</f>
         <v>13</v>
@@ -16226,7 +16211,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -16235,7 +16220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f>IF(D18="","",MAX($B$4:$B17)+1)</f>
         <v>14</v>
@@ -16258,7 +16243,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" s="26" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="26" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f>IF(D19="","",MAX($B$4:$B18)+1)</f>
         <v>15</v>
@@ -16281,7 +16266,7 @@
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f>IF(D20="","",MAX($B$4:$B19)+1)</f>
         <v>16</v>
@@ -16304,7 +16289,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f>IF(D21="","",MAX($B$4:$B20)+1)</f>
         <v>17</v>
@@ -16327,7 +16312,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f>IF(D22="","",MAX($B$4:$B21)+1)</f>
         <v>18</v>
@@ -16350,7 +16335,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f>IF(D23="","",MAX($B$4:$B22)+1)</f>
         <v>19</v>
@@ -16373,7 +16358,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>IF(D24="","",MAX($B$4:$B23)+1)</f>
         <v>20</v>
@@ -16396,7 +16381,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>IF(D25="","",MAX($B$4:$B24)+1)</f>
         <v>21</v>
@@ -16419,7 +16404,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f>IF(D26="","",MAX($B$4:$B25)+1)</f>
         <v>22</v>
@@ -16435,14 +16420,14 @@
         <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f>IF(D27="","",MAX($B$4:$B26)+1)</f>
         <v>23</v>
@@ -16458,7 +16443,7 @@
         <v>136</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -16481,14 +16466,14 @@
         <v>17</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f>IF(D29="","",MAX($B$4:$B28)+1)</f>
         <v>25</v>
@@ -16504,14 +16489,14 @@
         <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f>IF(D30="","",MAX($B$4:$B29)+1)</f>
         <v>26</v>
@@ -16534,7 +16519,7 @@
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f>IF(D31="","",MAX($B$4:$B30)+1)</f>
         <v>27</v>
@@ -16550,14 +16535,14 @@
         <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f>IF(D32="","",MAX($B$4:$B31)+1)</f>
         <v>28</v>
@@ -16573,14 +16558,14 @@
         <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f>IF(D33="","",MAX($B$4:$B32)+1)</f>
         <v>29</v>
@@ -16596,14 +16581,14 @@
         <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f>IF(D34="","",MAX($B$4:$B33)+1)</f>
         <v>30</v>
@@ -16619,14 +16604,14 @@
         <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f>IF(D35="","",MAX($B$4:$B34)+1)</f>
         <v>31</v>
@@ -16649,7 +16634,7 @@
       </c>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f>IF(D36="","",MAX($B$4:$B35)+1)</f>
         <v>32</v>
@@ -16658,21 +16643,21 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f>IF(D37="","",MAX($B$4:$B36)+1)</f>
         <v>33</v>
@@ -16688,14 +16673,14 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f>IF(D38="","",MAX($B$4:$B37)+1)</f>
         <v>34</v>
@@ -16711,7 +16696,7 @@
         <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -16734,14 +16719,14 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f>IF(D40="","",MAX($B$4:$B39)+1)</f>
         <v>36</v>
@@ -16757,14 +16742,14 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f>IF(D41="","",MAX($B$4:$B40)+1)</f>
         <v>37</v>
@@ -16780,14 +16765,14 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f>IF(D42="","",MAX($B$4:$B41)+1)</f>
         <v>38</v>
@@ -16803,14 +16788,14 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f>IF(D43="","",MAX($B$4:$B42)+1)</f>
         <v>39</v>
@@ -16826,13 +16811,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f>IF(D44="","",MAX($B$4:$B43)+1)</f>
         <v>40</v>
@@ -16848,13 +16833,13 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f>IF(D45="","",MAX($B$4:$B44)+1)</f>
         <v>41</v>
@@ -16870,13 +16855,13 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f>IF(D46="","",MAX($B$4:$B45)+1)</f>
         <v>42</v>
@@ -16892,13 +16877,13 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f>IF(D47="","",MAX($B$4:$B46)+1)</f>
         <v>43</v>
@@ -16914,13 +16899,13 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f>IF(D48="","",MAX($B$4:$B47)+1)</f>
         <v>44</v>
@@ -16936,13 +16921,13 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f>IF(D49="","",MAX($B$4:$B48)+1)</f>
         <v>45</v>
@@ -16958,13 +16943,13 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f>IF(D50="","",MAX($B$4:$B49)+1)</f>
         <v>46</v>
@@ -16980,13 +16965,13 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f>IF(D51="","",MAX($B$4:$B50)+1)</f>
         <v>47</v>
@@ -17002,13 +16987,13 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f>IF(D52="","",MAX($B$4:$B51)+1)</f>
         <v>48</v>
@@ -17024,13 +17009,13 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f>IF(D53="","",MAX($B$4:$B52)+1)</f>
         <v>49</v>
@@ -17046,13 +17031,13 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f>IF(D54="","",MAX($B$4:$B53)+1)</f>
         <v>50</v>
@@ -17083,20 +17068,20 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f>IF(D56="","",MAX($B$4:$B55)+1)</f>
         <v>52</v>
@@ -17118,7 +17103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f>IF(D57="","",MAX($B$4:$B56)+1)</f>
         <v>53</v>
@@ -17140,7 +17125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f>IF(D58="","",MAX($B$4:$B57)+1)</f>
         <v>54</v>
@@ -17178,7 +17163,7 @@
         <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17192,7 +17177,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -17211,13 +17196,13 @@
         <v>17</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f>IF(D62="","",MAX($B$4:$B61)+1)</f>
         <v>57</v>
@@ -17257,7 +17242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f>IF(D64="","",MAX($B$4:$B63)+1)</f>
         <v>59</v>
@@ -17266,14 +17251,14 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>145</v>
@@ -17295,7 +17280,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
@@ -17317,13 +17302,13 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f>IF(D67="","",MAX($B$4:$B66)+1)</f>
         <v>62</v>
@@ -17345,7 +17330,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f>IF(D68="","",MAX($B$4:$B67)+1)</f>
         <v>63</v>
@@ -17367,7 +17352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f>IF(D69="","",MAX($B$4:$B68)+1)</f>
         <v>64</v>
@@ -17406,7 +17391,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f>IF(D71="","",MAX($B$4:$B70)+1)</f>
         <v>66</v>
@@ -17415,7 +17400,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -17428,7 +17413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f>IF(D72="","",MAX($B$4:$B71)+1)</f>
         <v>67</v>
@@ -17444,10 +17429,10 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f>IF(D73="","",MAX($B$4:$B72)+1)</f>
         <v>68</v>
@@ -17463,7 +17448,7 @@
         <v>136</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
@@ -17485,13 +17470,13 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f>IF(D75="","",MAX($B$4:$B74)+1)</f>
         <v>70</v>
@@ -17530,7 +17515,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f>IF(D77="","",MAX($B$4:$B76)+1)</f>
         <v>72</v>
@@ -17548,13 +17533,13 @@
         <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="225" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
         <v>73</v>
@@ -17563,20 +17548,20 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f>IF(D79="","",MAX($B$4:$B78)+1)</f>
         <v>74</v>
@@ -17592,7 +17577,7 @@
         <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
@@ -17614,13 +17599,13 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f>IF(D81="","",MAX($B$4:$B80)+1)</f>
         <v>76</v>
@@ -17642,7 +17627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f>IF(D82="","",MAX($B$4:$B81)+1)</f>
         <v>77</v>
@@ -17664,7 +17649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f>IF(D83="","",MAX($B$4:$B82)+1)</f>
         <v>78</v>
@@ -17680,13 +17665,13 @@
         <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f>IF(D84="","",MAX($B$4:$B83)+1)</f>
         <v>79</v>
@@ -17702,13 +17687,13 @@
         <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
         <v>80</v>
@@ -17724,13 +17709,13 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f>IF(D86="","",MAX($B$4:$B85)+1)</f>
         <v>81</v>
@@ -17739,20 +17724,20 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f>IF(D87="","",MAX($B$4:$B86)+1)</f>
         <v>82</v>
@@ -17774,7 +17759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <f>IF(D88="","",MAX($B$4:$B87)+1)</f>
         <v>83</v>
@@ -17790,7 +17775,7 @@
         <v>136</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
@@ -17813,7 +17798,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <f>IF(D90="","",MAX($B$4:$B89)+1)</f>
         <v>85</v>
@@ -17830,7 +17815,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="390" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
         <v>86</v>
@@ -17839,7 +17824,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -17847,7 +17832,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <f>IF(D92="","",MAX($B$4:$B91)+1)</f>
         <v>87</v>
@@ -17873,7 +17858,7 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -17890,7 +17875,7 @@
         <v>121</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -17907,7 +17892,7 @@
         <v>131</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
@@ -17922,7 +17907,7 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -18039,7 +18024,13 @@
       <c r="G106" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G106"/>
+  <autoFilter ref="B4:G106">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -14,11 +14,12 @@
     <sheet name="Bug_11" sheetId="40" r:id="rId5"/>
     <sheet name="Bug_14" sheetId="41" r:id="rId6"/>
     <sheet name="Bug_72" sheetId="42" r:id="rId7"/>
+    <sheet name="Bug_91" sheetId="43" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="217">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -14791,6 +14792,9 @@
 Về Region, Area, Local thì chỉ áp dụng cho Customer thôi, không áp dụng cho Salesmen. Nên nếu được thì có thể áp dụng POC và POS cho Salesmen là hợp lý nhất.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Bug_91</t>
   </si>
 </sst>
 </file>
@@ -15554,6 +15558,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>135215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="114300"/>
+          <a:ext cx="10058400" cy="4402415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15845,9 +15898,9 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17909,7 +17962,9 @@
       <c r="D96" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
     </row>
@@ -18026,7 +18081,7 @@
   </sheetData>
   <autoFilter ref="B4:G106">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="Open"/>
       </filters>
     </filterColumn>
@@ -18061,6 +18116,7 @@
     <hyperlink ref="E14" location="Bug_11!A1" display="Bug_11"/>
     <hyperlink ref="E17" location="Bug_14!A1" display="Bug_14"/>
     <hyperlink ref="E77" location="Bug_72!A1" display="Bug_72"/>
+    <hyperlink ref="E96" location="Bug_91!A1" display="Bug_91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18148,4 +18204,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="219">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -13082,175 +13082,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-4. Nhập vào  SMS Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-    6.  Update Syntax tồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo 
-[Sybtax trong SMS] không được phép trùng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan -05/28] Da sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Tâm] retest 29/5/2012 - Failed
-Vẫn hiển thị msg trên</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
     3. Nhập vào Section Name với giá trị đã tồn tại
 </t>
     </r>
@@ -13932,179 +13763,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Dan] OK em, da fixed. Sorry
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi click phân trang thì mất hết các record và phân trang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] loi du lieu NULL, da fix</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi Filter theo To trong Outbox vẫn không được</t>
-    </r>
-  </si>
-  <si>
     <t>[Tâm] retest 29/5/2012 - Passed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi Filter theo To trong Outbox vẫn không được</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -14796,12 +14455,366 @@
   <si>
     <t>Bug_91</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhập vào  SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+    6.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo 
+[Sybtax trong SMS] không được phép trùng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan -05/28] Da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Failed
+Vẫn hiển thị msg trên
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được
+[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Dan] OK em, da fixed. Sorry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi click phân trang thì mất hết các record và phân trang
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] loi du lieu NULL, da fix</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được
+[Dan] da sua</t>
+    </r>
+  </si>
+  <si>
+    <t>[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks</t>
+  </si>
+  <si>
+    <t>[dan] em check lai anh business rule cho nay nha. 
+1. Khi admin tao dashboard se assign cho Salesmen then phone number
+2. Khi sales men vo xoa cai dashboard cua ho thi` cai dashboard do duoc xoa va ngay ca Admin cung ko thay vi da bi xoa
+3. Salesmen khac hoan toaan ko bi anh huong</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14914,14 +14927,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -14962,7 +14967,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14990,6 +14995,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15041,7 +15052,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15121,9 +15132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -15132,6 +15140,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15898,9 +15915,9 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15917,14 +15934,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -16122,7 +16139,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
@@ -16264,7 +16281,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -16519,7 +16536,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -16772,7 +16789,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16795,7 +16812,7 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -16818,7 +16835,7 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16841,7 +16858,7 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16864,7 +16881,7 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16886,7 +16903,7 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16908,7 +16925,7 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16930,7 +16947,7 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16952,7 +16969,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16974,7 +16991,7 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -16996,7 +17013,7 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -17018,7 +17035,7 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -17040,7 +17057,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -17062,7 +17079,7 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -17084,7 +17101,7 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -17128,9 +17145,9 @@
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H55" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" s="27" t="s">
         <v>144</v>
       </c>
     </row>
@@ -17200,22 +17217,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
+    <row r="59" spans="2:8" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B59" s="30">
         <f>IF(D59="","",MAX($B$4:$B58)+1)</f>
         <v>55</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="E59" s="30"/>
+      <c r="F59" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="31" t="s">
         <v>165</v>
       </c>
     </row>
@@ -17230,7 +17247,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -17249,10 +17266,10 @@
         <v>17</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>56</v>
+        <v>215</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
@@ -17313,7 +17330,7 @@
       <c r="G64" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -17333,7 +17350,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
@@ -17355,7 +17372,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
@@ -17427,22 +17444,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B70" s="2">
+    <row r="70" spans="2:8" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B70" s="30">
         <f>IF(D70="","",MAX($B$4:$B69)+1)</f>
         <v>65</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="31"/>
     </row>
     <row r="71" spans="2:8" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
@@ -17501,7 +17518,7 @@
         <v>136</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
@@ -17523,7 +17540,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
@@ -17551,22 +17568,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B76" s="2">
+    <row r="76" spans="2:8" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B76" s="30">
         <f>IF(D76="","",MAX($B$4:$B75)+1)</f>
         <v>71</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E76" s="30"/>
+      <c r="F76" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="7"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
@@ -17586,7 +17603,7 @@
         <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
@@ -17608,7 +17625,7 @@
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
@@ -17630,7 +17647,7 @@
         <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
@@ -17652,7 +17669,7 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>147</v>
@@ -17718,7 +17735,7 @@
         <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
@@ -17740,7 +17757,7 @@
         <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
@@ -17784,7 +17801,7 @@
         <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
@@ -17828,7 +17845,7 @@
         <v>136</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
@@ -17850,6 +17867,9 @@
         <v>17</v>
       </c>
       <c r="G89" s="7"/>
+      <c r="H89" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="90" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
@@ -17867,6 +17887,9 @@
         <v>17</v>
       </c>
       <c r="G90" s="7"/>
+      <c r="H90" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="91" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
@@ -17884,6 +17907,9 @@
         <v>17</v>
       </c>
       <c r="G91" s="7"/>
+      <c r="H91" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="92" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
@@ -17900,7 +17926,9 @@
       <c r="F92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
@@ -17917,7 +17945,9 @@
       <c r="F93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="7"/>
+      <c r="G93" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="94" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
@@ -17928,13 +17958,16 @@
         <v>121</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G94" s="7"/>
+      <c r="H94" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="95" spans="2:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
@@ -17945,13 +17978,16 @@
         <v>131</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="7"/>
+      <c r="H95" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="96" spans="2:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
@@ -17960,10 +17996,10 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -10428,89 +10428,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Không hiện ra field From khi send cho nhiều user </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   - Login vào Account của Administrator/salesmen
-   - Click vào Promotion trên menu
-   - Click vào Compose
-   - Nhập đầy đủ các field và chọn nhiều phone number
-   - Click vào "Send SMS" button
-   - Login vào Account vừa được gửi sms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-    Hiện record sms vừa gửi, nhưng cột FROM là null
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     Hiện record sms vừa gửi, nhưng cột FROM phải GET lên tên của người gửi</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Trong Filter chọn customer, salemen hoặc Administrator
 </t>
     </r>
@@ -14801,13 +14718,97 @@
     </r>
   </si>
   <si>
-    <t>[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks</t>
-  </si>
-  <si>
     <t>[dan] em check lai anh business rule cho nay nha. 
 1. Khi admin tao dashboard se assign cho Salesmen then phone number
 2. Khi sales men vo xoa cai dashboard cua ho thi` cai dashboard do duoc xoa va ngay ca Admin cung ko thay vi da bi xoa
 3. Salesmen khac hoan toaan ko bi anh huong</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không hiện ra field From khi send cho nhiều user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Login vào Account của Administrator/salesmen
+   - Click vào SMS List trên menu
+   - Click vào Compose
+   - Nhập đầy đủ các field và chọn nhiều phone number
+   - Click vào "Send SMS" button
+   - Login vào Account vừa được gửi sms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    Hiện record sms vừa gửi, nhưng cột FROM là null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     Hiện record sms vừa gửi, nhưng cột FROM phải GET lên tên của người gửi</t>
+    </r>
+  </si>
+  <si>
+    <t>[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks
+[Tam] Em đã chỉnh lại rồi đó anh, thanks</t>
   </si>
 </sst>
 </file>
@@ -15138,9 +15139,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15149,6 +15147,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15915,9 +15916,9 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15934,14 +15935,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
@@ -16139,7 +16140,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
@@ -16281,7 +16282,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -16322,14 +16323,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>56</v>
@@ -16460,7 +16461,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
@@ -16490,7 +16491,7 @@
         <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -16513,7 +16514,7 @@
         <v>136</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
@@ -16526,7 +16527,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>143</v>
@@ -16536,7 +16537,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -16549,7 +16550,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>140</v>
@@ -16559,7 +16560,7 @@
         <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -16605,7 +16606,7 @@
         <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -16628,7 +16629,7 @@
         <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -16651,7 +16652,7 @@
         <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -16674,7 +16675,7 @@
         <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -16713,14 +16714,14 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -16743,7 +16744,7 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -16766,7 +16767,7 @@
         <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
@@ -16789,7 +16790,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16812,7 +16813,7 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -16835,7 +16836,7 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16858,7 +16859,7 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16881,7 +16882,7 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16903,7 +16904,7 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16925,7 +16926,7 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16947,7 +16948,7 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16969,7 +16970,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16991,7 +16992,7 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -17013,7 +17014,7 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -17035,7 +17036,7 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -17057,7 +17058,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -17079,7 +17080,7 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -17101,7 +17102,7 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -17138,14 +17139,14 @@
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>144</v>
@@ -17217,23 +17218,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B59" s="30">
+    <row r="59" spans="2:8" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B59" s="29">
         <f>IF(D59="","",MAX($B$4:$B58)+1)</f>
         <v>55</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30" t="s">
+      <c r="E59" s="29"/>
+      <c r="F59" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="31" t="s">
-        <v>165</v>
+      <c r="G59" s="30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17247,7 +17248,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -17266,7 +17267,7 @@
         <v>17</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>146</v>
@@ -17321,14 +17322,14 @@
         <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H64" s="28" t="s">
         <v>145</v>
@@ -17350,7 +17351,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
@@ -17372,7 +17373,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
@@ -17444,22 +17445,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B70" s="30">
+    <row r="70" spans="2:8" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B70" s="29">
         <f>IF(D70="","",MAX($B$4:$B69)+1)</f>
         <v>65</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30" t="s">
+      <c r="E70" s="29"/>
+      <c r="F70" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="31"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="2:8" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
@@ -17470,7 +17471,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -17499,7 +17500,7 @@
         <v>136</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
@@ -17518,7 +17519,7 @@
         <v>136</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
@@ -17540,7 +17541,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
@@ -17568,22 +17569,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B76" s="30">
+    <row r="76" spans="2:8" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B76" s="29">
         <f>IF(D76="","",MAX($B$4:$B75)+1)</f>
         <v>71</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30" t="s">
+      <c r="E76" s="29"/>
+      <c r="F76" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="31"/>
+      <c r="G76" s="30"/>
     </row>
     <row r="77" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
@@ -17603,7 +17604,7 @@
         <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
@@ -17618,14 +17619,14 @@
         <v>121</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
@@ -17647,7 +17648,7 @@
         <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
@@ -17669,7 +17670,7 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>147</v>
@@ -17735,7 +17736,7 @@
         <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
@@ -17757,7 +17758,7 @@
         <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
@@ -17779,7 +17780,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>146</v>
@@ -17794,14 +17795,14 @@
         <v>131</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
@@ -17845,7 +17846,7 @@
         <v>136</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
@@ -17900,7 +17901,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -17920,14 +17921,14 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
@@ -17939,14 +17940,14 @@
         <v>75</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="135" x14ac:dyDescent="0.25">
@@ -17958,7 +17959,7 @@
         <v>121</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -17978,7 +17979,7 @@
         <v>131</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
@@ -17996,10 +17997,10 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="220">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -12663,11 +12663,6 @@
     </r>
   </si>
   <si>
-    <t>[Tâm] retest 28/5/2012 - Failed
-Vẫn còn như mô tả
-[Dan] da sua</t>
-  </si>
-  <si>
     <t>[Tâm] retest 28/5/2012 - Passed
 Nhưng case  3. Nhập vào Name với giá trị đã tồn tại hiện thông báo khó hiểu " Can not add, please provide new name or try again or contact administrator! "
 --&gt; có thể thông báo "giá trị đã tồn tại, vui lòng nhập tên khác" vì hiện tại đang dùng account của administrator thì không cần câu "or contact administrator! "
@@ -14173,151 +14168,6 @@
   </si>
   <si>
     <r>
-      <t>[Tâm] retest 28/5/2012 - Passed
-Nhưng case  5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert -  hiện thông báo  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Can not save, change to another phone numer or UpiCode, try again later</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or contact administrator!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hiện tại đang dùng account của administrator thì không cần câ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u "or contact administrator! "
-[Dan] administrator o day la` nguoi maintain cai site, co`n user dang nhap vo Admin chi la` nguoi quan tri noi dung site thoi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tam - 28/05/2012]
-Passed đối với filter trong Inbox
-Failed đối với Filter trong Outbox
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] da fix</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Tâm] retest 29/5/2012 - Failed
-Nhập vào textbox rối click vào clear button vẫn không reser Form Filter
-[Dan] da fix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-Vẫn còn như mô tả
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Tam] restest 29/05/2012 - Failed
-Vẫn còn anh Đan ơi, Ví dụ:
-- Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
-- Anh chọn Group là "select"  thì chỉ có Region disabled, còn lại Area và Local thì không
-[dan] da fix</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
 Trong Add new vẫn còn lỗi
 reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
@@ -14371,351 +14221,6 @@
   </si>
   <si>
     <t>Bug_91</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Repro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Nhập vào  SMS Type với giá trị đã tồn tại
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hiện câu thông báo "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
-    6.  Update Syntax tồn tại, click vào icon Update
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Insert thành công
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hiển thị câu thông báo 
-[Sybtax trong SMS] không được phép trùng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan -05/28] Da sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Tâm] retest 29/5/2012 - Failed
-Vẫn hiển thị msg trên
-[Dan] da sua</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi Filter theo To trong Outbox vẫn không được
-[Dan] da sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[Dan] OK em, da fixed. Sorry
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi click phân trang thì mất hết các record và phân trang
-[Dan] da sua</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Tam - 28/5/2012 ]
-1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
-2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Dan] loi du lieu NULL, da fix</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tâm] retest 29/5/2012 - Failed
-Khi Filter theo To trong Outbox vẫn không được
-[Dan] da sua</t>
-    </r>
   </si>
   <si>
     <t>[dan] em check lai anh business rule cho nay nha. 
@@ -14807,8 +14312,674 @@
     </r>
   </si>
   <si>
-    <t>[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks
-[Tam] Em đã chỉnh lại rồi đó anh, thanks</t>
+    <r>
+      <t>[Tâm] retest 28/5/2012 - Passed
+Nhưng case  5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nhập đầy đủ các field với phone đã tồn tại, click vào icon Insert -  hiện thông báo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Can not save, change to another phone numer or UpiCode, try again later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or contact administrator!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hiện tại đang dùng account của administrator thì không cần câ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u "or contact administrator! "
+[Dan] administrator o day la` nguoi maintain cai site, co`n user dang nhap vo Admin chi la` nguoi quan tri noi dung site thoi
+[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhập vào  SMS Type với giá trị đã tồn tại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiện câu thông báo "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can not update, please try again later or contact admnistrator. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiện câu thông báo "giá trị đã tồn tại, vui lòng nhập giá trị khác"
+    6.  Update Syntax tồn tại, click vào icon Update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Insert thành công
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị câu thông báo 
+[Sybtax trong SMS] không được phép trùng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan -05/28] Da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Failed
+Vẫn hiển thị msg trên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] do du lieu bi RAC, co 1 so row co Sender name la` NULL nen code cu~ ko chay duoc =&gt; da fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Code hien nay da~ lay het du lieu, ko co han che, em check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam - 28/05/2012] Em đã re-test lại thì khi em tạo supervisors của customer là 11 record thì bên customer chỉ hiển thị 10 record thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Dan] OK em, da fixed. Sorry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tâm] retest 29/5/2012 - Failed
+Khi click phân trang thì mất hết các record và phân trang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] He thong da support filter theo % nen nguoi dung ko can nhap %% de filter, neu van nhap se ko filter duoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam - 28/5/2012 ]
+1. Em chỉ nhập đúng tên của người gửi không dùng ký tự % khi search, nhưng kết quả sau khi click vào filter button thì không filter (chỉ đối với trường hợp chọn filter theo "by From" hoặc "by to" 
+2. %% ở result em để đó là điều kiện khi hiển thị kết quả mong muốn dành cho filter phải là like %String% vì like String khác với like %String%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] loi du lieu NULL, da fix</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tâm] retest 29/5/2012 - Failed
+Khi Filter theo To trong Outbox vẫn không được
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da sua
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/05/2012]
+Passed đối với filter trong Inbox
+Failed đối với Filter trong Outbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da fix</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tâm] retest 29/5/2012 - Failed
+Nhập vào textbox rồi click vào clear button vẫn không reser Form Filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da fix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] Em checked lai giup nha, no hoi cham thoi chu van work duoc, anh da verified tren web site roi, thanks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tam] restest 29/05/2012 - Failed
+Vẫn còn anh Đan ơi, Ví dụ:
+- Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
+- Anh chọn Group là "select"  thì chỉ có Region disabled, còn lại Area và Local thì không
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[dan] da fix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+Vẫn còn như mô tả
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da sua
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tâm] retest 30/5/2012 - Passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] Em đã chỉnh lại rồi đó anh, thanks</t>
+    </r>
+  </si>
+  <si>
+    <t>[Tâm] retest 30/5/2012 - Passed</t>
   </si>
 </sst>
 </file>
@@ -15157,7 +15328,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15915,10 +16107,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:I106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15949,7 +16141,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F19997,"=Close")</f>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -16140,7 +16332,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
@@ -16282,7 +16474,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -16491,7 +16683,7 @@
         <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>56</v>
@@ -16514,14 +16706,14 @@
         <v>136</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f>IF(D28="","",MAX($B$4:$B27)+1)</f>
         <v>24</v>
@@ -16534,10 +16726,10 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -16560,7 +16752,7 @@
         <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>56</v>
@@ -16606,7 +16798,7 @@
         <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>56</v>
@@ -16629,7 +16821,7 @@
         <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>56</v>
@@ -16652,7 +16844,7 @@
         <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>56</v>
@@ -16675,7 +16867,7 @@
         <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
@@ -16721,7 +16913,7 @@
         <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>56</v>
@@ -16744,7 +16936,7 @@
         <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>56</v>
@@ -16767,14 +16959,14 @@
         <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="2:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f>IF(D39="","",MAX($B$4:$B38)+1)</f>
         <v>35</v>
@@ -16787,10 +16979,10 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -16813,7 +17005,7 @@
         <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>56</v>
@@ -16836,7 +17028,7 @@
         <v>136</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>56</v>
@@ -16859,7 +17051,7 @@
         <v>136</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>56</v>
@@ -16882,7 +17074,7 @@
         <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>56</v>
@@ -16904,7 +17096,7 @@
         <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>56</v>
@@ -16926,7 +17118,7 @@
         <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>56</v>
@@ -16948,7 +17140,7 @@
         <v>136</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>56</v>
@@ -16970,7 +17162,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>56</v>
@@ -16992,7 +17184,7 @@
         <v>136</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>56</v>
@@ -17014,7 +17206,7 @@
         <v>136</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>56</v>
@@ -17036,7 +17228,7 @@
         <v>136</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>56</v>
@@ -17058,7 +17250,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>56</v>
@@ -17080,7 +17272,7 @@
         <v>136</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>56</v>
@@ -17102,7 +17294,7 @@
         <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>56</v>
@@ -17130,7 +17322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f>IF(D55="","",MAX($B$4:$B54)+1)</f>
         <v>51</v>
@@ -17143,10 +17335,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>144</v>
@@ -17237,21 +17429,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="7" t="s">
+    <row r="60" spans="2:8" s="26" customFormat="1" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
+      <c r="C60" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="7" t="s">
-        <v>196</v>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f>IF(D61="","",MAX($B$4:$B60)+1)</f>
         <v>56</v>
@@ -17264,10 +17458,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>146</v>
@@ -17295,7 +17489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f>IF(D63="","",MAX($B$4:$B62)+1)</f>
         <v>58</v>
@@ -17307,8 +17501,12 @@
         <v>77</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="7"/>
+      <c r="F63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H63" s="13" t="s">
         <v>146</v>
       </c>
@@ -17335,7 +17533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f>IF(D65="","",MAX($B$4:$B64)+1)</f>
         <v>60</v>
@@ -17348,16 +17546,16 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f>IF(D66="","",MAX($B$4:$B65)+1)</f>
         <v>61</v>
@@ -17370,10 +17568,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
@@ -17519,13 +17717,13 @@
         <v>136</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f>IF(D74="","",MAX($B$4:$B73)+1)</f>
         <v>69</v>
@@ -17538,10 +17736,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
@@ -17604,7 +17802,7 @@
         <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
@@ -17626,7 +17824,7 @@
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
@@ -17648,7 +17846,7 @@
         <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
@@ -17670,7 +17868,7 @@
         <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>147</v>
@@ -17736,7 +17934,7 @@
         <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
@@ -17758,13 +17956,13 @@
         <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f>IF(D85="","",MAX($B$4:$B84)+1)</f>
         <v>80</v>
@@ -17777,10 +17975,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>146</v>
@@ -17802,7 +18000,7 @@
         <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
@@ -17846,13 +18044,13 @@
         <v>136</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <f>IF(D89="","",MAX($B$4:$B88)+1)</f>
         <v>84</v>
@@ -17865,14 +18063,16 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H89" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <f>IF(D90="","",MAX($B$4:$B89)+1)</f>
         <v>85</v>
@@ -17885,14 +18085,16 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H90" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <f>IF(D91="","",MAX($B$4:$B90)+1)</f>
         <v>86</v>
@@ -17905,9 +18107,11 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H91" s="13" t="s">
         <v>146</v>
       </c>
@@ -17921,7 +18125,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -17947,10 +18151,10 @@
         <v>17</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <f>IF(D94="","",MAX($B$4:$B93)+1)</f>
         <v>89</v>
@@ -17959,18 +18163,20 @@
         <v>121</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H94" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <f>IF(D95="","",MAX($B$4:$B94)+1)</f>
         <v>90</v>
@@ -17979,13 +18185,15 @@
         <v>131</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H95" s="13" t="s">
         <v>146</v>
       </c>
@@ -17997,10 +18205,10 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
@@ -18118,7 +18326,7 @@
   </sheetData>
   <autoFilter ref="B4:G106">
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
         <filter val="Open"/>
       </filters>
     </filterColumn>
@@ -18126,18 +18334,18 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:G93 B97:G197 B95:E95 B96:C96 B94 G94:G96">
-    <cfRule type="expression" dxfId="2" priority="8">
+  <conditionalFormatting sqref="B97:G197 B95:E95 B96:C96 B94 G94:G96 B5:G93">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:F94 F95">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$F94="Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:F96">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F96="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -14223,12 +14223,6 @@
     <t>Bug_91</t>
   </si>
   <si>
-    <t>[dan] em check lai anh business rule cho nay nha. 
-1. Khi admin tao dashboard se assign cho Salesmen then phone number
-2. Khi sales men vo xoa cai dashboard cua ho thi` cai dashboard do duoc xoa va ngay ca Admin cung ko thay vi da bi xoa
-3. Salesmen khac hoan toaan ko bi anh huong</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Không hiện ra field From khi send cho nhiều user </t>
     </r>
@@ -14980,6 +14974,14 @@
   </si>
   <si>
     <t>[Tâm] retest 30/5/2012 - Passed</t>
+  </si>
+  <si>
+    <t>[dan] em check lai anh business rule cho nay nha. 
+1. Khi admin tao dashboard se assign cho Salesmen then phone number
+2. Khi sales men vo xoa cai dashboard cua ho thi` cai dashboard do duoc xoa va ngay ca Admin cung ko thay vi da bi xoa
+3. Salesmen khac hoan toan ko bi anh huong
+[Tam] Re-test 30/05/2012 
+Okie anh, em đã check lại, vì khi gửi cho nhiều salesmen thì sẽ tạo các record khác nhau</t>
   </si>
 </sst>
 </file>
@@ -15328,28 +15330,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -16108,9 +16089,9 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16141,7 +16122,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F19997,"=Close")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -16729,7 +16710,7 @@
         <v>136</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -16982,7 +16963,7 @@
         <v>136</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -17338,7 +17319,7 @@
         <v>136</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>144</v>
@@ -17461,7 +17442,7 @@
         <v>136</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>146</v>
@@ -17505,7 +17486,7 @@
         <v>136</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>146</v>
@@ -17549,7 +17530,7 @@
         <v>136</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
@@ -17571,7 +17552,7 @@
         <v>136</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
@@ -17739,7 +17720,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
@@ -17978,7 +17959,7 @@
         <v>136</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>146</v>
@@ -18066,7 +18047,7 @@
         <v>136</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>146</v>
@@ -18088,7 +18069,7 @@
         <v>136</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>146</v>
@@ -18110,7 +18091,7 @@
         <v>136</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>146</v>
@@ -18125,17 +18106,17 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <f>IF(D93="","",MAX($B$4:$B92)+1)</f>
         <v>88</v>
@@ -18148,10 +18129,10 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -18170,7 +18151,7 @@
         <v>136</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>146</v>
@@ -18192,7 +18173,7 @@
         <v>136</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>146</v>
@@ -18335,17 +18316,17 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B97:G197 B95:E95 B96:C96 B94 G94:G96 B5:G93">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$F5="Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:F94 F95">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F94="Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:F96">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F96="Close"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -14956,23 +14956,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam] Em đã chỉnh lại rồi đó anh, thanks</t>
-    </r>
-  </si>
-  <si>
     <t>[Tâm] retest 30/5/2012 - Passed</t>
   </si>
   <si>
@@ -14982,6 +14965,24 @@
 3. Salesmen khac hoan toan ko bi anh huong
 [Tam] Re-test 30/05/2012 
 Okie anh, em đã check lại, vì khi gửi cho nhiều salesmen thì sẽ tạo các record khác nhau</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] Em đã chỉnh lại rồi đó anh, thanks
+[dan] da sua</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -16088,10 +16089,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:I106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17409,6 +17410,9 @@
       <c r="G59" s="30" t="s">
         <v>164</v>
       </c>
+      <c r="H59" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="60" spans="2:8" s="26" customFormat="1" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="22"/>
@@ -17486,7 +17490,7 @@
         <v>136</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>146</v>
@@ -17640,6 +17644,9 @@
         <v>17</v>
       </c>
       <c r="G70" s="30"/>
+      <c r="H70" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="71" spans="2:8" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
@@ -17764,6 +17771,9 @@
         <v>17</v>
       </c>
       <c r="G76" s="30"/>
+      <c r="H76" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="77" spans="2:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
@@ -18047,7 +18057,7 @@
         <v>136</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>146</v>
@@ -18069,7 +18079,7 @@
         <v>136</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>146</v>
@@ -18091,7 +18101,7 @@
         <v>136</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>146</v>
@@ -18113,7 +18123,10 @@
         <v>17</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -18132,7 +18145,7 @@
         <v>136</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -18151,7 +18164,7 @@
         <v>136</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>146</v>
@@ -18173,7 +18186,7 @@
         <v>136</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>146</v>
@@ -18193,6 +18206,9 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
+      <c r="H96" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="str">
@@ -18307,7 +18323,7 @@
   </sheetData>
   <autoFilter ref="B4:G106">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="Open"/>
       </filters>
     </filterColumn>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -13628,53 +13628,6 @@
 [Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] em check voi Son giup anh case na`y nhe, thanks em
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Sơn] - Theo yêu cầu thì Salesmen vẫn verify password và phone luôn đó Đan. Có thể do developer trước làm thiếu nên mới xảy ra bug này. Đan fix giúp Sơn nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tam - 28/05/2012] vậy sao không thêm điều kiện khi get "phone number (1)"
-- phone number (1) sẽ hiển thị theo điều kiện là chỉ count những số phone nào được chọn và hiện tại đang tồn tại -&gt; để khi User xem chi tiet nó thống nhất về con số được count hơn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Sơn] - Trường hợp này sẽ xảy ra nếu tạo promotions xong rồi sau đó nhân viên sale nghỉ việc hoặc customer bị xóa đi. Cho nên khi click vào số phone sẽ không có thông tin gì để hiển thị vì không tìm thấy record trong database.</t>
-    </r>
-  </si>
-  <si>
     <t>[Tâm] retest 29/5/2012 - Passed</t>
   </si>
   <si>
@@ -14164,59 +14117,6 @@
       </rPr>
       <t xml:space="preserve">
        Khi mất session thì khi user click phải chuyển về trang default.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
-Trong Add new vẫn còn lỗi
-reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Tam] restest 29/05/2012 - Failed
-Em test lại rồi nhưng ví dụ:
-- Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
-- Anh chọn Group là "select a group"  thì chỉ có Area và Local se disabled, còn lại Region thì vẫn hiện tất cả các record có trong Region, khi chọn Region thì Area sẽ được load lên
-[Dan] da sua</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Hiện tại khách hàng chưa áp dụng chức năng SMSQuota và ExpiredDate cho NV Sale của họ nên việc update ExpiredDate = ngày hiện tại vẫn ok.
-Về Region, Area, Local thì chỉ áp dụng cho Customer thôi, không áp dụng cho Salesmen. Nên nếu được thì có thể áp dụng POC và POS cho Salesmen là hợp lý nhất.
-</t>
     </r>
   </si>
   <si>
@@ -14968,6 +14868,166 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">[Tâm] retest 28/5/2012 - Failed
+Trong Add new vẫn còn lỗi
+reset các cấp dưới nhưng cấp con thì ko vẫn không (VD: chọn Region thì Local se được reset nhưng Area thì không)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[dan] Khi chon 1 cap thi` cap con thu 1 se duoc populate theo co`n cap con thu 2 moi phai clear all. Do do khi em chon Region thi` Area se duoc populate theo selected item cua Region va Local se duoc reset. Em checked lai giup anh nhe, thanks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Tam] restest 29/05/2012 - Failed
+Em test lại rồi nhưng ví dụ:
+- Anh chọn Group -&gt; chọn Region -&gt; chọn Area -&gt; chọn Local
+- Anh chọn Group là "select a group"  thì chỉ có Area và Local se disabled, còn lại Region thì vẫn hiện tất cả các record có trong Region, khi chọn Region thì Area sẽ được load lên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Dan] da sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[Tam] re-test 31/05/2012 - passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam - 28/05/2012] vậy sao không thêm điều kiện khi get "phone number (1)"
+- phone number (1) sẽ hiển thị theo điều kiện là chỉ count những số phone nào được chọn và hiện tại đang tồn tại -&gt; để khi User xem chi tiet nó thống nhất về con số được count hơn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Trường hợp này sẽ xảy ra nếu tạo promotions xong rồi sau đó nhân viên sale nghỉ việc hoặc customer bị xóa đi. Cho nên khi click vào số phone sẽ không có thông tin gì để hiển thị vì không tìm thấy record trong database.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam]  Retest 31/05/21012 - Okie em sẽ close bug này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Dan] Voi cach to chuc du lieu nhu hien nay ko the load len dung duoc Region, Area, Local cua Salemem. Do do phai doi schema hien tai thi moi fix duoc bug nay.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Hiện tại khách hàng chưa áp dụng chức năng SMSQuota và ExpiredDate cho NV Sale của họ nên việc update ExpiredDate = ngày hiện tại vẫn ok.
+Về Region, Area, Local thì chỉ áp dụng cho Customer thôi, không áp dụng cho Salesmen. Nên nếu được thì có thể áp dụng POC và POS cho Salesmen là hợp lý nhất.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] retest 31/05/2012 - Okie em sẽ close bug này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Tam] nếu chỉ verify với phone thì khi field pass là null phải login vào được mới đúng. Khi pass là null thì hiện thông báo, nhưng pass đúng và sai thì đều login vào được, nếu pass hiện tại set trong code thì khi em nhập sai vẫn không cho login vào được mới đúng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] em check voi Son giup anh case na`y nhe, thanks em
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Theo yêu cầu thì Salesmen vẫn verify password và phone luôn đó Đan. Có thể do developer trước làm thiếu nên mới xảy ra bug này. Đan fix giúp Sơn nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Tam] re-test 31/05/2012 - Bug này vẫn còn</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">[dan] Khong biet feature nay nam o dau, em coi lai giup anh cai step to reproduces nhe, thanks
 </t>
     </r>
@@ -14980,8 +15040,9 @@
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Tam] Em đã chỉnh lại rồi đó anh, thanks
-[dan] da sua</t>
+      <t xml:space="preserve">[Tam] Em đã chỉnh lại rồi đó anh, thanks
+[dan] da sua
+</t>
     </r>
   </si>
 </sst>
@@ -16090,9 +16151,9 @@
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16103,7 +16164,7 @@
     <col min="4" max="4" width="63.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="74.85546875" style="5" customWidth="1"/>
     <col min="8" max="9" width="24.28515625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="4.85546875" style="4"/>
   </cols>
@@ -16123,7 +16184,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F3" s="6">
         <f>COUNTIFS(F5:F19997,"=Close")</f>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -16314,7 +16375,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>60</v>
@@ -16438,7 +16499,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f>IF(D17="","",MAX($B$4:$B16)+1)</f>
         <v>13</v>
@@ -16453,10 +16514,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>56</v>
@@ -16711,7 +16772,7 @@
         <v>136</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>56</v>
@@ -16964,7 +17025,7 @@
         <v>136</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>56</v>
@@ -17320,7 +17381,7 @@
         <v>136</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>144</v>
@@ -17427,7 +17488,7 @@
         <v>136</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -17446,7 +17507,7 @@
         <v>136</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>146</v>
@@ -17490,7 +17551,7 @@
         <v>136</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>146</v>
@@ -17534,7 +17595,7 @@
         <v>136</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>146</v>
@@ -17556,7 +17617,7 @@
         <v>136</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>146</v>
@@ -17705,7 +17766,7 @@
         <v>136</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>146</v>
@@ -17727,7 +17788,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>146</v>
@@ -17793,13 +17854,13 @@
         <v>136</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f>IF(D78="","",MAX($B$4:$B77)+1)</f>
         <v>73</v>
@@ -17812,10 +17873,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>146</v>
@@ -17837,13 +17898,13 @@
         <v>136</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="262.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f>IF(D80="","",MAX($B$4:$B79)+1)</f>
         <v>75</v>
@@ -17856,10 +17917,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>147</v>
@@ -17925,7 +17986,7 @@
         <v>136</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>146</v>
@@ -17947,7 +18008,7 @@
         <v>136</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>146</v>
@@ -17969,7 +18030,7 @@
         <v>136</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>146</v>
@@ -17991,7 +18052,7 @@
         <v>136</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>146</v>
@@ -18035,7 +18096,7 @@
         <v>136</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>145</v>
@@ -18057,7 +18118,7 @@
         <v>136</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>146</v>
@@ -18079,7 +18140,7 @@
         <v>136</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>146</v>
@@ -18101,7 +18162,7 @@
         <v>136</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>146</v>
@@ -18116,7 +18177,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -18145,7 +18206,7 @@
         <v>136</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -18157,14 +18218,14 @@
         <v>121</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>146</v>
@@ -18179,14 +18240,14 @@
         <v>131</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>146</v>
@@ -18199,10 +18260,10 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="7"/>
@@ -18323,7 +18384,7 @@
   </sheetData>
   <autoFilter ref="B4:G106">
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
         <filter val="Open"/>
       </filters>
     </filterColumn>

--- a/04_TESTING/Leakage_Bug_List.xlsx
+++ b/04_TESTING/Leakage_Bug_List.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Bug_91" sheetId="43" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leakage Bug List'!$B$4:$G$111</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
   <si>
     <t>Leakage ID</t>
   </si>
@@ -15027,6 +15027,91 @@
     </r>
   </si>
   <si>
+    <t>Admiistrator &gt;&gt; Customers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bấm icon close của view log thì không Refresh lại page 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
